--- a/Maestros.xlsx
+++ b/Maestros.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ManuelV\Documents\Global\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ManuelV\Documents\GitHub\Global-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Banco" sheetId="15" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="Sub Estados CAV" sheetId="25" r:id="rId11"/>
     <sheet name="Tipo Bien" sheetId="26" r:id="rId12"/>
     <sheet name="Tipos De Contacto" sheetId="27" r:id="rId13"/>
+    <sheet name="Ubicaciones" sheetId="28" r:id="rId14"/>
+    <sheet name="Ubicaciones Pagarés" sheetId="29" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Banco!$A$2:$R$50</definedName>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="373">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -1024,6 +1026,144 @@
   </si>
   <si>
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Tipo de Contacto, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
+  </si>
+  <si>
+    <t>Ubicaciones</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Ubicaciones_AgregarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Ubicaciones_AgregarDescripcion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Ubicaciones_AgregarEnlaceModificar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Ubicaciones_AgregarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Ubicaciones_Agregar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Ubicaciones_EliminarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Ubicaciones_EliminarDescripcion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Ubicaciones_EliminarSinExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Ubicaciones_EliminarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Ubicaciones_Eliminar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Ubicaciones_ModificarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Ubicaciones_ModificarEnlace</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Ubicaciones_ModificarDescripcion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Ubicaciones_ModificarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Ubicaciones_Modificar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Ubicaciones_ConsolidadoError</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Ubicaciones, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Ubicaciones, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
+  </si>
+  <si>
+    <t>Ubicaciones Pagarés</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Ubicaciones Pagarés, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Ubicaciones Pagarés, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesPagarés_AgregarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesPagarés_AgregarEnlaceCausal</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesPagarés_AgregarEnlaceContacto</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesPagarés_AgregarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesPagarés_Agregar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesPagarés_EliminarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesPagarés_EliminarEnlaceCausal</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesPagarés_EliminarEnlaceContacto</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesPagarés_EliminarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesPagarés_Eliminar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesPagarés_ModificarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesPagarés_ModificarEnlaceCausal</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesPagarés_ModificarEnlaceContacto</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesPagarés_ModificarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesPagarés_Modificar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesPagarés_ConsolidadoError</t>
+  </si>
+  <si>
+    <t>Pagaré Descripción</t>
+  </si>
+  <si>
+    <t>Motivo Traslado</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
+  </si>
+  <si>
+    <t>Traslado</t>
+  </si>
+  <si>
+    <t>Afianza</t>
+  </si>
+  <si>
+    <t>Addwise</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Registro</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1257,6 +1397,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1307,9 +1453,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1617,7 +1760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="11" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="N37" sqref="N37"/>
     </sheetView>
@@ -1641,41 +1784,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="47" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="38" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="38" t="s">
+      <c r="M1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
@@ -1685,7 +1828,7 @@
       <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="46"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="14" t="s">
         <v>8</v>
       </c>
@@ -1701,10 +1844,10 @@
       <c r="J2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2666,7 +2809,7 @@
       <c r="L37" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="M37" s="55" t="s">
+      <c r="M37" s="39" t="s">
         <v>298</v>
       </c>
       <c r="N37" s="7" t="s">
@@ -2849,9 +2992,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="10" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M24" sqref="M24"/>
+      <selection pane="topRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2872,40 +3015,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="38" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="47" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="38" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="38" t="s">
+      <c r="L1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -2915,7 +3058,7 @@
       <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="39"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -2928,10 +3071,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2959,11 +3102,11 @@
         <v>317</v>
       </c>
       <c r="K3" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Segmentos",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <f t="shared" ref="K3:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Segmentos",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 12</v>
       </c>
       <c r="L3" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <f t="shared" ref="L3:L17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 12</v>
       </c>
       <c r="M3" s="7" t="s">
@@ -2996,11 +3139,11 @@
         <v>233</v>
       </c>
       <c r="K4" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Segmentos",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 10</v>
       </c>
       <c r="L4" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 10</v>
       </c>
       <c r="M4" s="7" t="s">
@@ -3027,11 +3170,11 @@
         <v>234</v>
       </c>
       <c r="K5" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B5=1,$B$2,IF(C5=1,$C$2,IF(D5=1,$D$2)))," del modulo Maestro, sub-modulo Segmentos",IF(E5=1,", considerando la opcion exportar a excel",""),IF(F5=1,", hacer clic en enlace Descripción para modificar registro",IF(G5=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H5=1,", finalizando con la consulta mediante el filtro ",""),IF(H5=1,$H$2,""),IF(H5=1," con el dato ",""),IF(H5=1,I5,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="L5" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos",IF(B5=1,", hacer clic en boton agregar",IF(C5=1,", hacer clic en boton eliminar",IF(D5=1,", hacer clic en boton modificar"))),IF(E5=1,", hacer clic en boton exportar a excel",""),IF(F5=1,", hacer clic en enlace Descripción para modificar registro",IF(G5=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H5=1,", finalizando con la consulta mediante el filtro ",""),IF(H5=1,$H$2,""),IF(H5=1," con el dato ",""),IF(H5=1,I5,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="M5" s="7" t="s">
@@ -3060,11 +3203,11 @@
         <v>235</v>
       </c>
       <c r="K6" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B6=1,$B$2,IF(C6=1,$C$2,IF(D6=1,$D$2)))," del modulo Maestro, sub-modulo Segmentos",IF(E6=1,", considerando la opcion exportar a excel",""),IF(F6=1,", hacer clic en enlace Descripción para modificar registro",IF(G6=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H6=1,", finalizando con la consulta mediante el filtro ",""),IF(H6=1,$H$2,""),IF(H6=1," con el dato ",""),IF(H6=1,I6,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="L6" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos",IF(B6=1,", hacer clic en boton agregar",IF(C6=1,", hacer clic en boton eliminar",IF(D6=1,", hacer clic en boton modificar"))),IF(E6=1,", hacer clic en boton exportar a excel",""),IF(F6=1,", hacer clic en enlace Descripción para modificar registro",IF(G6=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H6=1,", finalizando con la consulta mediante el filtro ",""),IF(H6=1,$H$2,""),IF(H6=1," con el dato ",""),IF(H6=1,I6,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="M6" s="7" t="s">
@@ -3089,11 +3232,11 @@
         <v>236</v>
       </c>
       <c r="K7" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B7=1,$B$2,IF(C7=1,$C$2,IF(D7=1,$D$2)))," del modulo Maestro, sub-modulo Segmentos",IF(E7=1,", considerando la opcion exportar a excel",""),IF(F7=1,", hacer clic en enlace Descripción para modificar registro",IF(G7=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H7=1,", finalizando con la consulta mediante el filtro ",""),IF(H7=1,$H$2,""),IF(H7=1," con el dato ",""),IF(H7=1,I7,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos</v>
       </c>
       <c r="L7" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos",IF(B7=1,", hacer clic en boton agregar",IF(C7=1,", hacer clic en boton eliminar",IF(D7=1,", hacer clic en boton modificar"))),IF(E7=1,", hacer clic en boton exportar a excel",""),IF(F7=1,", hacer clic en enlace Descripción para modificar registro",IF(G7=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H7=1,", finalizando con la consulta mediante el filtro ",""),IF(H7=1,$H$2,""),IF(H7=1," con el dato ",""),IF(H7=1,I7,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar</v>
       </c>
       <c r="M7" s="31" t="s">
@@ -3125,11 +3268,11 @@
         <v>237</v>
       </c>
       <c r="K8" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B8=1,$B$2,IF(C8=1,$C$2,IF(D8=1,$D$2)))," del modulo Maestro, sub-modulo Segmentos",IF(E8=1,", considerando la opcion exportar a excel",""),IF(F8=1,", hacer clic en enlace Descripción para modificar registro",IF(G8=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H8=1,", finalizando con la consulta mediante el filtro ",""),IF(H8=1,$H$2,""),IF(H8=1," con el dato ",""),IF(H8=1,I8,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 30</v>
       </c>
       <c r="L8" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos",IF(B8=1,", hacer clic en boton agregar",IF(C8=1,", hacer clic en boton eliminar",IF(D8=1,", hacer clic en boton modificar"))),IF(E8=1,", hacer clic en boton exportar a excel",""),IF(F8=1,", hacer clic en enlace Descripción para modificar registro",IF(G8=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H8=1,", finalizando con la consulta mediante el filtro ",""),IF(H8=1,$H$2,""),IF(H8=1," con el dato ",""),IF(H8=1,I8,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 30</v>
       </c>
       <c r="M8" s="7" t="s">
@@ -3161,11 +3304,11 @@
         <v>238</v>
       </c>
       <c r="K9" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B9=1,$B$2,IF(C9=1,$C$2,IF(D9=1,$D$2)))," del modulo Maestro, sub-modulo Segmentos",IF(E9=1,", considerando la opcion exportar a excel",""),IF(F9=1,", hacer clic en enlace Descripción para modificar registro",IF(G9=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H9=1,", finalizando con la consulta mediante el filtro ",""),IF(H9=1,$H$2,""),IF(H9=1," con el dato ",""),IF(H9=1,I9,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 5</v>
       </c>
       <c r="L9" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos",IF(B9=1,", hacer clic en boton agregar",IF(C9=1,", hacer clic en boton eliminar",IF(D9=1,", hacer clic en boton modificar"))),IF(E9=1,", hacer clic en boton exportar a excel",""),IF(F9=1,", hacer clic en enlace Descripción para modificar registro",IF(G9=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H9=1,", finalizando con la consulta mediante el filtro ",""),IF(H9=1,$H$2,""),IF(H9=1," con el dato ",""),IF(H9=1,I9,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 5</v>
       </c>
       <c r="M9" s="7" t="s">
@@ -3190,11 +3333,11 @@
         <v>239</v>
       </c>
       <c r="K10" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B10=1,$B$2,IF(C10=1,$C$2,IF(D10=1,$D$2)))," del modulo Maestro, sub-modulo Segmentos",IF(E10=1,", considerando la opcion exportar a excel",""),IF(F10=1,", hacer clic en enlace Descripción para modificar registro",IF(G10=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H10=1,", finalizando con la consulta mediante el filtro ",""),IF(H10=1,$H$2,""),IF(H10=1," con el dato ",""),IF(H10=1,I10,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="L10" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos",IF(B10=1,", hacer clic en boton agregar",IF(C10=1,", hacer clic en boton eliminar",IF(D10=1,", hacer clic en boton modificar"))),IF(E10=1,", hacer clic en boton exportar a excel",""),IF(F10=1,", hacer clic en enlace Descripción para modificar registro",IF(G10=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H10=1,", finalizando con la consulta mediante el filtro ",""),IF(H10=1,$H$2,""),IF(H10=1," con el dato ",""),IF(H10=1,I10,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="M10" s="7" t="s">
@@ -3222,11 +3365,11 @@
         <v>240</v>
       </c>
       <c r="K11" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B11=1,$B$2,IF(C11=1,$C$2,IF(D11=1,$D$2)))," del modulo Maestro, sub-modulo Segmentos",IF(E11=1,", considerando la opcion exportar a excel",""),IF(F11=1,", hacer clic en enlace Descripción para modificar registro",IF(G11=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H11=1,", finalizando con la consulta mediante el filtro ",""),IF(H11=1,$H$2,""),IF(H11=1," con el dato ",""),IF(H11=1,I11,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="L11" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos",IF(B11=1,", hacer clic en boton agregar",IF(C11=1,", hacer clic en boton eliminar",IF(D11=1,", hacer clic en boton modificar"))),IF(E11=1,", hacer clic en boton exportar a excel",""),IF(F11=1,", hacer clic en enlace Descripción para modificar registro",IF(G11=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H11=1,", finalizando con la consulta mediante el filtro ",""),IF(H11=1,$H$2,""),IF(H11=1," con el dato ",""),IF(H11=1,I11,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="M11" s="7" t="s">
@@ -3249,11 +3392,11 @@
         <v>241</v>
       </c>
       <c r="K12" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B12=1,$B$2,IF(C12=1,$C$2,IF(D12=1,$D$2)))," del modulo Maestro, sub-modulo Segmentos",IF(E12=1,", considerando la opcion exportar a excel",""),IF(F12=1,", hacer clic en enlace Descripción para modificar registro",IF(G12=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H12=1,", finalizando con la consulta mediante el filtro ",""),IF(H12=1,$H$2,""),IF(H12=1," con el dato ",""),IF(H12=1,I12,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos</v>
       </c>
       <c r="L12" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos",IF(B12=1,", hacer clic en boton agregar",IF(C12=1,", hacer clic en boton eliminar",IF(D12=1,", hacer clic en boton modificar"))),IF(E12=1,", hacer clic en boton exportar a excel",""),IF(F12=1,", hacer clic en enlace Descripción para modificar registro",IF(G12=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H12=1,", finalizando con la consulta mediante el filtro ",""),IF(H12=1,$H$2,""),IF(H12=1," con el dato ",""),IF(H12=1,I12,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar</v>
       </c>
       <c r="M12" s="31" t="s">
@@ -3284,11 +3427,11 @@
         <v>242</v>
       </c>
       <c r="K13" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B13=1,$B$2,IF(C13=1,$C$2,IF(D13=1,$D$2)))," del modulo Maestro, sub-modulo Segmentos",IF(E13=1,", considerando la opcion exportar a excel",""),IF(F13=1,", hacer clic en enlace Descripción para modificar registro",IF(G13=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H13=1,", finalizando con la consulta mediante el filtro ",""),IF(H13=1,$H$2,""),IF(H13=1," con el dato ",""),IF(H13=1,I13,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 2</v>
       </c>
       <c r="L13" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos",IF(B13=1,", hacer clic en boton agregar",IF(C13=1,", hacer clic en boton eliminar",IF(D13=1,", hacer clic en boton modificar"))),IF(E13=1,", hacer clic en boton exportar a excel",""),IF(F13=1,", hacer clic en enlace Descripción para modificar registro",IF(G13=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H13=1,", finalizando con la consulta mediante el filtro ",""),IF(H13=1,$H$2,""),IF(H13=1," con el dato ",""),IF(H13=1,I13,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 2</v>
       </c>
       <c r="M13" s="7" t="s">
@@ -3319,11 +3462,11 @@
         <v>243</v>
       </c>
       <c r="K14" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B14=1,$B$2,IF(C14=1,$C$2,IF(D14=1,$D$2)))," del modulo Maestro, sub-modulo Segmentos",IF(E14=1,", considerando la opcion exportar a excel",""),IF(F14=1,", hacer clic en enlace Descripción para modificar registro",IF(G14=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H14=1,", finalizando con la consulta mediante el filtro ",""),IF(H14=1,$H$2,""),IF(H14=1," con el dato ",""),IF(H14=1,I14,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 3</v>
       </c>
       <c r="L14" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos",IF(B14=1,", hacer clic en boton agregar",IF(C14=1,", hacer clic en boton eliminar",IF(D14=1,", hacer clic en boton modificar"))),IF(E14=1,", hacer clic en boton exportar a excel",""),IF(F14=1,", hacer clic en enlace Descripción para modificar registro",IF(G14=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H14=1,", finalizando con la consulta mediante el filtro ",""),IF(H14=1,$H$2,""),IF(H14=1," con el dato ",""),IF(H14=1,I14,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 3</v>
       </c>
       <c r="M14" s="7" t="s">
@@ -3347,11 +3490,11 @@
         <v>244</v>
       </c>
       <c r="K15" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B15=1,$B$2,IF(C15=1,$C$2,IF(D15=1,$D$2)))," del modulo Maestro, sub-modulo Segmentos",IF(E15=1,", considerando la opcion exportar a excel",""),IF(F15=1,", hacer clic en enlace Descripción para modificar registro",IF(G15=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H15=1,", finalizando con la consulta mediante el filtro ",""),IF(H15=1,$H$2,""),IF(H15=1," con el dato ",""),IF(H15=1,I15,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="L15" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos",IF(B15=1,", hacer clic en boton agregar",IF(C15=1,", hacer clic en boton eliminar",IF(D15=1,", hacer clic en boton modificar"))),IF(E15=1,", hacer clic en boton exportar a excel",""),IF(F15=1,", hacer clic en enlace Descripción para modificar registro",IF(G15=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H15=1,", finalizando con la consulta mediante el filtro ",""),IF(H15=1,$H$2,""),IF(H15=1," con el dato ",""),IF(H15=1,I15,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="M15" s="7" t="s">
@@ -3378,11 +3521,11 @@
         <v>245</v>
       </c>
       <c r="K16" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B16=1,$B$2,IF(C16=1,$C$2,IF(D16=1,$D$2)))," del modulo Maestro, sub-modulo Segmentos",IF(E16=1,", considerando la opcion exportar a excel",""),IF(F16=1,", hacer clic en enlace Descripción para modificar registro",IF(G16=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H16=1,", finalizando con la consulta mediante el filtro ",""),IF(H16=1,$H$2,""),IF(H16=1," con el dato ",""),IF(H16=1,I16,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="L16" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos",IF(B16=1,", hacer clic en boton agregar",IF(C16=1,", hacer clic en boton eliminar",IF(D16=1,", hacer clic en boton modificar"))),IF(E16=1,", hacer clic en boton exportar a excel",""),IF(F16=1,", hacer clic en enlace Descripción para modificar registro",IF(G16=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H16=1,", finalizando con la consulta mediante el filtro ",""),IF(H16=1,$H$2,""),IF(H16=1," con el dato ",""),IF(H16=1,I16,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="M16" s="7" t="s">
@@ -3404,11 +3547,11 @@
         <v>246</v>
       </c>
       <c r="K17" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B17=1,$B$2,IF(C17=1,$C$2,IF(D17=1,$D$2)))," del modulo Maestro, sub-modulo Segmentos",IF(E17=1,", considerando la opcion exportar a excel",""),IF(F17=1,", hacer clic en enlace Descripción para modificar registro",IF(G17=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H17=1,", finalizando con la consulta mediante el filtro ",""),IF(H17=1,$H$2,""),IF(H17=1," con el dato ",""),IF(H17=1,I17,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos</v>
       </c>
       <c r="L17" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos",IF(B17=1,", hacer clic en boton agregar",IF(C17=1,", hacer clic en boton eliminar",IF(D17=1,", hacer clic en boton modificar"))),IF(E17=1,", hacer clic en boton exportar a excel",""),IF(F17=1,", hacer clic en enlace Descripción para modificar registro",IF(G17=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H17=1,", finalizando con la consulta mediante el filtro ",""),IF(H17=1,$H$2,""),IF(H17=1," con el dato ",""),IF(H17=1,I17,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar</v>
       </c>
       <c r="M17" s="31" t="s">
@@ -3514,7 +3657,7 @@
       <c r="K24" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="L24" s="55" t="s">
+      <c r="L24" s="39" t="s">
         <v>319</v>
       </c>
       <c r="M24" s="7" t="s">
@@ -3837,7 +3980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="11" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="M23" sqref="M23"/>
     </sheetView>
@@ -3860,41 +4003,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="38" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="47" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="38" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="38" t="s">
+      <c r="M1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -3904,7 +4047,7 @@
       <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="39"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -3920,10 +4063,10 @@
       <c r="J2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -3952,11 +4095,11 @@
         <v>248</v>
       </c>
       <c r="L3" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Sub Estatos CAV",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
+        <f t="shared" ref="L3:L17" si="0">CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Sub Estatos CAV",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 12</v>
       </c>
       <c r="M3" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
+        <f t="shared" ref="M3:M17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 12</v>
       </c>
       <c r="N3" s="7" t="s">
@@ -3990,11 +4133,11 @@
         <v>249</v>
       </c>
       <c r="L4" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Sub Estatos CAV",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,J4,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 10</v>
       </c>
       <c r="M4" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,J4,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 10</v>
       </c>
       <c r="N4" s="7" t="s">
@@ -4022,11 +4165,11 @@
         <v>250</v>
       </c>
       <c r="L5" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B5=1,$B$2,IF(C5=1,$C$2,IF(D5=1,$D$2)))," del modulo Maestro, sub-modulo Sub Estatos CAV",IF(E5=1,", considerando la opcion exportar a excel",""),IF(F5=1,", hacer clic en enlace Descripción para modificar registro",IF(G5=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H5=1,", finalizando con la consulta mediante el filtro ",""),IF(H5=1,$H$2,""),IF(H5=1," con el dato ",""),IF(H5=1,J5,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="M5" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV",IF(B5=1,", hacer clic en boton agregar",IF(C5=1,", hacer clic en boton eliminar",IF(D5=1,", hacer clic en boton modificar"))),IF(E5=1,", hacer clic en boton exportar a excel",""),IF(F5=1,", hacer clic en enlace Descripción para modificar registro",IF(G5=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H5=1,", finalizando con la consulta mediante el filtro ",""),IF(H5=1,$H$2,""),IF(H5=1," con el dato ",""),IF(H5=1,J5,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton agregar, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="N5" s="7" t="s">
@@ -4056,11 +4199,11 @@
         <v>251</v>
       </c>
       <c r="L6" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B6=1,$B$2,IF(C6=1,$C$2,IF(D6=1,$D$2)))," del modulo Maestro, sub-modulo Sub Estatos CAV",IF(E6=1,", considerando la opcion exportar a excel",""),IF(F6=1,", hacer clic en enlace Descripción para modificar registro",IF(G6=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H6=1,", finalizando con la consulta mediante el filtro ",""),IF(H6=1,$H$2,""),IF(H6=1," con el dato ",""),IF(H6=1,J6,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="M6" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV",IF(B6=1,", hacer clic en boton agregar",IF(C6=1,", hacer clic en boton eliminar",IF(D6=1,", hacer clic en boton modificar"))),IF(E6=1,", hacer clic en boton exportar a excel",""),IF(F6=1,", hacer clic en enlace Descripción para modificar registro",IF(G6=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H6=1,", finalizando con la consulta mediante el filtro ",""),IF(H6=1,$H$2,""),IF(H6=1," con el dato ",""),IF(H6=1,J6,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="N6" s="7" t="s">
@@ -4086,11 +4229,11 @@
         <v>252</v>
       </c>
       <c r="L7" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B7=1,$B$2,IF(C7=1,$C$2,IF(D7=1,$D$2)))," del modulo Maestro, sub-modulo Sub Estatos CAV",IF(E7=1,", considerando la opcion exportar a excel",""),IF(F7=1,", hacer clic en enlace Descripción para modificar registro",IF(G7=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H7=1,", finalizando con la consulta mediante el filtro ",""),IF(H7=1,$H$2,""),IF(H7=1," con el dato ",""),IF(H7=1,J7,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Sub Estatos CAV</v>
       </c>
       <c r="M7" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV",IF(B7=1,", hacer clic en boton agregar",IF(C7=1,", hacer clic en boton eliminar",IF(D7=1,", hacer clic en boton modificar"))),IF(E7=1,", hacer clic en boton exportar a excel",""),IF(F7=1,", hacer clic en enlace Descripción para modificar registro",IF(G7=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H7=1,", finalizando con la consulta mediante el filtro ",""),IF(H7=1,$H$2,""),IF(H7=1," con el dato ",""),IF(H7=1,J7,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton agregar</v>
       </c>
       <c r="N7" s="31" t="s">
@@ -4123,11 +4266,11 @@
         <v>253</v>
       </c>
       <c r="L8" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B8=1,$B$2,IF(C8=1,$C$2,IF(D8=1,$D$2)))," del modulo Maestro, sub-modulo Sub Estatos CAV",IF(E8=1,", considerando la opcion exportar a excel",""),IF(F8=1,", hacer clic en enlace Descripción para modificar registro",IF(G8=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H8=1,", finalizando con la consulta mediante el filtro ",""),IF(H8=1,$H$2,""),IF(H8=1," con el dato ",""),IF(H8=1,J8,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 30</v>
       </c>
       <c r="M8" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV",IF(B8=1,", hacer clic en boton agregar",IF(C8=1,", hacer clic en boton eliminar",IF(D8=1,", hacer clic en boton modificar"))),IF(E8=1,", hacer clic en boton exportar a excel",""),IF(F8=1,", hacer clic en enlace Descripción para modificar registro",IF(G8=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H8=1,", finalizando con la consulta mediante el filtro ",""),IF(H8=1,$H$2,""),IF(H8=1," con el dato ",""),IF(H8=1,J8,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 30</v>
       </c>
       <c r="N8" s="7" t="s">
@@ -4160,11 +4303,11 @@
         <v>254</v>
       </c>
       <c r="L9" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B9=1,$B$2,IF(C9=1,$C$2,IF(D9=1,$D$2)))," del modulo Maestro, sub-modulo Sub Estatos CAV",IF(E9=1,", considerando la opcion exportar a excel",""),IF(F9=1,", hacer clic en enlace Descripción para modificar registro",IF(G9=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H9=1,", finalizando con la consulta mediante el filtro ",""),IF(H9=1,$H$2,""),IF(H9=1," con el dato ",""),IF(H9=1,J9,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 5</v>
       </c>
       <c r="M9" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV",IF(B9=1,", hacer clic en boton agregar",IF(C9=1,", hacer clic en boton eliminar",IF(D9=1,", hacer clic en boton modificar"))),IF(E9=1,", hacer clic en boton exportar a excel",""),IF(F9=1,", hacer clic en enlace Descripción para modificar registro",IF(G9=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H9=1,", finalizando con la consulta mediante el filtro ",""),IF(H9=1,$H$2,""),IF(H9=1," con el dato ",""),IF(H9=1,J9,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 5</v>
       </c>
       <c r="N9" s="7" t="s">
@@ -4190,11 +4333,11 @@
         <v>255</v>
       </c>
       <c r="L10" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B10=1,$B$2,IF(C10=1,$C$2,IF(D10=1,$D$2)))," del modulo Maestro, sub-modulo Sub Estatos CAV",IF(E10=1,", considerando la opcion exportar a excel",""),IF(F10=1,", hacer clic en enlace Descripción para modificar registro",IF(G10=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H10=1,", finalizando con la consulta mediante el filtro ",""),IF(H10=1,$H$2,""),IF(H10=1," con el dato ",""),IF(H10=1,J10,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="M10" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV",IF(B10=1,", hacer clic en boton agregar",IF(C10=1,", hacer clic en boton eliminar",IF(D10=1,", hacer clic en boton modificar"))),IF(E10=1,", hacer clic en boton exportar a excel",""),IF(F10=1,", hacer clic en enlace Descripción para modificar registro",IF(G10=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H10=1,", finalizando con la consulta mediante el filtro ",""),IF(H10=1,$H$2,""),IF(H10=1," con el dato ",""),IF(H10=1,J10,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton eliminar, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="N10" s="7" t="s">
@@ -4223,11 +4366,11 @@
         <v>256</v>
       </c>
       <c r="L11" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B11=1,$B$2,IF(C11=1,$C$2,IF(D11=1,$D$2)))," del modulo Maestro, sub-modulo Sub Estatos CAV",IF(E11=1,", considerando la opcion exportar a excel",""),IF(F11=1,", hacer clic en enlace Descripción para modificar registro",IF(G11=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H11=1,", finalizando con la consulta mediante el filtro ",""),IF(H11=1,$H$2,""),IF(H11=1," con el dato ",""),IF(H11=1,J11,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="M11" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV",IF(B11=1,", hacer clic en boton agregar",IF(C11=1,", hacer clic en boton eliminar",IF(D11=1,", hacer clic en boton modificar"))),IF(E11=1,", hacer clic en boton exportar a excel",""),IF(F11=1,", hacer clic en enlace Descripción para modificar registro",IF(G11=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H11=1,", finalizando con la consulta mediante el filtro ",""),IF(H11=1,$H$2,""),IF(H11=1," con el dato ",""),IF(H11=1,J11,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="N11" s="7" t="s">
@@ -4251,11 +4394,11 @@
         <v>257</v>
       </c>
       <c r="L12" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B12=1,$B$2,IF(C12=1,$C$2,IF(D12=1,$D$2)))," del modulo Maestro, sub-modulo Sub Estatos CAV",IF(E12=1,", considerando la opcion exportar a excel",""),IF(F12=1,", hacer clic en enlace Descripción para modificar registro",IF(G12=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H12=1,", finalizando con la consulta mediante el filtro ",""),IF(H12=1,$H$2,""),IF(H12=1," con el dato ",""),IF(H12=1,J12,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Sub Estatos CAV</v>
       </c>
       <c r="M12" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV",IF(B12=1,", hacer clic en boton agregar",IF(C12=1,", hacer clic en boton eliminar",IF(D12=1,", hacer clic en boton modificar"))),IF(E12=1,", hacer clic en boton exportar a excel",""),IF(F12=1,", hacer clic en enlace Descripción para modificar registro",IF(G12=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H12=1,", finalizando con la consulta mediante el filtro ",""),IF(H12=1,$H$2,""),IF(H12=1," con el dato ",""),IF(H12=1,J12,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton eliminar</v>
       </c>
       <c r="N12" s="31" t="s">
@@ -4287,11 +4430,11 @@
         <v>258</v>
       </c>
       <c r="L13" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B13=1,$B$2,IF(C13=1,$C$2,IF(D13=1,$D$2)))," del modulo Maestro, sub-modulo Sub Estatos CAV",IF(E13=1,", considerando la opcion exportar a excel",""),IF(F13=1,", hacer clic en enlace Descripción para modificar registro",IF(G13=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H13=1,", finalizando con la consulta mediante el filtro ",""),IF(H13=1,$H$2,""),IF(H13=1," con el dato ",""),IF(H13=1,J13,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 2</v>
       </c>
       <c r="M13" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV",IF(B13=1,", hacer clic en boton agregar",IF(C13=1,", hacer clic en boton eliminar",IF(D13=1,", hacer clic en boton modificar"))),IF(E13=1,", hacer clic en boton exportar a excel",""),IF(F13=1,", hacer clic en enlace Descripción para modificar registro",IF(G13=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H13=1,", finalizando con la consulta mediante el filtro ",""),IF(H13=1,$H$2,""),IF(H13=1," con el dato ",""),IF(H13=1,J13,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 2</v>
       </c>
       <c r="N13" s="7" t="s">
@@ -4323,11 +4466,11 @@
         <v>259</v>
       </c>
       <c r="L14" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B14=1,$B$2,IF(C14=1,$C$2,IF(D14=1,$D$2)))," del modulo Maestro, sub-modulo Sub Estatos CAV",IF(E14=1,", considerando la opcion exportar a excel",""),IF(F14=1,", hacer clic en enlace Descripción para modificar registro",IF(G14=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H14=1,", finalizando con la consulta mediante el filtro ",""),IF(H14=1,$H$2,""),IF(H14=1," con el dato ",""),IF(H14=1,J14,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 3</v>
       </c>
       <c r="M14" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV",IF(B14=1,", hacer clic en boton agregar",IF(C14=1,", hacer clic en boton eliminar",IF(D14=1,", hacer clic en boton modificar"))),IF(E14=1,", hacer clic en boton exportar a excel",""),IF(F14=1,", hacer clic en enlace Descripción para modificar registro",IF(G14=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H14=1,", finalizando con la consulta mediante el filtro ",""),IF(H14=1,$H$2,""),IF(H14=1," con el dato ",""),IF(H14=1,J14,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 3</v>
       </c>
       <c r="N14" s="7" t="s">
@@ -4352,11 +4495,11 @@
         <v>260</v>
       </c>
       <c r="L15" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B15=1,$B$2,IF(C15=1,$C$2,IF(D15=1,$D$2)))," del modulo Maestro, sub-modulo Sub Estatos CAV",IF(E15=1,", considerando la opcion exportar a excel",""),IF(F15=1,", hacer clic en enlace Descripción para modificar registro",IF(G15=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H15=1,", finalizando con la consulta mediante el filtro ",""),IF(H15=1,$H$2,""),IF(H15=1," con el dato ",""),IF(H15=1,J15,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="M15" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV",IF(B15=1,", hacer clic en boton agregar",IF(C15=1,", hacer clic en boton eliminar",IF(D15=1,", hacer clic en boton modificar"))),IF(E15=1,", hacer clic en boton exportar a excel",""),IF(F15=1,", hacer clic en enlace Descripción para modificar registro",IF(G15=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H15=1,", finalizando con la consulta mediante el filtro ",""),IF(H15=1,$H$2,""),IF(H15=1," con el dato ",""),IF(H15=1,J15,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton modificar, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="N15" s="7" t="s">
@@ -4384,11 +4527,11 @@
         <v>261</v>
       </c>
       <c r="L16" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B16=1,$B$2,IF(C16=1,$C$2,IF(D16=1,$D$2)))," del modulo Maestro, sub-modulo Sub Estatos CAV",IF(E16=1,", considerando la opcion exportar a excel",""),IF(F16=1,", hacer clic en enlace Descripción para modificar registro",IF(G16=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H16=1,", finalizando con la consulta mediante el filtro ",""),IF(H16=1,$H$2,""),IF(H16=1," con el dato ",""),IF(H16=1,J16,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="M16" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV",IF(B16=1,", hacer clic en boton agregar",IF(C16=1,", hacer clic en boton eliminar",IF(D16=1,", hacer clic en boton modificar"))),IF(E16=1,", hacer clic en boton exportar a excel",""),IF(F16=1,", hacer clic en enlace Descripción para modificar registro",IF(G16=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H16=1,", finalizando con la consulta mediante el filtro ",""),IF(H16=1,$H$2,""),IF(H16=1," con el dato ",""),IF(H16=1,J16,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="N16" s="7" t="s">
@@ -4411,11 +4554,11 @@
         <v>262</v>
       </c>
       <c r="L17" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B17=1,$B$2,IF(C17=1,$C$2,IF(D17=1,$D$2)))," del modulo Maestro, sub-modulo Sub Estatos CAV",IF(E17=1,", considerando la opcion exportar a excel",""),IF(F17=1,", hacer clic en enlace Descripción para modificar registro",IF(G17=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H17=1,", finalizando con la consulta mediante el filtro ",""),IF(H17=1,$H$2,""),IF(H17=1," con el dato ",""),IF(H17=1,J17,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Sub Estatos CAV</v>
       </c>
       <c r="M17" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV",IF(B17=1,", hacer clic en boton agregar",IF(C17=1,", hacer clic en boton eliminar",IF(D17=1,", hacer clic en boton modificar"))),IF(E17=1,", hacer clic en boton exportar a excel",""),IF(F17=1,", hacer clic en enlace Descripción para modificar registro",IF(G17=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H17=1,", finalizando con la consulta mediante el filtro ",""),IF(H17=1,$H$2,""),IF(H17=1," con el dato ",""),IF(H17=1,J17,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton modificar</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -4513,7 +4656,7 @@
       <c r="L23" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="M23" s="55" t="s">
+      <c r="M23" s="39" t="s">
         <v>321</v>
       </c>
       <c r="N23" s="7" t="s">
@@ -4877,7 +5020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="L24" sqref="L24"/>
     </sheetView>
@@ -4900,40 +5043,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="38" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="47" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="38" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="38" t="s">
+      <c r="L1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -4943,7 +5086,7 @@
       <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="39"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -4956,10 +5099,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -4987,11 +5130,11 @@
         <v>264</v>
       </c>
       <c r="K3" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo TIpo Bien",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <f t="shared" ref="K3:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo TIpo Bien",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 12</v>
       </c>
       <c r="L3" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <f t="shared" ref="L3:L17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 12</v>
       </c>
       <c r="M3" s="7" t="s">
@@ -5024,11 +5167,11 @@
         <v>265</v>
       </c>
       <c r="K4" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo TIpo Bien",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 10</v>
       </c>
       <c r="L4" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 10</v>
       </c>
       <c r="M4" s="7" t="s">
@@ -5055,11 +5198,11 @@
         <v>266</v>
       </c>
       <c r="K5" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B5=1,$B$2,IF(C5=1,$C$2,IF(D5=1,$D$2)))," del modulo Maestro, sub-modulo TIpo Bien",IF(E5=1,", considerando la opcion exportar a excel",""),IF(F5=1,", hacer clic en enlace Descripción para modificar registro",IF(G5=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H5=1,", finalizando con la consulta mediante el filtro ",""),IF(H5=1,$H$2,""),IF(H5=1," con el dato ",""),IF(H5=1,I5,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo TIpo Bien, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="L5" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien",IF(B5=1,", hacer clic en boton agregar",IF(C5=1,", hacer clic en boton eliminar",IF(D5=1,", hacer clic en boton modificar"))),IF(E5=1,", hacer clic en boton exportar a excel",""),IF(F5=1,", hacer clic en enlace Descripción para modificar registro",IF(G5=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H5=1,", finalizando con la consulta mediante el filtro ",""),IF(H5=1,$H$2,""),IF(H5=1," con el dato ",""),IF(H5=1,I5,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="M5" s="7" t="s">
@@ -5088,11 +5231,11 @@
         <v>267</v>
       </c>
       <c r="K6" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B6=1,$B$2,IF(C6=1,$C$2,IF(D6=1,$D$2)))," del modulo Maestro, sub-modulo TIpo Bien",IF(E6=1,", considerando la opcion exportar a excel",""),IF(F6=1,", hacer clic en enlace Descripción para modificar registro",IF(G6=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H6=1,", finalizando con la consulta mediante el filtro ",""),IF(H6=1,$H$2,""),IF(H6=1," con el dato ",""),IF(H6=1,I6,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="L6" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien",IF(B6=1,", hacer clic en boton agregar",IF(C6=1,", hacer clic en boton eliminar",IF(D6=1,", hacer clic en boton modificar"))),IF(E6=1,", hacer clic en boton exportar a excel",""),IF(F6=1,", hacer clic en enlace Descripción para modificar registro",IF(G6=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H6=1,", finalizando con la consulta mediante el filtro ",""),IF(H6=1,$H$2,""),IF(H6=1," con el dato ",""),IF(H6=1,I6,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="M6" s="7" t="s">
@@ -5117,11 +5260,11 @@
         <v>268</v>
       </c>
       <c r="K7" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B7=1,$B$2,IF(C7=1,$C$2,IF(D7=1,$D$2)))," del modulo Maestro, sub-modulo TIpo Bien",IF(E7=1,", considerando la opcion exportar a excel",""),IF(F7=1,", hacer clic en enlace Descripción para modificar registro",IF(G7=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H7=1,", finalizando con la consulta mediante el filtro ",""),IF(H7=1,$H$2,""),IF(H7=1," con el dato ",""),IF(H7=1,I7,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo TIpo Bien</v>
       </c>
       <c r="L7" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien",IF(B7=1,", hacer clic en boton agregar",IF(C7=1,", hacer clic en boton eliminar",IF(D7=1,", hacer clic en boton modificar"))),IF(E7=1,", hacer clic en boton exportar a excel",""),IF(F7=1,", hacer clic en enlace Descripción para modificar registro",IF(G7=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H7=1,", finalizando con la consulta mediante el filtro ",""),IF(H7=1,$H$2,""),IF(H7=1," con el dato ",""),IF(H7=1,I7,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar</v>
       </c>
       <c r="M7" s="31" t="s">
@@ -5153,11 +5296,11 @@
         <v>269</v>
       </c>
       <c r="K8" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B8=1,$B$2,IF(C8=1,$C$2,IF(D8=1,$D$2)))," del modulo Maestro, sub-modulo TIpo Bien",IF(E8=1,", considerando la opcion exportar a excel",""),IF(F8=1,", hacer clic en enlace Descripción para modificar registro",IF(G8=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H8=1,", finalizando con la consulta mediante el filtro ",""),IF(H8=1,$H$2,""),IF(H8=1," con el dato ",""),IF(H8=1,I8,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 30</v>
       </c>
       <c r="L8" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien",IF(B8=1,", hacer clic en boton agregar",IF(C8=1,", hacer clic en boton eliminar",IF(D8=1,", hacer clic en boton modificar"))),IF(E8=1,", hacer clic en boton exportar a excel",""),IF(F8=1,", hacer clic en enlace Descripción para modificar registro",IF(G8=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H8=1,", finalizando con la consulta mediante el filtro ",""),IF(H8=1,$H$2,""),IF(H8=1," con el dato ",""),IF(H8=1,I8,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 30</v>
       </c>
       <c r="M8" s="7" t="s">
@@ -5189,11 +5332,11 @@
         <v>270</v>
       </c>
       <c r="K9" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B9=1,$B$2,IF(C9=1,$C$2,IF(D9=1,$D$2)))," del modulo Maestro, sub-modulo TIpo Bien",IF(E9=1,", considerando la opcion exportar a excel",""),IF(F9=1,", hacer clic en enlace Descripción para modificar registro",IF(G9=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H9=1,", finalizando con la consulta mediante el filtro ",""),IF(H9=1,$H$2,""),IF(H9=1," con el dato ",""),IF(H9=1,I9,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 5</v>
       </c>
       <c r="L9" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien",IF(B9=1,", hacer clic en boton agregar",IF(C9=1,", hacer clic en boton eliminar",IF(D9=1,", hacer clic en boton modificar"))),IF(E9=1,", hacer clic en boton exportar a excel",""),IF(F9=1,", hacer clic en enlace Descripción para modificar registro",IF(G9=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H9=1,", finalizando con la consulta mediante el filtro ",""),IF(H9=1,$H$2,""),IF(H9=1," con el dato ",""),IF(H9=1,I9,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 5</v>
       </c>
       <c r="M9" s="7" t="s">
@@ -5218,11 +5361,11 @@
         <v>271</v>
       </c>
       <c r="K10" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B10=1,$B$2,IF(C10=1,$C$2,IF(D10=1,$D$2)))," del modulo Maestro, sub-modulo TIpo Bien",IF(E10=1,", considerando la opcion exportar a excel",""),IF(F10=1,", hacer clic en enlace Descripción para modificar registro",IF(G10=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H10=1,", finalizando con la consulta mediante el filtro ",""),IF(H10=1,$H$2,""),IF(H10=1," con el dato ",""),IF(H10=1,I10,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo TIpo Bien, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="L10" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien",IF(B10=1,", hacer clic en boton agregar",IF(C10=1,", hacer clic en boton eliminar",IF(D10=1,", hacer clic en boton modificar"))),IF(E10=1,", hacer clic en boton exportar a excel",""),IF(F10=1,", hacer clic en enlace Descripción para modificar registro",IF(G10=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H10=1,", finalizando con la consulta mediante el filtro ",""),IF(H10=1,$H$2,""),IF(H10=1," con el dato ",""),IF(H10=1,I10,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="M10" s="7" t="s">
@@ -5250,11 +5393,11 @@
         <v>272</v>
       </c>
       <c r="K11" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B11=1,$B$2,IF(C11=1,$C$2,IF(D11=1,$D$2)))," del modulo Maestro, sub-modulo TIpo Bien",IF(E11=1,", considerando la opcion exportar a excel",""),IF(F11=1,", hacer clic en enlace Descripción para modificar registro",IF(G11=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H11=1,", finalizando con la consulta mediante el filtro ",""),IF(H11=1,$H$2,""),IF(H11=1," con el dato ",""),IF(H11=1,I11,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="L11" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien",IF(B11=1,", hacer clic en boton agregar",IF(C11=1,", hacer clic en boton eliminar",IF(D11=1,", hacer clic en boton modificar"))),IF(E11=1,", hacer clic en boton exportar a excel",""),IF(F11=1,", hacer clic en enlace Descripción para modificar registro",IF(G11=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H11=1,", finalizando con la consulta mediante el filtro ",""),IF(H11=1,$H$2,""),IF(H11=1," con el dato ",""),IF(H11=1,I11,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="M11" s="7" t="s">
@@ -5277,11 +5420,11 @@
         <v>273</v>
       </c>
       <c r="K12" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B12=1,$B$2,IF(C12=1,$C$2,IF(D12=1,$D$2)))," del modulo Maestro, sub-modulo TIpo Bien",IF(E12=1,", considerando la opcion exportar a excel",""),IF(F12=1,", hacer clic en enlace Descripción para modificar registro",IF(G12=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H12=1,", finalizando con la consulta mediante el filtro ",""),IF(H12=1,$H$2,""),IF(H12=1," con el dato ",""),IF(H12=1,I12,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo TIpo Bien</v>
       </c>
       <c r="L12" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien",IF(B12=1,", hacer clic en boton agregar",IF(C12=1,", hacer clic en boton eliminar",IF(D12=1,", hacer clic en boton modificar"))),IF(E12=1,", hacer clic en boton exportar a excel",""),IF(F12=1,", hacer clic en enlace Descripción para modificar registro",IF(G12=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H12=1,", finalizando con la consulta mediante el filtro ",""),IF(H12=1,$H$2,""),IF(H12=1," con el dato ",""),IF(H12=1,I12,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar</v>
       </c>
       <c r="M12" s="31" t="s">
@@ -5312,11 +5455,11 @@
         <v>274</v>
       </c>
       <c r="K13" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B13=1,$B$2,IF(C13=1,$C$2,IF(D13=1,$D$2)))," del modulo Maestro, sub-modulo TIpo Bien",IF(E13=1,", considerando la opcion exportar a excel",""),IF(F13=1,", hacer clic en enlace Descripción para modificar registro",IF(G13=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H13=1,", finalizando con la consulta mediante el filtro ",""),IF(H13=1,$H$2,""),IF(H13=1," con el dato ",""),IF(H13=1,I13,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 2</v>
       </c>
       <c r="L13" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien",IF(B13=1,", hacer clic en boton agregar",IF(C13=1,", hacer clic en boton eliminar",IF(D13=1,", hacer clic en boton modificar"))),IF(E13=1,", hacer clic en boton exportar a excel",""),IF(F13=1,", hacer clic en enlace Descripción para modificar registro",IF(G13=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H13=1,", finalizando con la consulta mediante el filtro ",""),IF(H13=1,$H$2,""),IF(H13=1," con el dato ",""),IF(H13=1,I13,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 2</v>
       </c>
       <c r="M13" s="7" t="s">
@@ -5347,11 +5490,11 @@
         <v>275</v>
       </c>
       <c r="K14" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B14=1,$B$2,IF(C14=1,$C$2,IF(D14=1,$D$2)))," del modulo Maestro, sub-modulo TIpo Bien",IF(E14=1,", considerando la opcion exportar a excel",""),IF(F14=1,", hacer clic en enlace Descripción para modificar registro",IF(G14=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H14=1,", finalizando con la consulta mediante el filtro ",""),IF(H14=1,$H$2,""),IF(H14=1," con el dato ",""),IF(H14=1,I14,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 3</v>
       </c>
       <c r="L14" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien",IF(B14=1,", hacer clic en boton agregar",IF(C14=1,", hacer clic en boton eliminar",IF(D14=1,", hacer clic en boton modificar"))),IF(E14=1,", hacer clic en boton exportar a excel",""),IF(F14=1,", hacer clic en enlace Descripción para modificar registro",IF(G14=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H14=1,", finalizando con la consulta mediante el filtro ",""),IF(H14=1,$H$2,""),IF(H14=1," con el dato ",""),IF(H14=1,I14,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 3</v>
       </c>
       <c r="M14" s="7" t="s">
@@ -5375,11 +5518,11 @@
         <v>276</v>
       </c>
       <c r="K15" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B15=1,$B$2,IF(C15=1,$C$2,IF(D15=1,$D$2)))," del modulo Maestro, sub-modulo TIpo Bien",IF(E15=1,", considerando la opcion exportar a excel",""),IF(F15=1,", hacer clic en enlace Descripción para modificar registro",IF(G15=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H15=1,", finalizando con la consulta mediante el filtro ",""),IF(H15=1,$H$2,""),IF(H15=1," con el dato ",""),IF(H15=1,I15,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo TIpo Bien, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="L15" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien",IF(B15=1,", hacer clic en boton agregar",IF(C15=1,", hacer clic en boton eliminar",IF(D15=1,", hacer clic en boton modificar"))),IF(E15=1,", hacer clic en boton exportar a excel",""),IF(F15=1,", hacer clic en enlace Descripción para modificar registro",IF(G15=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H15=1,", finalizando con la consulta mediante el filtro ",""),IF(H15=1,$H$2,""),IF(H15=1," con el dato ",""),IF(H15=1,I15,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="M15" s="7" t="s">
@@ -5406,11 +5549,11 @@
         <v>277</v>
       </c>
       <c r="K16" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B16=1,$B$2,IF(C16=1,$C$2,IF(D16=1,$D$2)))," del modulo Maestro, sub-modulo TIpo Bien",IF(E16=1,", considerando la opcion exportar a excel",""),IF(F16=1,", hacer clic en enlace Descripción para modificar registro",IF(G16=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H16=1,", finalizando con la consulta mediante el filtro ",""),IF(H16=1,$H$2,""),IF(H16=1," con el dato ",""),IF(H16=1,I16,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="L16" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien",IF(B16=1,", hacer clic en boton agregar",IF(C16=1,", hacer clic en boton eliminar",IF(D16=1,", hacer clic en boton modificar"))),IF(E16=1,", hacer clic en boton exportar a excel",""),IF(F16=1,", hacer clic en enlace Descripción para modificar registro",IF(G16=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H16=1,", finalizando con la consulta mediante el filtro ",""),IF(H16=1,$H$2,""),IF(H16=1," con el dato ",""),IF(H16=1,I16,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="M16" s="7" t="s">
@@ -5432,11 +5575,11 @@
         <v>278</v>
       </c>
       <c r="K17" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B17=1,$B$2,IF(C17=1,$C$2,IF(D17=1,$D$2)))," del modulo Maestro, sub-modulo TIpo Bien",IF(E17=1,", considerando la opcion exportar a excel",""),IF(F17=1,", hacer clic en enlace Descripción para modificar registro",IF(G17=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H17=1,", finalizando con la consulta mediante el filtro ",""),IF(H17=1,$H$2,""),IF(H17=1," con el dato ",""),IF(H17=1,I17,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo TIpo Bien</v>
       </c>
       <c r="L17" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien",IF(B17=1,", hacer clic en boton agregar",IF(C17=1,", hacer clic en boton eliminar",IF(D17=1,", hacer clic en boton modificar"))),IF(E17=1,", hacer clic en boton exportar a excel",""),IF(F17=1,", hacer clic en enlace Descripción para modificar registro",IF(G17=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H17=1,", finalizando con la consulta mediante el filtro ",""),IF(H17=1,$H$2,""),IF(H17=1," con el dato ",""),IF(H17=1,I17,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar</v>
       </c>
       <c r="M17" s="31" t="s">
@@ -5542,7 +5685,7 @@
       <c r="K24" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="L24" s="55" t="s">
+      <c r="L24" s="39" t="s">
         <v>324</v>
       </c>
       <c r="M24" s="7" t="s">
@@ -5865,7 +6008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="L25" sqref="L25"/>
     </sheetView>
@@ -5888,40 +6031,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="38" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="47" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="38" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="38" t="s">
+      <c r="L1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -5931,7 +6074,7 @@
       <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="39"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -5944,10 +6087,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -5975,11 +6118,11 @@
         <v>280</v>
       </c>
       <c r="K3" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Tipo de Contacto",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <f t="shared" ref="K3:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Tipo de Contacto",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 12</v>
       </c>
       <c r="L3" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <f t="shared" ref="L3:L17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 12</v>
       </c>
       <c r="M3" s="7" t="s">
@@ -6012,11 +6155,11 @@
         <v>281</v>
       </c>
       <c r="K4" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Tipo de Contacto",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 10</v>
       </c>
       <c r="L4" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 10</v>
       </c>
       <c r="M4" s="7" t="s">
@@ -6043,11 +6186,11 @@
         <v>282</v>
       </c>
       <c r="K5" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B5=1,$B$2,IF(C5=1,$C$2,IF(D5=1,$D$2)))," del modulo Maestro, sub-modulo Tipo de Contacto",IF(E5=1,", considerando la opcion exportar a excel",""),IF(F5=1,", hacer clic en enlace Descripción para modificar registro",IF(G5=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H5=1,", finalizando con la consulta mediante el filtro ",""),IF(H5=1,$H$2,""),IF(H5=1," con el dato ",""),IF(H5=1,I5,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="L5" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto",IF(B5=1,", hacer clic en boton agregar",IF(C5=1,", hacer clic en boton eliminar",IF(D5=1,", hacer clic en boton modificar"))),IF(E5=1,", hacer clic en boton exportar a excel",""),IF(F5=1,", hacer clic en enlace Descripción para modificar registro",IF(G5=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H5=1,", finalizando con la consulta mediante el filtro ",""),IF(H5=1,$H$2,""),IF(H5=1," con el dato ",""),IF(H5=1,I5,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton agregar, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="M5" s="7" t="s">
@@ -6076,11 +6219,11 @@
         <v>283</v>
       </c>
       <c r="K6" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B6=1,$B$2,IF(C6=1,$C$2,IF(D6=1,$D$2)))," del modulo Maestro, sub-modulo Tipo de Contacto",IF(E6=1,", considerando la opcion exportar a excel",""),IF(F6=1,", hacer clic en enlace Descripción para modificar registro",IF(G6=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H6=1,", finalizando con la consulta mediante el filtro ",""),IF(H6=1,$H$2,""),IF(H6=1," con el dato ",""),IF(H6=1,I6,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="L6" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto",IF(B6=1,", hacer clic en boton agregar",IF(C6=1,", hacer clic en boton eliminar",IF(D6=1,", hacer clic en boton modificar"))),IF(E6=1,", hacer clic en boton exportar a excel",""),IF(F6=1,", hacer clic en enlace Descripción para modificar registro",IF(G6=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H6=1,", finalizando con la consulta mediante el filtro ",""),IF(H6=1,$H$2,""),IF(H6=1," con el dato ",""),IF(H6=1,I6,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="M6" s="7" t="s">
@@ -6105,11 +6248,11 @@
         <v>284</v>
       </c>
       <c r="K7" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B7=1,$B$2,IF(C7=1,$C$2,IF(D7=1,$D$2)))," del modulo Maestro, sub-modulo Tipo de Contacto",IF(E7=1,", considerando la opcion exportar a excel",""),IF(F7=1,", hacer clic en enlace Descripción para modificar registro",IF(G7=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H7=1,", finalizando con la consulta mediante el filtro ",""),IF(H7=1,$H$2,""),IF(H7=1," con el dato ",""),IF(H7=1,I7,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Tipo de Contacto</v>
       </c>
       <c r="L7" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto",IF(B7=1,", hacer clic en boton agregar",IF(C7=1,", hacer clic en boton eliminar",IF(D7=1,", hacer clic en boton modificar"))),IF(E7=1,", hacer clic en boton exportar a excel",""),IF(F7=1,", hacer clic en enlace Descripción para modificar registro",IF(G7=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H7=1,", finalizando con la consulta mediante el filtro ",""),IF(H7=1,$H$2,""),IF(H7=1," con el dato ",""),IF(H7=1,I7,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton agregar</v>
       </c>
       <c r="M7" s="31" t="s">
@@ -6141,11 +6284,11 @@
         <v>285</v>
       </c>
       <c r="K8" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B8=1,$B$2,IF(C8=1,$C$2,IF(D8=1,$D$2)))," del modulo Maestro, sub-modulo Tipo de Contacto",IF(E8=1,", considerando la opcion exportar a excel",""),IF(F8=1,", hacer clic en enlace Descripción para modificar registro",IF(G8=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H8=1,", finalizando con la consulta mediante el filtro ",""),IF(H8=1,$H$2,""),IF(H8=1," con el dato ",""),IF(H8=1,I8,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 30</v>
       </c>
       <c r="L8" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto",IF(B8=1,", hacer clic en boton agregar",IF(C8=1,", hacer clic en boton eliminar",IF(D8=1,", hacer clic en boton modificar"))),IF(E8=1,", hacer clic en boton exportar a excel",""),IF(F8=1,", hacer clic en enlace Descripción para modificar registro",IF(G8=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H8=1,", finalizando con la consulta mediante el filtro ",""),IF(H8=1,$H$2,""),IF(H8=1," con el dato ",""),IF(H8=1,I8,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 30</v>
       </c>
       <c r="M8" s="7" t="s">
@@ -6177,11 +6320,11 @@
         <v>286</v>
       </c>
       <c r="K9" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B9=1,$B$2,IF(C9=1,$C$2,IF(D9=1,$D$2)))," del modulo Maestro, sub-modulo Tipo de Contacto",IF(E9=1,", considerando la opcion exportar a excel",""),IF(F9=1,", hacer clic en enlace Descripción para modificar registro",IF(G9=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H9=1,", finalizando con la consulta mediante el filtro ",""),IF(H9=1,$H$2,""),IF(H9=1," con el dato ",""),IF(H9=1,I9,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 5</v>
       </c>
       <c r="L9" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto",IF(B9=1,", hacer clic en boton agregar",IF(C9=1,", hacer clic en boton eliminar",IF(D9=1,", hacer clic en boton modificar"))),IF(E9=1,", hacer clic en boton exportar a excel",""),IF(F9=1,", hacer clic en enlace Descripción para modificar registro",IF(G9=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H9=1,", finalizando con la consulta mediante el filtro ",""),IF(H9=1,$H$2,""),IF(H9=1," con el dato ",""),IF(H9=1,I9,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 5</v>
       </c>
       <c r="M9" s="7" t="s">
@@ -6206,11 +6349,11 @@
         <v>287</v>
       </c>
       <c r="K10" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B10=1,$B$2,IF(C10=1,$C$2,IF(D10=1,$D$2)))," del modulo Maestro, sub-modulo Tipo de Contacto",IF(E10=1,", considerando la opcion exportar a excel",""),IF(F10=1,", hacer clic en enlace Descripción para modificar registro",IF(G10=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H10=1,", finalizando con la consulta mediante el filtro ",""),IF(H10=1,$H$2,""),IF(H10=1," con el dato ",""),IF(H10=1,I10,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="L10" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto",IF(B10=1,", hacer clic en boton agregar",IF(C10=1,", hacer clic en boton eliminar",IF(D10=1,", hacer clic en boton modificar"))),IF(E10=1,", hacer clic en boton exportar a excel",""),IF(F10=1,", hacer clic en enlace Descripción para modificar registro",IF(G10=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H10=1,", finalizando con la consulta mediante el filtro ",""),IF(H10=1,$H$2,""),IF(H10=1," con el dato ",""),IF(H10=1,I10,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton eliminar, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="M10" s="7" t="s">
@@ -6238,11 +6381,11 @@
         <v>288</v>
       </c>
       <c r="K11" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B11=1,$B$2,IF(C11=1,$C$2,IF(D11=1,$D$2)))," del modulo Maestro, sub-modulo Tipo de Contacto",IF(E11=1,", considerando la opcion exportar a excel",""),IF(F11=1,", hacer clic en enlace Descripción para modificar registro",IF(G11=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H11=1,", finalizando con la consulta mediante el filtro ",""),IF(H11=1,$H$2,""),IF(H11=1," con el dato ",""),IF(H11=1,I11,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="L11" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto",IF(B11=1,", hacer clic en boton agregar",IF(C11=1,", hacer clic en boton eliminar",IF(D11=1,", hacer clic en boton modificar"))),IF(E11=1,", hacer clic en boton exportar a excel",""),IF(F11=1,", hacer clic en enlace Descripción para modificar registro",IF(G11=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H11=1,", finalizando con la consulta mediante el filtro ",""),IF(H11=1,$H$2,""),IF(H11=1," con el dato ",""),IF(H11=1,I11,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="M11" s="7" t="s">
@@ -6265,11 +6408,11 @@
         <v>289</v>
       </c>
       <c r="K12" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B12=1,$B$2,IF(C12=1,$C$2,IF(D12=1,$D$2)))," del modulo Maestro, sub-modulo Tipo de Contacto",IF(E12=1,", considerando la opcion exportar a excel",""),IF(F12=1,", hacer clic en enlace Descripción para modificar registro",IF(G12=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H12=1,", finalizando con la consulta mediante el filtro ",""),IF(H12=1,$H$2,""),IF(H12=1," con el dato ",""),IF(H12=1,I12,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Tipo de Contacto</v>
       </c>
       <c r="L12" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto",IF(B12=1,", hacer clic en boton agregar",IF(C12=1,", hacer clic en boton eliminar",IF(D12=1,", hacer clic en boton modificar"))),IF(E12=1,", hacer clic en boton exportar a excel",""),IF(F12=1,", hacer clic en enlace Descripción para modificar registro",IF(G12=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H12=1,", finalizando con la consulta mediante el filtro ",""),IF(H12=1,$H$2,""),IF(H12=1," con el dato ",""),IF(H12=1,I12,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton eliminar</v>
       </c>
       <c r="M12" s="31" t="s">
@@ -6300,11 +6443,11 @@
         <v>290</v>
       </c>
       <c r="K13" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B13=1,$B$2,IF(C13=1,$C$2,IF(D13=1,$D$2)))," del modulo Maestro, sub-modulo Tipo de Contacto",IF(E13=1,", considerando la opcion exportar a excel",""),IF(F13=1,", hacer clic en enlace Descripción para modificar registro",IF(G13=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H13=1,", finalizando con la consulta mediante el filtro ",""),IF(H13=1,$H$2,""),IF(H13=1," con el dato ",""),IF(H13=1,I13,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 2</v>
       </c>
       <c r="L13" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto",IF(B13=1,", hacer clic en boton agregar",IF(C13=1,", hacer clic en boton eliminar",IF(D13=1,", hacer clic en boton modificar"))),IF(E13=1,", hacer clic en boton exportar a excel",""),IF(F13=1,", hacer clic en enlace Descripción para modificar registro",IF(G13=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H13=1,", finalizando con la consulta mediante el filtro ",""),IF(H13=1,$H$2,""),IF(H13=1," con el dato ",""),IF(H13=1,I13,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 2</v>
       </c>
       <c r="M13" s="7" t="s">
@@ -6335,11 +6478,11 @@
         <v>291</v>
       </c>
       <c r="K14" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B14=1,$B$2,IF(C14=1,$C$2,IF(D14=1,$D$2)))," del modulo Maestro, sub-modulo Tipo de Contacto",IF(E14=1,", considerando la opcion exportar a excel",""),IF(F14=1,", hacer clic en enlace Descripción para modificar registro",IF(G14=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H14=1,", finalizando con la consulta mediante el filtro ",""),IF(H14=1,$H$2,""),IF(H14=1," con el dato ",""),IF(H14=1,I14,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 3</v>
       </c>
       <c r="L14" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto",IF(B14=1,", hacer clic en boton agregar",IF(C14=1,", hacer clic en boton eliminar",IF(D14=1,", hacer clic en boton modificar"))),IF(E14=1,", hacer clic en boton exportar a excel",""),IF(F14=1,", hacer clic en enlace Descripción para modificar registro",IF(G14=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H14=1,", finalizando con la consulta mediante el filtro ",""),IF(H14=1,$H$2,""),IF(H14=1," con el dato ",""),IF(H14=1,I14,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 3</v>
       </c>
       <c r="M14" s="7" t="s">
@@ -6363,11 +6506,11 @@
         <v>292</v>
       </c>
       <c r="K15" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B15=1,$B$2,IF(C15=1,$C$2,IF(D15=1,$D$2)))," del modulo Maestro, sub-modulo Tipo de Contacto",IF(E15=1,", considerando la opcion exportar a excel",""),IF(F15=1,", hacer clic en enlace Descripción para modificar registro",IF(G15=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H15=1,", finalizando con la consulta mediante el filtro ",""),IF(H15=1,$H$2,""),IF(H15=1," con el dato ",""),IF(H15=1,I15,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="L15" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto",IF(B15=1,", hacer clic en boton agregar",IF(C15=1,", hacer clic en boton eliminar",IF(D15=1,", hacer clic en boton modificar"))),IF(E15=1,", hacer clic en boton exportar a excel",""),IF(F15=1,", hacer clic en enlace Descripción para modificar registro",IF(G15=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H15=1,", finalizando con la consulta mediante el filtro ",""),IF(H15=1,$H$2,""),IF(H15=1," con el dato ",""),IF(H15=1,I15,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton modificar, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="M15" s="7" t="s">
@@ -6394,11 +6537,11 @@
         <v>293</v>
       </c>
       <c r="K16" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B16=1,$B$2,IF(C16=1,$C$2,IF(D16=1,$D$2)))," del modulo Maestro, sub-modulo Tipo de Contacto",IF(E16=1,", considerando la opcion exportar a excel",""),IF(F16=1,", hacer clic en enlace Descripción para modificar registro",IF(G16=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H16=1,", finalizando con la consulta mediante el filtro ",""),IF(H16=1,$H$2,""),IF(H16=1," con el dato ",""),IF(H16=1,I16,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="L16" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto",IF(B16=1,", hacer clic en boton agregar",IF(C16=1,", hacer clic en boton eliminar",IF(D16=1,", hacer clic en boton modificar"))),IF(E16=1,", hacer clic en boton exportar a excel",""),IF(F16=1,", hacer clic en enlace Descripción para modificar registro",IF(G16=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H16=1,", finalizando con la consulta mediante el filtro ",""),IF(H16=1,$H$2,""),IF(H16=1," con el dato ",""),IF(H16=1,I16,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="M16" s="7" t="s">
@@ -6420,11 +6563,11 @@
         <v>294</v>
       </c>
       <c r="K17" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B17=1,$B$2,IF(C17=1,$C$2,IF(D17=1,$D$2)))," del modulo Maestro, sub-modulo Tipo de Contacto",IF(E17=1,", considerando la opcion exportar a excel",""),IF(F17=1,", hacer clic en enlace Descripción para modificar registro",IF(G17=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H17=1,", finalizando con la consulta mediante el filtro ",""),IF(H17=1,$H$2,""),IF(H17=1," con el dato ",""),IF(H17=1,I17,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Tipo de Contacto</v>
       </c>
       <c r="L17" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto",IF(B17=1,", hacer clic en boton agregar",IF(C17=1,", hacer clic en boton eliminar",IF(D17=1,", hacer clic en boton modificar"))),IF(E17=1,", hacer clic en boton exportar a excel",""),IF(F17=1,", hacer clic en enlace Descripción para modificar registro",IF(G17=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H17=1,", finalizando con la consulta mediante el filtro ",""),IF(H17=1,$H$2,""),IF(H17=1," con el dato ",""),IF(H17=1,I17,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton modificar</v>
       </c>
       <c r="M17" s="31" t="s">
@@ -6544,7 +6687,7 @@
       <c r="K25" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="L25" s="55" t="s">
+      <c r="L25" s="39" t="s">
         <v>326</v>
       </c>
       <c r="M25" s="7" t="s">
@@ -6849,13 +6992,2004 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M50"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="51.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="255.42578125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="255.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="79" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="46"/>
+      <c r="H1" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="51"/>
+      <c r="J1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="18">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="23">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K3" s="12" t="str">
+        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Ubicaciones, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 12</v>
+      </c>
+      <c r="L3" s="12" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 12</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10">
+        <v>10</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K4" s="12" t="str">
+        <f>CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Ubicaciones, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 10</v>
+      </c>
+      <c r="L4" s="12" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 10</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K5" s="12" t="str">
+        <f>CONCATENATE("Validar funcionalidad ",IF(B5=1,$B$2,IF(C5=1,$C$2,IF(D5=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E5=1,", considerando la opcion exportar a excel",""),IF(F5=1,", hacer clic en enlace Descripción para modificar registro",IF(G5=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H5=1,", finalizando con la consulta mediante el filtro ",""),IF(H5=1,$H$2,""),IF(H5=1," con el dato ",""),IF(H5=1,I5,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Ubicaciones, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="L5" s="12" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B5=1,", hacer clic en boton agregar",IF(C5=1,", hacer clic en boton eliminar",IF(D5=1,", hacer clic en boton modificar"))),IF(E5=1,", hacer clic en boton exportar a excel",""),IF(F5=1,", hacer clic en enlace Descripción para modificar registro",IF(G5=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H5=1,", finalizando con la consulta mediante el filtro ",""),IF(H5=1,$H$2,""),IF(H5=1," con el dato ",""),IF(H5=1,I5,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton agregar, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f>CONCATENATE("Validar funcionalidad ",IF(B6=1,$B$2,IF(C6=1,$C$2,IF(D6=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E6=1,", considerando la opcion exportar a excel",""),IF(F6=1,", hacer clic en enlace Descripción para modificar registro",IF(G6=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H6=1,", finalizando con la consulta mediante el filtro ",""),IF(H6=1,$H$2,""),IF(H6=1," con el dato ",""),IF(H6=1,I6,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Ubicaciones, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="L6" s="12" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B6=1,", hacer clic en boton agregar",IF(C6=1,", hacer clic en boton eliminar",IF(D6=1,", hacer clic en boton modificar"))),IF(E6=1,", hacer clic en boton exportar a excel",""),IF(F6=1,", hacer clic en enlace Descripción para modificar registro",IF(G6=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H6=1,", finalizando con la consulta mediante el filtro ",""),IF(H6=1,$H$2,""),IF(H6=1," con el dato ",""),IF(H6=1,I6,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f>CONCATENATE("Validar funcionalidad ",IF(B7=1,$B$2,IF(C7=1,$C$2,IF(D7=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E7=1,", considerando la opcion exportar a excel",""),IF(F7=1,", hacer clic en enlace Descripción para modificar registro",IF(G7=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H7=1,", finalizando con la consulta mediante el filtro ",""),IF(H7=1,$H$2,""),IF(H7=1," con el dato ",""),IF(H7=1,I7,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Ubicaciones</v>
+      </c>
+      <c r="L7" s="12" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B7=1,", hacer clic en boton agregar",IF(C7=1,", hacer clic en boton eliminar",IF(D7=1,", hacer clic en boton modificar"))),IF(E7=1,", hacer clic en boton exportar a excel",""),IF(F7=1,", hacer clic en enlace Descripción para modificar registro",IF(G7=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H7=1,", finalizando con la consulta mediante el filtro ",""),IF(H7=1,$H$2,""),IF(H7=1," con el dato ",""),IF(H7=1,I7,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton agregar</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="23">
+        <v>30</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f>CONCATENATE("Validar funcionalidad ",IF(B8=1,$B$2,IF(C8=1,$C$2,IF(D8=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E8=1,", considerando la opcion exportar a excel",""),IF(F8=1,", hacer clic en enlace Descripción para modificar registro",IF(G8=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H8=1,", finalizando con la consulta mediante el filtro ",""),IF(H8=1,$H$2,""),IF(H8=1," con el dato ",""),IF(H8=1,I8,""))</f>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Ubicaciones, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 30</v>
+      </c>
+      <c r="L8" s="12" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B8=1,", hacer clic en boton agregar",IF(C8=1,", hacer clic en boton eliminar",IF(D8=1,", hacer clic en boton modificar"))),IF(E8=1,", hacer clic en boton exportar a excel",""),IF(F8=1,", hacer clic en enlace Descripción para modificar registro",IF(G8=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H8=1,", finalizando con la consulta mediante el filtro ",""),IF(H8=1,$H$2,""),IF(H8=1," con el dato ",""),IF(H8=1,I8,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 30</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
+        <v>5</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f>CONCATENATE("Validar funcionalidad ",IF(B9=1,$B$2,IF(C9=1,$C$2,IF(D9=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E9=1,", considerando la opcion exportar a excel",""),IF(F9=1,", hacer clic en enlace Descripción para modificar registro",IF(G9=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H9=1,", finalizando con la consulta mediante el filtro ",""),IF(H9=1,$H$2,""),IF(H9=1," con el dato ",""),IF(H9=1,I9,""))</f>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Ubicaciones, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 5</v>
+      </c>
+      <c r="L9" s="12" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B9=1,", hacer clic en boton agregar",IF(C9=1,", hacer clic en boton eliminar",IF(D9=1,", hacer clic en boton modificar"))),IF(E9=1,", hacer clic en boton exportar a excel",""),IF(F9=1,", hacer clic en enlace Descripción para modificar registro",IF(G9=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H9=1,", finalizando con la consulta mediante el filtro ",""),IF(H9=1,$H$2,""),IF(H9=1," con el dato ",""),IF(H9=1,I9,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 5</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K10" s="12" t="str">
+        <f>CONCATENATE("Validar funcionalidad ",IF(B10=1,$B$2,IF(C10=1,$C$2,IF(D10=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E10=1,", considerando la opcion exportar a excel",""),IF(F10=1,", hacer clic en enlace Descripción para modificar registro",IF(G10=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H10=1,", finalizando con la consulta mediante el filtro ",""),IF(H10=1,$H$2,""),IF(H10=1," con el dato ",""),IF(H10=1,I10,""))</f>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Ubicaciones, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="L10" s="12" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B10=1,", hacer clic en boton agregar",IF(C10=1,", hacer clic en boton eliminar",IF(D10=1,", hacer clic en boton modificar"))),IF(E10=1,", hacer clic en boton exportar a excel",""),IF(F10=1,", hacer clic en enlace Descripción para modificar registro",IF(G10=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H10=1,", finalizando con la consulta mediante el filtro ",""),IF(H10=1,$H$2,""),IF(H10=1," con el dato ",""),IF(H10=1,I10,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton eliminar, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K11" s="12" t="str">
+        <f>CONCATENATE("Validar funcionalidad ",IF(B11=1,$B$2,IF(C11=1,$C$2,IF(D11=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E11=1,", considerando la opcion exportar a excel",""),IF(F11=1,", hacer clic en enlace Descripción para modificar registro",IF(G11=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H11=1,", finalizando con la consulta mediante el filtro ",""),IF(H11=1,$H$2,""),IF(H11=1," con el dato ",""),IF(H11=1,I11,""))</f>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Ubicaciones, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="L11" s="12" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B11=1,", hacer clic en boton agregar",IF(C11=1,", hacer clic en boton eliminar",IF(D11=1,", hacer clic en boton modificar"))),IF(E11=1,", hacer clic en boton exportar a excel",""),IF(F11=1,", hacer clic en enlace Descripción para modificar registro",IF(G11=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H11=1,", finalizando con la consulta mediante el filtro ",""),IF(H11=1,$H$2,""),IF(H11=1," con el dato ",""),IF(H11=1,I11,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K12" s="12" t="str">
+        <f>CONCATENATE("Validar funcionalidad ",IF(B12=1,$B$2,IF(C12=1,$C$2,IF(D12=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E12=1,", considerando la opcion exportar a excel",""),IF(F12=1,", hacer clic en enlace Descripción para modificar registro",IF(G12=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H12=1,", finalizando con la consulta mediante el filtro ",""),IF(H12=1,$H$2,""),IF(H12=1," con el dato ",""),IF(H12=1,I12,""))</f>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Ubicaciones</v>
+      </c>
+      <c r="L12" s="12" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B12=1,", hacer clic en boton agregar",IF(C12=1,", hacer clic en boton eliminar",IF(D12=1,", hacer clic en boton modificar"))),IF(E12=1,", hacer clic en boton exportar a excel",""),IF(F12=1,", hacer clic en enlace Descripción para modificar registro",IF(G12=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H12=1,", finalizando con la consulta mediante el filtro ",""),IF(H12=1,$H$2,""),IF(H12=1," con el dato ",""),IF(H12=1,I12,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton eliminar</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23">
+        <v>2</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K13" s="12" t="str">
+        <f>CONCATENATE("Validar funcionalidad ",IF(B13=1,$B$2,IF(C13=1,$C$2,IF(D13=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E13=1,", considerando la opcion exportar a excel",""),IF(F13=1,", hacer clic en enlace Descripción para modificar registro",IF(G13=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H13=1,", finalizando con la consulta mediante el filtro ",""),IF(H13=1,$H$2,""),IF(H13=1," con el dato ",""),IF(H13=1,I13,""))</f>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Ubicaciones, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 2</v>
+      </c>
+      <c r="L13" s="12" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B13=1,", hacer clic en boton agregar",IF(C13=1,", hacer clic en boton eliminar",IF(D13=1,", hacer clic en boton modificar"))),IF(E13=1,", hacer clic en boton exportar a excel",""),IF(F13=1,", hacer clic en enlace Descripción para modificar registro",IF(G13=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H13=1,", finalizando con la consulta mediante el filtro ",""),IF(H13=1,$H$2,""),IF(H13=1," con el dato ",""),IF(H13=1,I13,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 2</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10">
+        <v>3</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K14" s="12" t="str">
+        <f>CONCATENATE("Validar funcionalidad ",IF(B14=1,$B$2,IF(C14=1,$C$2,IF(D14=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E14=1,", considerando la opcion exportar a excel",""),IF(F14=1,", hacer clic en enlace Descripción para modificar registro",IF(G14=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H14=1,", finalizando con la consulta mediante el filtro ",""),IF(H14=1,$H$2,""),IF(H14=1," con el dato ",""),IF(H14=1,I14,""))</f>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Ubicaciones, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 3</v>
+      </c>
+      <c r="L14" s="12" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B14=1,", hacer clic en boton agregar",IF(C14=1,", hacer clic en boton eliminar",IF(D14=1,", hacer clic en boton modificar"))),IF(E14=1,", hacer clic en boton exportar a excel",""),IF(F14=1,", hacer clic en enlace Descripción para modificar registro",IF(G14=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H14=1,", finalizando con la consulta mediante el filtro ",""),IF(H14=1,$H$2,""),IF(H14=1," con el dato ",""),IF(H14=1,I14,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 3</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K15" s="12" t="str">
+        <f>CONCATENATE("Validar funcionalidad ",IF(B15=1,$B$2,IF(C15=1,$C$2,IF(D15=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E15=1,", considerando la opcion exportar a excel",""),IF(F15=1,", hacer clic en enlace Descripción para modificar registro",IF(G15=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H15=1,", finalizando con la consulta mediante el filtro ",""),IF(H15=1,$H$2,""),IF(H15=1," con el dato ",""),IF(H15=1,I15,""))</f>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Ubicaciones, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="L15" s="12" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B15=1,", hacer clic en boton agregar",IF(C15=1,", hacer clic en boton eliminar",IF(D15=1,", hacer clic en boton modificar"))),IF(E15=1,", hacer clic en boton exportar a excel",""),IF(F15=1,", hacer clic en enlace Descripción para modificar registro",IF(G15=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H15=1,", finalizando con la consulta mediante el filtro ",""),IF(H15=1,$H$2,""),IF(H15=1," con el dato ",""),IF(H15=1,I15,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton modificar, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K16" s="12" t="str">
+        <f>CONCATENATE("Validar funcionalidad ",IF(B16=1,$B$2,IF(C16=1,$C$2,IF(D16=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E16=1,", considerando la opcion exportar a excel",""),IF(F16=1,", hacer clic en enlace Descripción para modificar registro",IF(G16=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H16=1,", finalizando con la consulta mediante el filtro ",""),IF(H16=1,$H$2,""),IF(H16=1," con el dato ",""),IF(H16=1,I16,""))</f>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Ubicaciones, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="L16" s="12" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B16=1,", hacer clic en boton agregar",IF(C16=1,", hacer clic en boton eliminar",IF(D16=1,", hacer clic en boton modificar"))),IF(E16=1,", hacer clic en boton exportar a excel",""),IF(F16=1,", hacer clic en enlace Descripción para modificar registro",IF(G16=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H16=1,", finalizando con la consulta mediante el filtro ",""),IF(H16=1,$H$2,""),IF(H16=1," con el dato ",""),IF(H16=1,I16,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K17" s="12" t="str">
+        <f>CONCATENATE("Validar funcionalidad ",IF(B17=1,$B$2,IF(C17=1,$C$2,IF(D17=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E17=1,", considerando la opcion exportar a excel",""),IF(F17=1,", hacer clic en enlace Descripción para modificar registro",IF(G17=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H17=1,", finalizando con la consulta mediante el filtro ",""),IF(H17=1,$H$2,""),IF(H17=1," con el dato ",""),IF(H17=1,I17,""))</f>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Ubicaciones</v>
+      </c>
+      <c r="L17" s="12" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B17=1,", hacer clic en boton agregar",IF(C17=1,", hacer clic en boton eliminar",IF(D17=1,", hacer clic en boton modificar"))),IF(E17=1,", hacer clic en boton exportar a excel",""),IF(F17=1,", hacer clic en enlace Descripción para modificar registro",IF(G17=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H17=1,", finalizando con la consulta mediante el filtro ",""),IF(H17=1,$H$2,""),IF(H17=1," con el dato ",""),IF(H17=1,I17,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton modificar</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="8"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="8"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="8"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="8"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="8"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="8"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="8"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="8"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="8"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="8"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="8"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="8"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="8"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="8"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="8"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="8"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="8"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="4" style="13" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="58.28515625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="255.42578125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="255.42578125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="79" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="52" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1" s="46"/>
+      <c r="H1" s="54" t="s">
+        <v>366</v>
+      </c>
+      <c r="I1" s="46"/>
+      <c r="J1" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="51"/>
+      <c r="L1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="14" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="18">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="M3" s="12" t="str">
+        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2,"")))," del modulo Maestro, sub-modulo Ubicaciones Pagarés",IF(E3=1,", considenado la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace causal no pago para modificar registro",IF(G3=1,", hacer clic en enlace causal no pago para eliminar registro","")),IF(H3=1,", hacer clic en enlace tipo de contacto para modificar registro",IF(I3=1,", hacer clic en enlace tipo de contacto para eliminar registro","")),IF(J3=1,". Finalizando con la consulta del registro, usando el filtro ",IF(#REF!=1,". Finalizando con la consulta del registro, usando el filtro","")),IF(J3=1,$J$2,IF(#REF!=1,#REF!,"")),IF(J3=1," con el dato ",IF(#REF!=1," con el dato ","")),IF(J3=1,K3,IF(#REF!=1,K3,"")))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Ubicaciones Pagarés, considenado la opcion exportar a excel, hacer clic en enlace causal no pago para modificar registro. Finalizando con la consulta del registro, usando el filtro Pagaré Descripción con el dato Afianza</v>
+      </c>
+      <c r="N3" s="7" t="str">
+        <f>CONCATENATE("Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Ubicaciones Pagarés, ",IF(B3=1,"hacer clic en boton Agregar para crear nuevo registro",IF(C3=1,"hacer clic en boton Eliminar",IF(D3=1,"hacer clic en boton Modificar para editar informacion del registro",""))),IF(E3=1,", hacer clic en exportar a excel",""),IF(F3=1,", hacer clic en enlace casual no pago para modificar registro",IF(G3=1,", hacer clic en enlace casual no pago para modificar registro","")),IF(H3=1,", hacer clic en tipo de UbicacionesPagarés para modificar registro",IF(I3=1,", hacer clic en tipo de casuales para eliminar registro","")),IF(J3=1,", realizar consulta con el filtro ",IF(#REF!=1," realizar consulta con el filtro ","")),IF(J3=1,$J$2,IF(#REF!=1,#REF!,"")),IF(J3=1," con el dato ",""),IF(J3=1,K3,IF(#REF!=1,K3,"")))</f>
+        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Ubicaciones Pagarés, hacer clic en boton Agregar para crear nuevo registro, hacer clic en exportar a excel, hacer clic en enlace casual no pago para modificar registro, realizar consulta con el filtro Pagaré Descripción con el dato Afianza</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>1</v>
+      </c>
+      <c r="B7" s="27">
+        <v>1</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="M9" s="12"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9">
+        <v>1</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>1</v>
+      </c>
+      <c r="C12" s="27">
+        <v>1</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9">
+        <v>1</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9">
+        <v>1</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
+        <v>1</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="27">
+        <v>1</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="31"/>
+    </row>
+    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="N25" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="8"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="8"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="8"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="8"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="8"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="8"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="8"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+    </row>
+    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+    </row>
+    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="8"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="8"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="8"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="8"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="8"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="8"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="8"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="8"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="8"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="7"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="8"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="7"/>
+    </row>
+    <row r="50" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="13" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O25" sqref="O25"/>
+      <selection pane="topRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6879,45 +9013,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="51" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="47" t="s">
+      <c r="I1" s="46"/>
+      <c r="J1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="38" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="38" t="s">
+      <c r="O1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -6927,7 +9061,7 @@
       <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="39"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -6949,10 +9083,10 @@
       <c r="L2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -7657,7 +9791,7 @@
       <c r="N25" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="O25" s="55" t="s">
+      <c r="O25" s="39" t="s">
         <v>301</v>
       </c>
       <c r="P25" s="7" t="s">
@@ -8023,16 +10157,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8043,7 +10177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="11" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="M22" sqref="M22"/>
     </sheetView>
@@ -8067,41 +10201,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="38" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="47" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="38" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="38" t="s">
+      <c r="M1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -8111,7 +10245,7 @@
       <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="39"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -8127,10 +10261,10 @@
       <c r="J2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -8717,7 +10851,7 @@
       <c r="L22" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="M22" s="55" t="s">
+      <c r="M22" s="39" t="s">
         <v>304</v>
       </c>
       <c r="N22" s="7" t="s">
@@ -9123,44 +11257,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="53" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="51" t="s">
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="38" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="38" t="s">
+      <c r="P1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -9182,7 +11316,7 @@
       <c r="H2" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="39"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="20" t="s">
         <v>39</v>
       </c>
@@ -9195,10 +11329,10 @@
       <c r="M2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -9771,7 +11905,7 @@
       <c r="O20" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="P20" s="55" t="s">
+      <c r="P20" s="39" t="s">
         <v>306</v>
       </c>
       <c r="Q20" s="7" t="s">
@@ -10295,42 +12429,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="38" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="47" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="38" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="38" t="s">
+      <c r="N1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -10340,7 +12474,7 @@
       <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="39"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -10359,10 +12493,10 @@
       <c r="K2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -11001,7 +13135,7 @@
       <c r="M24" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="N24" s="55" t="s">
+      <c r="N24" s="39" t="s">
         <v>308</v>
       </c>
       <c r="O24" s="7" t="s">
@@ -11401,47 +13535,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="38" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="47" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="38" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="38" t="s">
+      <c r="S1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="14" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -11451,7 +13585,7 @@
       <c r="D2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="39"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -11485,10 +13619,10 @@
       <c r="P2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -12213,7 +14347,7 @@
       <c r="R22" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="S22" s="55" t="s">
+      <c r="S22" s="39" t="s">
         <v>310</v>
       </c>
       <c r="T22" s="7" t="s">
@@ -12783,40 +14917,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="38" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="47" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="38" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="38" t="s">
+      <c r="L1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -12826,7 +14960,7 @@
       <c r="D2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="39"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -12839,10 +14973,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -13411,7 +15545,7 @@
       <c r="K23" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="L23" s="55" t="s">
+      <c r="L23" s="39" t="s">
         <v>312</v>
       </c>
       <c r="M23" s="7" t="s">
@@ -13748,7 +15882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="10" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="L23" sqref="L23"/>
     </sheetView>
@@ -13771,40 +15905,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="38" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="47" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="38" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="38" t="s">
+      <c r="L1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -13814,7 +15948,7 @@
       <c r="D2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="39"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -13827,10 +15961,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -14399,7 +16533,7 @@
       <c r="K23" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="L23" s="55" t="s">
+      <c r="L23" s="39" t="s">
         <v>313</v>
       </c>
       <c r="M23" s="7" t="s">
@@ -14736,9 +16870,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N22" sqref="N22"/>
+      <selection pane="topRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14759,41 +16893,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="38" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="47" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="38" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="38" t="s">
+      <c r="M1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -14803,7 +16937,7 @@
       <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="39"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -14819,10 +16953,10 @@
       <c r="J2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -14851,11 +16985,11 @@
         <v>218</v>
       </c>
       <c r="L3" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
+        <f t="shared" ref="L3:L17" si="0">CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 12</v>
       </c>
       <c r="M3" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
+        <f t="shared" ref="M3:M17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 12</v>
       </c>
       <c r="N3" s="7" t="s">
@@ -14889,11 +17023,11 @@
         <v>219</v>
       </c>
       <c r="L4" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,J4,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 10</v>
       </c>
       <c r="M4" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,J4,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 10</v>
       </c>
       <c r="N4" s="7" t="s">
@@ -14921,11 +17055,11 @@
         <v>220</v>
       </c>
       <c r="L5" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B5=1,$B$2,IF(C5=1,$C$2,IF(D5=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E5=1,", considerando la opcion exportar a excel",""),IF(F5=1,", hacer clic en enlace Descripción para modificar registro",IF(G5=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H5=1,", finalizando con la consulta mediante el filtro ",""),IF(H5=1,$H$2,""),IF(H5=1," con el dato ",""),IF(H5=1,J5,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="M5" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion",IF(B5=1,", hacer clic en boton agregar",IF(C5=1,", hacer clic en boton eliminar",IF(D5=1,", hacer clic en boton modificar"))),IF(E5=1,", hacer clic en boton exportar a excel",""),IF(F5=1,", hacer clic en enlace Descripción para modificar registro",IF(G5=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H5=1,", finalizando con la consulta mediante el filtro ",""),IF(H5=1,$H$2,""),IF(H5=1," con el dato ",""),IF(H5=1,J5,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="N5" s="7" t="s">
@@ -14955,11 +17089,11 @@
         <v>221</v>
       </c>
       <c r="L6" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B6=1,$B$2,IF(C6=1,$C$2,IF(D6=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E6=1,", considerando la opcion exportar a excel",""),IF(F6=1,", hacer clic en enlace Descripción para modificar registro",IF(G6=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H6=1,", finalizando con la consulta mediante el filtro ",""),IF(H6=1,$H$2,""),IF(H6=1," con el dato ",""),IF(H6=1,J6,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="M6" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion",IF(B6=1,", hacer clic en boton agregar",IF(C6=1,", hacer clic en boton eliminar",IF(D6=1,", hacer clic en boton modificar"))),IF(E6=1,", hacer clic en boton exportar a excel",""),IF(F6=1,", hacer clic en enlace Descripción para modificar registro",IF(G6=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H6=1,", finalizando con la consulta mediante el filtro ",""),IF(H6=1,$H$2,""),IF(H6=1," con el dato ",""),IF(H6=1,J6,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="N6" s="7" t="s">
@@ -14985,11 +17119,11 @@
         <v>222</v>
       </c>
       <c r="L7" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B7=1,$B$2,IF(C7=1,$C$2,IF(D7=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E7=1,", considerando la opcion exportar a excel",""),IF(F7=1,", hacer clic en enlace Descripción para modificar registro",IF(G7=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H7=1,", finalizando con la consulta mediante el filtro ",""),IF(H7=1,$H$2,""),IF(H7=1," con el dato ",""),IF(H7=1,J7,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion</v>
       </c>
       <c r="M7" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion",IF(B7=1,", hacer clic en boton agregar",IF(C7=1,", hacer clic en boton eliminar",IF(D7=1,", hacer clic en boton modificar"))),IF(E7=1,", hacer clic en boton exportar a excel",""),IF(F7=1,", hacer clic en enlace Descripción para modificar registro",IF(G7=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H7=1,", finalizando con la consulta mediante el filtro ",""),IF(H7=1,$H$2,""),IF(H7=1," con el dato ",""),IF(H7=1,J7,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar</v>
       </c>
       <c r="N7" s="31" t="s">
@@ -15022,11 +17156,11 @@
         <v>223</v>
       </c>
       <c r="L8" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B8=1,$B$2,IF(C8=1,$C$2,IF(D8=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E8=1,", considerando la opcion exportar a excel",""),IF(F8=1,", hacer clic en enlace Descripción para modificar registro",IF(G8=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H8=1,", finalizando con la consulta mediante el filtro ",""),IF(H8=1,$H$2,""),IF(H8=1," con el dato ",""),IF(H8=1,J8,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 30</v>
       </c>
       <c r="M8" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion",IF(B8=1,", hacer clic en boton agregar",IF(C8=1,", hacer clic en boton eliminar",IF(D8=1,", hacer clic en boton modificar"))),IF(E8=1,", hacer clic en boton exportar a excel",""),IF(F8=1,", hacer clic en enlace Descripción para modificar registro",IF(G8=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H8=1,", finalizando con la consulta mediante el filtro ",""),IF(H8=1,$H$2,""),IF(H8=1," con el dato ",""),IF(H8=1,J8,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 30</v>
       </c>
       <c r="N8" s="7" t="s">
@@ -15059,11 +17193,11 @@
         <v>224</v>
       </c>
       <c r="L9" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B9=1,$B$2,IF(C9=1,$C$2,IF(D9=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E9=1,", considerando la opcion exportar a excel",""),IF(F9=1,", hacer clic en enlace Descripción para modificar registro",IF(G9=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H9=1,", finalizando con la consulta mediante el filtro ",""),IF(H9=1,$H$2,""),IF(H9=1," con el dato ",""),IF(H9=1,J9,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 5</v>
       </c>
       <c r="M9" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion",IF(B9=1,", hacer clic en boton agregar",IF(C9=1,", hacer clic en boton eliminar",IF(D9=1,", hacer clic en boton modificar"))),IF(E9=1,", hacer clic en boton exportar a excel",""),IF(F9=1,", hacer clic en enlace Descripción para modificar registro",IF(G9=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H9=1,", finalizando con la consulta mediante el filtro ",""),IF(H9=1,$H$2,""),IF(H9=1," con el dato ",""),IF(H9=1,J9,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 5</v>
       </c>
       <c r="N9" s="7" t="s">
@@ -15089,11 +17223,11 @@
         <v>225</v>
       </c>
       <c r="L10" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B10=1,$B$2,IF(C10=1,$C$2,IF(D10=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E10=1,", considerando la opcion exportar a excel",""),IF(F10=1,", hacer clic en enlace Descripción para modificar registro",IF(G10=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H10=1,", finalizando con la consulta mediante el filtro ",""),IF(H10=1,$H$2,""),IF(H10=1," con el dato ",""),IF(H10=1,J10,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="M10" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion",IF(B10=1,", hacer clic en boton agregar",IF(C10=1,", hacer clic en boton eliminar",IF(D10=1,", hacer clic en boton modificar"))),IF(E10=1,", hacer clic en boton exportar a excel",""),IF(F10=1,", hacer clic en enlace Descripción para modificar registro",IF(G10=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H10=1,", finalizando con la consulta mediante el filtro ",""),IF(H10=1,$H$2,""),IF(H10=1," con el dato ",""),IF(H10=1,J10,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="N10" s="7" t="s">
@@ -15122,11 +17256,11 @@
         <v>226</v>
       </c>
       <c r="L11" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B11=1,$B$2,IF(C11=1,$C$2,IF(D11=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E11=1,", considerando la opcion exportar a excel",""),IF(F11=1,", hacer clic en enlace Descripción para modificar registro",IF(G11=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H11=1,", finalizando con la consulta mediante el filtro ",""),IF(H11=1,$H$2,""),IF(H11=1," con el dato ",""),IF(H11=1,J11,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="M11" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion",IF(B11=1,", hacer clic en boton agregar",IF(C11=1,", hacer clic en boton eliminar",IF(D11=1,", hacer clic en boton modificar"))),IF(E11=1,", hacer clic en boton exportar a excel",""),IF(F11=1,", hacer clic en enlace Descripción para modificar registro",IF(G11=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H11=1,", finalizando con la consulta mediante el filtro ",""),IF(H11=1,$H$2,""),IF(H11=1," con el dato ",""),IF(H11=1,J11,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="N11" s="7" t="s">
@@ -15150,11 +17284,11 @@
         <v>227</v>
       </c>
       <c r="L12" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B12=1,$B$2,IF(C12=1,$C$2,IF(D12=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E12=1,", considerando la opcion exportar a excel",""),IF(F12=1,", hacer clic en enlace Descripción para modificar registro",IF(G12=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H12=1,", finalizando con la consulta mediante el filtro ",""),IF(H12=1,$H$2,""),IF(H12=1," con el dato ",""),IF(H12=1,J12,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion</v>
       </c>
       <c r="M12" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion",IF(B12=1,", hacer clic en boton agregar",IF(C12=1,", hacer clic en boton eliminar",IF(D12=1,", hacer clic en boton modificar"))),IF(E12=1,", hacer clic en boton exportar a excel",""),IF(F12=1,", hacer clic en enlace Descripción para modificar registro",IF(G12=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H12=1,", finalizando con la consulta mediante el filtro ",""),IF(H12=1,$H$2,""),IF(H12=1," con el dato ",""),IF(H12=1,J12,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar</v>
       </c>
       <c r="N12" s="31" t="s">
@@ -15186,11 +17320,11 @@
         <v>228</v>
       </c>
       <c r="L13" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B13=1,$B$2,IF(C13=1,$C$2,IF(D13=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E13=1,", considerando la opcion exportar a excel",""),IF(F13=1,", hacer clic en enlace Descripción para modificar registro",IF(G13=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H13=1,", finalizando con la consulta mediante el filtro ",""),IF(H13=1,$H$2,""),IF(H13=1," con el dato ",""),IF(H13=1,J13,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 2</v>
       </c>
       <c r="M13" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion",IF(B13=1,", hacer clic en boton agregar",IF(C13=1,", hacer clic en boton eliminar",IF(D13=1,", hacer clic en boton modificar"))),IF(E13=1,", hacer clic en boton exportar a excel",""),IF(F13=1,", hacer clic en enlace Descripción para modificar registro",IF(G13=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H13=1,", finalizando con la consulta mediante el filtro ",""),IF(H13=1,$H$2,""),IF(H13=1," con el dato ",""),IF(H13=1,J13,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 2</v>
       </c>
       <c r="N13" s="7" t="s">
@@ -15222,11 +17356,11 @@
         <v>229</v>
       </c>
       <c r="L14" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B14=1,$B$2,IF(C14=1,$C$2,IF(D14=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E14=1,", considerando la opcion exportar a excel",""),IF(F14=1,", hacer clic en enlace Descripción para modificar registro",IF(G14=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H14=1,", finalizando con la consulta mediante el filtro ",""),IF(H14=1,$H$2,""),IF(H14=1," con el dato ",""),IF(H14=1,J14,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 3</v>
       </c>
       <c r="M14" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion",IF(B14=1,", hacer clic en boton agregar",IF(C14=1,", hacer clic en boton eliminar",IF(D14=1,", hacer clic en boton modificar"))),IF(E14=1,", hacer clic en boton exportar a excel",""),IF(F14=1,", hacer clic en enlace Descripción para modificar registro",IF(G14=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H14=1,", finalizando con la consulta mediante el filtro ",""),IF(H14=1,$H$2,""),IF(H14=1," con el dato ",""),IF(H14=1,J14,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 3</v>
       </c>
       <c r="N14" s="7" t="s">
@@ -15251,11 +17385,11 @@
         <v>230</v>
       </c>
       <c r="L15" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B15=1,$B$2,IF(C15=1,$C$2,IF(D15=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E15=1,", considerando la opcion exportar a excel",""),IF(F15=1,", hacer clic en enlace Descripción para modificar registro",IF(G15=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H15=1,", finalizando con la consulta mediante el filtro ",""),IF(H15=1,$H$2,""),IF(H15=1," con el dato ",""),IF(H15=1,J15,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="M15" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion",IF(B15=1,", hacer clic en boton agregar",IF(C15=1,", hacer clic en boton eliminar",IF(D15=1,", hacer clic en boton modificar"))),IF(E15=1,", hacer clic en boton exportar a excel",""),IF(F15=1,", hacer clic en enlace Descripción para modificar registro",IF(G15=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H15=1,", finalizando con la consulta mediante el filtro ",""),IF(H15=1,$H$2,""),IF(H15=1," con el dato ",""),IF(H15=1,J15,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="N15" s="7" t="s">
@@ -15283,11 +17417,11 @@
         <v>231</v>
       </c>
       <c r="L16" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B16=1,$B$2,IF(C16=1,$C$2,IF(D16=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E16=1,", considerando la opcion exportar a excel",""),IF(F16=1,", hacer clic en enlace Descripción para modificar registro",IF(G16=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H16=1,", finalizando con la consulta mediante el filtro ",""),IF(H16=1,$H$2,""),IF(H16=1," con el dato ",""),IF(H16=1,J16,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="M16" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion",IF(B16=1,", hacer clic en boton agregar",IF(C16=1,", hacer clic en boton eliminar",IF(D16=1,", hacer clic en boton modificar"))),IF(E16=1,", hacer clic en boton exportar a excel",""),IF(F16=1,", hacer clic en enlace Descripción para modificar registro",IF(G16=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H16=1,", finalizando con la consulta mediante el filtro ",""),IF(H16=1,$H$2,""),IF(H16=1," con el dato ",""),IF(H16=1,J16,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="N16" s="7" t="s">
@@ -15310,11 +17444,11 @@
         <v>232</v>
       </c>
       <c r="L17" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B17=1,$B$2,IF(C17=1,$C$2,IF(D17=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E17=1,", considerando la opcion exportar a excel",""),IF(F17=1,", hacer clic en enlace Descripción para modificar registro",IF(G17=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H17=1,", finalizando con la consulta mediante el filtro ",""),IF(H17=1,$H$2,""),IF(H17=1," con el dato ",""),IF(H17=1,J17,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion</v>
       </c>
       <c r="M17" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion",IF(B17=1,", hacer clic en boton agregar",IF(C17=1,", hacer clic en boton eliminar",IF(D17=1,", hacer clic en boton modificar"))),IF(E17=1,", hacer clic en boton exportar a excel",""),IF(F17=1,", hacer clic en enlace Descripción para modificar registro",IF(G17=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H17=1,", finalizando con la consulta mediante el filtro ",""),IF(H17=1,$H$2,""),IF(H17=1," con el dato ",""),IF(H17=1,J17,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -15397,7 +17531,7 @@
       <c r="L22" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="M22" s="55" t="s">
+      <c r="M22" s="39" t="s">
         <v>316</v>
       </c>
       <c r="N22" s="7" t="s">

--- a/Maestros.xlsx
+++ b/Maestros.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Banco" sheetId="15" r:id="rId1"/>
@@ -27,6 +27,12 @@
     <sheet name="Tipos De Contacto" sheetId="27" r:id="rId13"/>
     <sheet name="Ubicaciones" sheetId="28" r:id="rId14"/>
     <sheet name="Ubicaciones Pagarés" sheetId="29" r:id="rId15"/>
+    <sheet name="Ubicaciones Vehículos" sheetId="30" r:id="rId16"/>
+    <sheet name="Usuarios Empresas Externas" sheetId="31" r:id="rId17"/>
+    <sheet name="Tipos de Procesos" sheetId="32" r:id="rId18"/>
+    <sheet name="CIA de GPS" sheetId="33" r:id="rId19"/>
+    <sheet name="Documentos por Proveedor" sheetId="34" r:id="rId20"/>
+    <sheet name="Motivo Recompra" sheetId="35" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Banco!$A$2:$R$50</definedName>
@@ -2993,8 +2999,8 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="10" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J20" sqref="J20"/>
+      <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3005,7 +3011,7 @@
     <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" style="18" customWidth="1"/>
     <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="4.85546875" style="11" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" style="2" customWidth="1"/>
     <col min="10" max="10" width="51.7109375" style="6" customWidth="1"/>
@@ -3993,7 +3999,7 @@
     <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" style="18" customWidth="1"/>
     <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="3" customWidth="1"/>
     <col min="8" max="9" width="4.85546875" style="11" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" style="2" customWidth="1"/>
     <col min="11" max="11" width="51.7109375" style="6" customWidth="1"/>
@@ -5022,7 +5028,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L24" sqref="L24"/>
+      <selection pane="topRight" activeCell="L3" sqref="L3:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5033,7 +5039,7 @@
     <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" style="18" customWidth="1"/>
     <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="4.85546875" style="11" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" style="2" customWidth="1"/>
     <col min="10" max="10" width="51.7109375" style="6" customWidth="1"/>
@@ -5130,12 +5136,12 @@
         <v>264</v>
       </c>
       <c r="K3" s="12" t="str">
-        <f t="shared" ref="K3:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo TIpo Bien",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 12</v>
+        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo TIpo Bien",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Bien Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Bien Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 12</v>
       </c>
       <c r="L3" s="12" t="str">
-        <f t="shared" ref="L3:L17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 12</v>
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Bien Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Bien Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 12</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>78</v>
@@ -5167,12 +5173,12 @@
         <v>265</v>
       </c>
       <c r="K4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 10</v>
+        <f t="shared" ref="K4:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo TIpo Bien",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Bien Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Bien Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 10</v>
       </c>
       <c r="L4" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 10</v>
+        <f t="shared" ref="L4:L17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace Bien Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Bien Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 10</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>78</v>
@@ -5199,11 +5205,11 @@
       </c>
       <c r="K5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo TIpo Bien, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo TIpo Bien, hacer clic en enlace Bien Descripción para modificar registro</v>
       </c>
       <c r="L5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar, hacer clic en enlace Bien Descripción para modificar registro</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>78</v>
@@ -5232,11 +5238,11 @@
       </c>
       <c r="K6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro</v>
       </c>
       <c r="L6" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>78</v>
@@ -5297,11 +5303,11 @@
       </c>
       <c r="K8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 30</v>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 30</v>
       </c>
       <c r="L8" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 30</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 30</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>79</v>
@@ -5333,11 +5339,11 @@
       </c>
       <c r="K9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 5</v>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 5</v>
       </c>
       <c r="L9" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 5</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 5</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>79</v>
@@ -5362,11 +5368,11 @@
       </c>
       <c r="K10" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo TIpo Bien, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo TIpo Bien, hacer clic en enlace Bien Descripción para modificar registro</v>
       </c>
       <c r="L10" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar, hacer clic en enlace Bien Descripción para modificar registro</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>79</v>
@@ -5394,11 +5400,11 @@
       </c>
       <c r="K11" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro</v>
       </c>
       <c r="L11" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>79</v>
@@ -5456,11 +5462,11 @@
       </c>
       <c r="K13" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 2</v>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 2</v>
       </c>
       <c r="L13" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 2</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 2</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>126</v>
@@ -5491,11 +5497,11 @@
       </c>
       <c r="K14" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 3</v>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 3</v>
       </c>
       <c r="L14" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 3</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 3</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>126</v>
@@ -5519,11 +5525,11 @@
       </c>
       <c r="K15" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo TIpo Bien, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo TIpo Bien, hacer clic en enlace Bien Descripción para modificar registro</v>
       </c>
       <c r="L15" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar, hacer clic en enlace Bien Descripción para modificar registro</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>126</v>
@@ -5550,11 +5556,11 @@
       </c>
       <c r="K16" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro</v>
       </c>
       <c r="L16" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro</v>
       </c>
       <c r="M16" s="7" t="s">
         <v>126</v>
@@ -6010,7 +6016,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L25" sqref="L25"/>
+      <selection pane="topRight" activeCell="L3" sqref="L3:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6118,12 +6124,12 @@
         <v>280</v>
       </c>
       <c r="K3" s="12" t="str">
-        <f t="shared" ref="K3:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Tipo de Contacto",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 12</v>
+        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Tipo de Contacto",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Tipo Contacto para modificar registro",IF(G3=1,", hacer clic en enlace Tipo Contacto para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Tipo Contacto para modificar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 12</v>
       </c>
       <c r="L3" s="12" t="str">
-        <f t="shared" ref="L3:L17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 12</v>
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Tipo Contacto para modificar registro",IF(G3=1,", hacer clic en enlace nlace Tipo Contacto para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Tipo Contacto para modificar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 12</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>78</v>
@@ -6155,12 +6161,12 @@
         <v>281</v>
       </c>
       <c r="K4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 10</v>
+        <f t="shared" ref="K4:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Tipo de Contacto",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Tipo Contacto para modificar registro",IF(G4=1,", hacer clic en enlace Tipo Contacto para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Tipo Contacto para eliminar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 10</v>
       </c>
       <c r="L4" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 10</v>
+        <f t="shared" ref="L4:L17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace Tipo Contacto para modificar registro",IF(G4=1,", hacer clic en enlace nlace Tipo Contacto para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace nlace Tipo Contacto para eliminar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 10</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>78</v>
@@ -6187,11 +6193,11 @@
       </c>
       <c r="K5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en enlace Tipo Contacto para modificar registro</v>
       </c>
       <c r="L5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton agregar, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton agregar, hacer clic en enlace Tipo Contacto para modificar registro</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>78</v>
@@ -6220,11 +6226,11 @@
       </c>
       <c r="K6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Tipo Contacto para eliminar registro</v>
       </c>
       <c r="L6" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace nlace Tipo Contacto para eliminar registro</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>78</v>
@@ -6285,11 +6291,11 @@
       </c>
       <c r="K8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 30</v>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Tipo Contacto para modificar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 30</v>
       </c>
       <c r="L8" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 30</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Tipo Contacto para modificar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 30</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>79</v>
@@ -6321,11 +6327,11 @@
       </c>
       <c r="K9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 5</v>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Tipo Contacto para eliminar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 5</v>
       </c>
       <c r="L9" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 5</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace nlace Tipo Contacto para eliminar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 5</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>79</v>
@@ -6350,11 +6356,11 @@
       </c>
       <c r="K10" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en enlace Tipo Contacto para modificar registro</v>
       </c>
       <c r="L10" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton eliminar, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton eliminar, hacer clic en enlace Tipo Contacto para modificar registro</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>79</v>
@@ -6382,11 +6388,11 @@
       </c>
       <c r="K11" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Tipo Contacto para eliminar registro</v>
       </c>
       <c r="L11" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace nlace Tipo Contacto para eliminar registro</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>79</v>
@@ -6444,11 +6450,11 @@
       </c>
       <c r="K13" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 2</v>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Tipo Contacto para modificar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 2</v>
       </c>
       <c r="L13" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 2</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Tipo Contacto para modificar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 2</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>126</v>
@@ -6479,11 +6485,11 @@
       </c>
       <c r="K14" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 3</v>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Tipo Contacto para eliminar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 3</v>
       </c>
       <c r="L14" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 3</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace nlace Tipo Contacto para eliminar registro, finalizando con la consulta mediante el filtro Tipo Contacto con el dato 3</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>126</v>
@@ -6507,11 +6513,11 @@
       </c>
       <c r="K15" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en enlace Tipo Contacto para modificar registro</v>
       </c>
       <c r="L15" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton modificar, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton modificar, hacer clic en enlace Tipo Contacto para modificar registro</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>126</v>
@@ -6538,11 +6544,11 @@
       </c>
       <c r="K16" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Tipo de Contacto, considerando la opcion exportar a excel, hacer clic en enlace Tipo Contacto para eliminar registro</v>
       </c>
       <c r="L16" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Contacto, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace nlace Tipo Contacto para eliminar registro</v>
       </c>
       <c r="M16" s="7" t="s">
         <v>126</v>
@@ -6996,8 +7002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K23" sqref="K22:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7105,11 +7111,11 @@
         <v>328</v>
       </c>
       <c r="K3" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <f t="shared" ref="K3:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Ubicaciones, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 12</v>
       </c>
       <c r="L3" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <f t="shared" ref="L3:L17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 12</v>
       </c>
       <c r="M3" s="7" t="s">
@@ -7142,11 +7148,11 @@
         <v>329</v>
       </c>
       <c r="K4" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Ubicaciones, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 10</v>
       </c>
       <c r="L4" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 10</v>
       </c>
       <c r="M4" s="7" t="s">
@@ -7173,11 +7179,11 @@
         <v>330</v>
       </c>
       <c r="K5" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B5=1,$B$2,IF(C5=1,$C$2,IF(D5=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E5=1,", considerando la opcion exportar a excel",""),IF(F5=1,", hacer clic en enlace Descripción para modificar registro",IF(G5=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H5=1,", finalizando con la consulta mediante el filtro ",""),IF(H5=1,$H$2,""),IF(H5=1," con el dato ",""),IF(H5=1,I5,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Ubicaciones, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="L5" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B5=1,", hacer clic en boton agregar",IF(C5=1,", hacer clic en boton eliminar",IF(D5=1,", hacer clic en boton modificar"))),IF(E5=1,", hacer clic en boton exportar a excel",""),IF(F5=1,", hacer clic en enlace Descripción para modificar registro",IF(G5=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H5=1,", finalizando con la consulta mediante el filtro ",""),IF(H5=1,$H$2,""),IF(H5=1," con el dato ",""),IF(H5=1,I5,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton agregar, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="M5" s="7" t="s">
@@ -7206,11 +7212,11 @@
         <v>331</v>
       </c>
       <c r="K6" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B6=1,$B$2,IF(C6=1,$C$2,IF(D6=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E6=1,", considerando la opcion exportar a excel",""),IF(F6=1,", hacer clic en enlace Descripción para modificar registro",IF(G6=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H6=1,", finalizando con la consulta mediante el filtro ",""),IF(H6=1,$H$2,""),IF(H6=1," con el dato ",""),IF(H6=1,I6,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Ubicaciones, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="L6" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B6=1,", hacer clic en boton agregar",IF(C6=1,", hacer clic en boton eliminar",IF(D6=1,", hacer clic en boton modificar"))),IF(E6=1,", hacer clic en boton exportar a excel",""),IF(F6=1,", hacer clic en enlace Descripción para modificar registro",IF(G6=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H6=1,", finalizando con la consulta mediante el filtro ",""),IF(H6=1,$H$2,""),IF(H6=1," con el dato ",""),IF(H6=1,I6,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="M6" s="7" t="s">
@@ -7235,11 +7241,11 @@
         <v>332</v>
       </c>
       <c r="K7" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B7=1,$B$2,IF(C7=1,$C$2,IF(D7=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E7=1,", considerando la opcion exportar a excel",""),IF(F7=1,", hacer clic en enlace Descripción para modificar registro",IF(G7=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H7=1,", finalizando con la consulta mediante el filtro ",""),IF(H7=1,$H$2,""),IF(H7=1," con el dato ",""),IF(H7=1,I7,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Ubicaciones</v>
       </c>
       <c r="L7" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B7=1,", hacer clic en boton agregar",IF(C7=1,", hacer clic en boton eliminar",IF(D7=1,", hacer clic en boton modificar"))),IF(E7=1,", hacer clic en boton exportar a excel",""),IF(F7=1,", hacer clic en enlace Descripción para modificar registro",IF(G7=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H7=1,", finalizando con la consulta mediante el filtro ",""),IF(H7=1,$H$2,""),IF(H7=1," con el dato ",""),IF(H7=1,I7,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton agregar</v>
       </c>
       <c r="M7" s="31" t="s">
@@ -7271,11 +7277,11 @@
         <v>333</v>
       </c>
       <c r="K8" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B8=1,$B$2,IF(C8=1,$C$2,IF(D8=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E8=1,", considerando la opcion exportar a excel",""),IF(F8=1,", hacer clic en enlace Descripción para modificar registro",IF(G8=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H8=1,", finalizando con la consulta mediante el filtro ",""),IF(H8=1,$H$2,""),IF(H8=1," con el dato ",""),IF(H8=1,I8,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Ubicaciones, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 30</v>
       </c>
       <c r="L8" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B8=1,", hacer clic en boton agregar",IF(C8=1,", hacer clic en boton eliminar",IF(D8=1,", hacer clic en boton modificar"))),IF(E8=1,", hacer clic en boton exportar a excel",""),IF(F8=1,", hacer clic en enlace Descripción para modificar registro",IF(G8=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H8=1,", finalizando con la consulta mediante el filtro ",""),IF(H8=1,$H$2,""),IF(H8=1," con el dato ",""),IF(H8=1,I8,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 30</v>
       </c>
       <c r="M8" s="7" t="s">
@@ -7307,11 +7313,11 @@
         <v>334</v>
       </c>
       <c r="K9" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B9=1,$B$2,IF(C9=1,$C$2,IF(D9=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E9=1,", considerando la opcion exportar a excel",""),IF(F9=1,", hacer clic en enlace Descripción para modificar registro",IF(G9=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H9=1,", finalizando con la consulta mediante el filtro ",""),IF(H9=1,$H$2,""),IF(H9=1," con el dato ",""),IF(H9=1,I9,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Ubicaciones, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 5</v>
       </c>
       <c r="L9" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B9=1,", hacer clic en boton agregar",IF(C9=1,", hacer clic en boton eliminar",IF(D9=1,", hacer clic en boton modificar"))),IF(E9=1,", hacer clic en boton exportar a excel",""),IF(F9=1,", hacer clic en enlace Descripción para modificar registro",IF(G9=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H9=1,", finalizando con la consulta mediante el filtro ",""),IF(H9=1,$H$2,""),IF(H9=1," con el dato ",""),IF(H9=1,I9,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 5</v>
       </c>
       <c r="M9" s="7" t="s">
@@ -7336,11 +7342,11 @@
         <v>335</v>
       </c>
       <c r="K10" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B10=1,$B$2,IF(C10=1,$C$2,IF(D10=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E10=1,", considerando la opcion exportar a excel",""),IF(F10=1,", hacer clic en enlace Descripción para modificar registro",IF(G10=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H10=1,", finalizando con la consulta mediante el filtro ",""),IF(H10=1,$H$2,""),IF(H10=1," con el dato ",""),IF(H10=1,I10,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Ubicaciones, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="L10" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B10=1,", hacer clic en boton agregar",IF(C10=1,", hacer clic en boton eliminar",IF(D10=1,", hacer clic en boton modificar"))),IF(E10=1,", hacer clic en boton exportar a excel",""),IF(F10=1,", hacer clic en enlace Descripción para modificar registro",IF(G10=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H10=1,", finalizando con la consulta mediante el filtro ",""),IF(H10=1,$H$2,""),IF(H10=1," con el dato ",""),IF(H10=1,I10,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton eliminar, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="M10" s="7" t="s">
@@ -7368,11 +7374,11 @@
         <v>336</v>
       </c>
       <c r="K11" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B11=1,$B$2,IF(C11=1,$C$2,IF(D11=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E11=1,", considerando la opcion exportar a excel",""),IF(F11=1,", hacer clic en enlace Descripción para modificar registro",IF(G11=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H11=1,", finalizando con la consulta mediante el filtro ",""),IF(H11=1,$H$2,""),IF(H11=1," con el dato ",""),IF(H11=1,I11,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Ubicaciones, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="L11" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B11=1,", hacer clic en boton agregar",IF(C11=1,", hacer clic en boton eliminar",IF(D11=1,", hacer clic en boton modificar"))),IF(E11=1,", hacer clic en boton exportar a excel",""),IF(F11=1,", hacer clic en enlace Descripción para modificar registro",IF(G11=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H11=1,", finalizando con la consulta mediante el filtro ",""),IF(H11=1,$H$2,""),IF(H11=1," con el dato ",""),IF(H11=1,I11,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="M11" s="7" t="s">
@@ -7395,11 +7401,11 @@
         <v>337</v>
       </c>
       <c r="K12" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B12=1,$B$2,IF(C12=1,$C$2,IF(D12=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E12=1,", considerando la opcion exportar a excel",""),IF(F12=1,", hacer clic en enlace Descripción para modificar registro",IF(G12=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H12=1,", finalizando con la consulta mediante el filtro ",""),IF(H12=1,$H$2,""),IF(H12=1," con el dato ",""),IF(H12=1,I12,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Ubicaciones</v>
       </c>
       <c r="L12" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B12=1,", hacer clic en boton agregar",IF(C12=1,", hacer clic en boton eliminar",IF(D12=1,", hacer clic en boton modificar"))),IF(E12=1,", hacer clic en boton exportar a excel",""),IF(F12=1,", hacer clic en enlace Descripción para modificar registro",IF(G12=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H12=1,", finalizando con la consulta mediante el filtro ",""),IF(H12=1,$H$2,""),IF(H12=1," con el dato ",""),IF(H12=1,I12,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton eliminar</v>
       </c>
       <c r="M12" s="31" t="s">
@@ -7430,11 +7436,11 @@
         <v>338</v>
       </c>
       <c r="K13" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B13=1,$B$2,IF(C13=1,$C$2,IF(D13=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E13=1,", considerando la opcion exportar a excel",""),IF(F13=1,", hacer clic en enlace Descripción para modificar registro",IF(G13=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H13=1,", finalizando con la consulta mediante el filtro ",""),IF(H13=1,$H$2,""),IF(H13=1," con el dato ",""),IF(H13=1,I13,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Ubicaciones, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 2</v>
       </c>
       <c r="L13" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B13=1,", hacer clic en boton agregar",IF(C13=1,", hacer clic en boton eliminar",IF(D13=1,", hacer clic en boton modificar"))),IF(E13=1,", hacer clic en boton exportar a excel",""),IF(F13=1,", hacer clic en enlace Descripción para modificar registro",IF(G13=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H13=1,", finalizando con la consulta mediante el filtro ",""),IF(H13=1,$H$2,""),IF(H13=1," con el dato ",""),IF(H13=1,I13,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 2</v>
       </c>
       <c r="M13" s="7" t="s">
@@ -7465,11 +7471,11 @@
         <v>339</v>
       </c>
       <c r="K14" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B14=1,$B$2,IF(C14=1,$C$2,IF(D14=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E14=1,", considerando la opcion exportar a excel",""),IF(F14=1,", hacer clic en enlace Descripción para modificar registro",IF(G14=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H14=1,", finalizando con la consulta mediante el filtro ",""),IF(H14=1,$H$2,""),IF(H14=1," con el dato ",""),IF(H14=1,I14,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Ubicaciones, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 3</v>
       </c>
       <c r="L14" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B14=1,", hacer clic en boton agregar",IF(C14=1,", hacer clic en boton eliminar",IF(D14=1,", hacer clic en boton modificar"))),IF(E14=1,", hacer clic en boton exportar a excel",""),IF(F14=1,", hacer clic en enlace Descripción para modificar registro",IF(G14=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H14=1,", finalizando con la consulta mediante el filtro ",""),IF(H14=1,$H$2,""),IF(H14=1," con el dato ",""),IF(H14=1,I14,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 3</v>
       </c>
       <c r="M14" s="7" t="s">
@@ -7493,11 +7499,11 @@
         <v>340</v>
       </c>
       <c r="K15" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B15=1,$B$2,IF(C15=1,$C$2,IF(D15=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E15=1,", considerando la opcion exportar a excel",""),IF(F15=1,", hacer clic en enlace Descripción para modificar registro",IF(G15=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H15=1,", finalizando con la consulta mediante el filtro ",""),IF(H15=1,$H$2,""),IF(H15=1," con el dato ",""),IF(H15=1,I15,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Ubicaciones, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="L15" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B15=1,", hacer clic en boton agregar",IF(C15=1,", hacer clic en boton eliminar",IF(D15=1,", hacer clic en boton modificar"))),IF(E15=1,", hacer clic en boton exportar a excel",""),IF(F15=1,", hacer clic en enlace Descripción para modificar registro",IF(G15=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H15=1,", finalizando con la consulta mediante el filtro ",""),IF(H15=1,$H$2,""),IF(H15=1," con el dato ",""),IF(H15=1,I15,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton modificar, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="M15" s="7" t="s">
@@ -7524,11 +7530,11 @@
         <v>341</v>
       </c>
       <c r="K16" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B16=1,$B$2,IF(C16=1,$C$2,IF(D16=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E16=1,", considerando la opcion exportar a excel",""),IF(F16=1,", hacer clic en enlace Descripción para modificar registro",IF(G16=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H16=1,", finalizando con la consulta mediante el filtro ",""),IF(H16=1,$H$2,""),IF(H16=1," con el dato ",""),IF(H16=1,I16,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Ubicaciones, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="L16" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B16=1,", hacer clic en boton agregar",IF(C16=1,", hacer clic en boton eliminar",IF(D16=1,", hacer clic en boton modificar"))),IF(E16=1,", hacer clic en boton exportar a excel",""),IF(F16=1,", hacer clic en enlace Descripción para modificar registro",IF(G16=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H16=1,", finalizando con la consulta mediante el filtro ",""),IF(H16=1,$H$2,""),IF(H16=1," con el dato ",""),IF(H16=1,I16,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="M16" s="7" t="s">
@@ -7550,11 +7556,11 @@
         <v>342</v>
       </c>
       <c r="K17" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B17=1,$B$2,IF(C17=1,$C$2,IF(D17=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones",IF(E17=1,", considerando la opcion exportar a excel",""),IF(F17=1,", hacer clic en enlace Descripción para modificar registro",IF(G17=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H17=1,", finalizando con la consulta mediante el filtro ",""),IF(H17=1,$H$2,""),IF(H17=1," con el dato ",""),IF(H17=1,I17,""))</f>
+        <f t="shared" si="0"/>
         <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Ubicaciones</v>
       </c>
       <c r="L17" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones",IF(B17=1,", hacer clic en boton agregar",IF(C17=1,", hacer clic en boton eliminar",IF(D17=1,", hacer clic en boton modificar"))),IF(E17=1,", hacer clic en boton exportar a excel",""),IF(F17=1,", hacer clic en enlace Descripción para modificar registro",IF(G17=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H17=1,", finalizando con la consulta mediante el filtro ",""),IF(H17=1,$H$2,""),IF(H17=1," con el dato ",""),IF(H17=1,I17,""))</f>
+        <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones, hacer clic en boton modificar</v>
       </c>
       <c r="M17" s="31" t="s">
@@ -7983,8 +7989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8094,7 +8100,9 @@
         <v>1</v>
       </c>
       <c r="G3" s="8"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
       <c r="I3" s="8"/>
       <c r="J3" s="9">
         <v>1</v>
@@ -8106,12 +8114,12 @@
         <v>349</v>
       </c>
       <c r="M3" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2,"")))," del modulo Maestro, sub-modulo Ubicaciones Pagarés",IF(E3=1,", considenado la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace causal no pago para modificar registro",IF(G3=1,", hacer clic en enlace causal no pago para eliminar registro","")),IF(H3=1,", hacer clic en enlace tipo de contacto para modificar registro",IF(I3=1,", hacer clic en enlace tipo de contacto para eliminar registro","")),IF(J3=1,". Finalizando con la consulta del registro, usando el filtro ",IF(#REF!=1,". Finalizando con la consulta del registro, usando el filtro","")),IF(J3=1,$J$2,IF(#REF!=1,#REF!,"")),IF(J3=1," con el dato ",IF(#REF!=1," con el dato ","")),IF(J3=1,K3,IF(#REF!=1,K3,"")))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Ubicaciones Pagarés, considenado la opcion exportar a excel, hacer clic en enlace causal no pago para modificar registro. Finalizando con la consulta del registro, usando el filtro Pagaré Descripción con el dato Afianza</v>
+        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2,"")))," del modulo Maestro, sub-modulo Ubicaciones Pagarés",IF(E3=1,", considenado la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace pagare descripcion para modificar registro",IF(G3=1,", hacer clic en enlace pagare descripcion para eliminar registro","")),IF(H3=1,", hacer clic en enlace motivo traslado para seleccionar check ubicacion global",""),IF(I3=1,", hacer clic en enlace motivo traslado para ingresar ID Motivo de Traslado",""),IF(J3=1,". Finalizando con la consulta del registro, usando el filtro ",IF(J3=1,". Finalizando con la consulta del registro, usando el filtro","")),IF(J3=1,$J$2,""),IF(J3=1," con el dato ",""),IF(J3=1,K3,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Ubicaciones Pagarés, considenado la opcion exportar a excel, hacer clic en enlace pagare descripcion para modificar registro, hacer clic en enlace motivo traslado para seleccionar check ubicacion global. Finalizando con la consulta del registro, usando el filtro Pagaré Descripción con el dato Afianza</v>
       </c>
       <c r="N3" s="7" t="str">
-        <f>CONCATENATE("Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Ubicaciones Pagarés, ",IF(B3=1,"hacer clic en boton Agregar para crear nuevo registro",IF(C3=1,"hacer clic en boton Eliminar",IF(D3=1,"hacer clic en boton Modificar para editar informacion del registro",""))),IF(E3=1,", hacer clic en exportar a excel",""),IF(F3=1,", hacer clic en enlace casual no pago para modificar registro",IF(G3=1,", hacer clic en enlace casual no pago para modificar registro","")),IF(H3=1,", hacer clic en tipo de UbicacionesPagarés para modificar registro",IF(I3=1,", hacer clic en tipo de casuales para eliminar registro","")),IF(J3=1,", realizar consulta con el filtro ",IF(#REF!=1," realizar consulta con el filtro ","")),IF(J3=1,$J$2,IF(#REF!=1,#REF!,"")),IF(J3=1," con el dato ",""),IF(J3=1,K3,IF(#REF!=1,K3,"")))</f>
-        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Ubicaciones Pagarés, hacer clic en boton Agregar para crear nuevo registro, hacer clic en exportar a excel, hacer clic en enlace casual no pago para modificar registro, realizar consulta con el filtro Pagaré Descripción con el dato Afianza</v>
+        <f>CONCATENATE("Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Ubicaciones Pagarés, ",IF(B3=1,"hacer clic en boton Agregar para crear nuevo registro",IF(C3=1,"hacer clic en boton Eliminar",IF(D3=1,"hacer clic en boton Modificar para editar informacion del registro",""))),IF(E3=1,", hacer clic en exportar a excel",""),IF(F3=1,", hacer clic en enlace pagare descripcion para modificar registro",""),IF(G3=1,", hacer clic en enlace pagare descripcion para eliminar registro",""),IF(H3=1,", hacer clic en enlace motivo traslado para seleccionar check ubicacion",""),IF(I3=1,", hacer clic en enlace motivo traslado para ingresar ID Motivo de Traslado",""),IF(J3=1,", realizar consulta con el filtro ",""),IF(J3=1,$J$2,""),IF(J3=1," con el dato ",""),IF(J3=1,K3,""))</f>
+        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Ubicaciones Pagarés, hacer clic en boton Agregar para crear nuevo registro, hacer clic en exportar a excel, hacer clic en enlace pagare descripcion para modificar registro, hacer clic en enlace motivo traslado para seleccionar check ubicacion, realizar consulta con el filtro Pagaré Descripción con el dato Afianza</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>78</v>
@@ -8134,14 +8142,22 @@
         <v>1</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="8"/>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
       <c r="J4" s="9"/>
       <c r="K4" s="10"/>
       <c r="L4" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="7"/>
+      <c r="M4" s="12" t="str">
+        <f t="shared" ref="M4:M17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2,"")))," del modulo Maestro, sub-modulo Ubicaciones Pagarés",IF(E4=1,", considenado la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace pagare descripcion para modificar registro",IF(G4=1,", hacer clic en enlace pagare descripcion para eliminar registro","")),IF(H4=1,", hacer clic en enlace motivo traslado para seleccionar check ubicacion global",""),IF(I4=1,", hacer clic en enlace motivo traslado para ingresar ID Motivo de Traslado",""),IF(J4=1,". Finalizando con la consulta del registro, usando el filtro ",IF(J4=1,". Finalizando con la consulta del registro, usando el filtro","")),IF(J4=1,$J$2,""),IF(J4=1," con el dato ",""),IF(J4=1,K4,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Ubicaciones Pagarés, considenado la opcion exportar a excel, hacer clic en enlace pagare descripcion para eliminar registro, hacer clic en enlace motivo traslado para ingresar ID Motivo de Traslado</v>
+      </c>
+      <c r="N4" s="7" t="str">
+        <f t="shared" ref="N4:N17" si="1">CONCATENATE("Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Ubicaciones Pagarés, ",IF(B4=1,"hacer clic en boton Agregar para crear nuevo registro",IF(C4=1,"hacer clic en boton Eliminar",IF(D4=1,"hacer clic en boton Modificar para editar informacion del registro",""))),IF(E4=1,", hacer clic en exportar a excel",""),IF(F4=1,", hacer clic en enlace pagare descripcion para modificar registro",""),IF(G4=1,", hacer clic en enlace pagare descripcion para eliminar registro",""),IF(H4=1,", hacer clic en enlace motivo traslado para seleccionar check ubicacion",""),IF(I4=1,", hacer clic en enlace motivo traslado para ingresar ID Motivo de Traslado",""),IF(J4=1,", realizar consulta con el filtro ",""),IF(J4=1,$J$2,""),IF(J4=1," con el dato ",""),IF(J4=1,K4,""))</f>
+        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Ubicaciones Pagarés, hacer clic en boton Agregar para crear nuevo registro, hacer clic en exportar a excel, hacer clic en enlace pagare descripcion para eliminar registro, hacer clic en enlace motivo traslado para ingresar ID Motivo de Traslado</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>78</v>
       </c>
@@ -8171,8 +8187,14 @@
       <c r="L5" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="7"/>
+      <c r="M5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Ubicaciones Pagarés, hacer clic en enlace pagare descripcion para modificar registro. Finalizando con la consulta del registro, usando el filtro Pagaré Descripción con el dato Banco BCI</v>
+      </c>
+      <c r="N5" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Ubicaciones Pagarés, hacer clic en boton Agregar para crear nuevo registro, hacer clic en enlace pagare descripcion para modificar registro, realizar consulta con el filtro Pagaré Descripción con el dato Banco BCI</v>
+      </c>
       <c r="O5" s="7" t="s">
         <v>78</v>
       </c>
@@ -8193,15 +8215,25 @@
       <c r="G6" s="8">
         <v>1</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="8"/>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
       <c r="J6" s="9"/>
       <c r="K6" s="10"/>
       <c r="L6" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="7"/>
+      <c r="M6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Ubicaciones Pagarés, considenado la opcion exportar a excel, hacer clic en enlace pagare descripcion para eliminar registro, hacer clic en enlace motivo traslado para seleccionar check ubicacion global, hacer clic en enlace motivo traslado para ingresar ID Motivo de Traslado</v>
+      </c>
+      <c r="N6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Ubicaciones Pagarés, hacer clic en boton Agregar para crear nuevo registro, hacer clic en exportar a excel, hacer clic en enlace pagare descripcion para eliminar registro, hacer clic en enlace motivo traslado para seleccionar check ubicacion, hacer clic en enlace motivo traslado para ingresar ID Motivo de Traslado</v>
+      </c>
       <c r="O6" s="7" t="s">
         <v>78</v>
       </c>
@@ -8218,15 +8250,23 @@
       <c r="E7" s="28"/>
       <c r="F7" s="27"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+      <c r="H7" s="27">
+        <v>1</v>
+      </c>
       <c r="I7" s="26"/>
       <c r="J7" s="29"/>
       <c r="K7" s="30"/>
       <c r="L7" s="31" t="s">
         <v>353</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="7"/>
+      <c r="M7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Ubicaciones Pagarés, hacer clic en enlace motivo traslado para seleccionar check ubicacion global</v>
+      </c>
+      <c r="N7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Ubicaciones Pagarés, hacer clic en boton Agregar para crear nuevo registro, hacer clic en enlace motivo traslado para seleccionar check ubicacion</v>
+      </c>
       <c r="O7" s="31" t="s">
         <v>78</v>
       </c>
@@ -8247,7 +8287,9 @@
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="8"/>
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
       <c r="J8" s="9">
         <v>1</v>
       </c>
@@ -8257,8 +8299,14 @@
       <c r="L8" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="7"/>
+      <c r="M8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Ubicaciones Pagarés, considenado la opcion exportar a excel, hacer clic en enlace pagare descripcion para modificar registro, hacer clic en enlace motivo traslado para ingresar ID Motivo de Traslado. Finalizando con la consulta del registro, usando el filtro Pagaré Descripción con el dato Global</v>
+      </c>
+      <c r="N8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Ubicaciones Pagarés, hacer clic en boton Eliminar, hacer clic en exportar a excel, hacer clic en enlace pagare descripcion para modificar registro, hacer clic en enlace motivo traslado para ingresar ID Motivo de Traslado, realizar consulta con el filtro Pagaré Descripción con el dato Global</v>
+      </c>
       <c r="O8" s="7" t="s">
         <v>79</v>
       </c>
@@ -8285,8 +8333,14 @@
       <c r="L9" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="7"/>
+      <c r="M9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Ubicaciones Pagarés, considenado la opcion exportar a excel, hacer clic en enlace pagare descripcion para eliminar registro</v>
+      </c>
+      <c r="N9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Ubicaciones Pagarés, hacer clic en boton Eliminar, hacer clic en exportar a excel, hacer clic en enlace pagare descripcion para eliminar registro</v>
+      </c>
       <c r="O9" s="7" t="s">
         <v>79</v>
       </c>
@@ -8303,8 +8357,12 @@
         <v>1</v>
       </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="8"/>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
       <c r="J10" s="9">
         <v>1</v>
       </c>
@@ -8314,6 +8372,14 @@
       <c r="L10" s="7" t="s">
         <v>356</v>
       </c>
+      <c r="M10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Ubicaciones Pagarés, hacer clic en enlace pagare descripcion para modificar registro, hacer clic en enlace motivo traslado para seleccionar check ubicacion global, hacer clic en enlace motivo traslado para ingresar ID Motivo de Traslado. Finalizando con la consulta del registro, usando el filtro Pagaré Descripción con el dato Registro</v>
+      </c>
+      <c r="N10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Ubicaciones Pagarés, hacer clic en boton Eliminar, hacer clic en enlace pagare descripcion para modificar registro, hacer clic en enlace motivo traslado para seleccionar check ubicacion, hacer clic en enlace motivo traslado para ingresar ID Motivo de Traslado, realizar consulta con el filtro Pagaré Descripción con el dato Registro</v>
+      </c>
       <c r="O10" s="7" t="s">
         <v>79</v>
       </c>
@@ -8333,13 +8399,23 @@
       <c r="G11" s="8">
         <v>1</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
       <c r="I11" s="8"/>
       <c r="J11" s="9"/>
       <c r="K11" s="10"/>
       <c r="L11" s="7" t="s">
         <v>357</v>
       </c>
+      <c r="M11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Ubicaciones Pagarés, considenado la opcion exportar a excel, hacer clic en enlace pagare descripcion para eliminar registro, hacer clic en enlace motivo traslado para seleccionar check ubicacion global</v>
+      </c>
+      <c r="N11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Ubicaciones Pagarés, hacer clic en boton Eliminar, hacer clic en exportar a excel, hacer clic en enlace pagare descripcion para eliminar registro, hacer clic en enlace motivo traslado para seleccionar check ubicacion</v>
+      </c>
       <c r="O11" s="7" t="s">
         <v>79</v>
       </c>
@@ -8356,14 +8432,22 @@
       <c r="F12" s="27"/>
       <c r="G12" s="26"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="26"/>
+      <c r="I12" s="26">
+        <v>1</v>
+      </c>
       <c r="J12" s="29"/>
       <c r="K12" s="30"/>
       <c r="L12" s="31" t="s">
         <v>358</v>
       </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="7"/>
+      <c r="M12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Ubicaciones Pagarés, hacer clic en enlace motivo traslado para ingresar ID Motivo de Traslado</v>
+      </c>
+      <c r="N12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Ubicaciones Pagarés, hacer clic en boton Eliminar, hacer clic en enlace motivo traslado para ingresar ID Motivo de Traslado</v>
+      </c>
       <c r="O12" s="31" t="s">
         <v>79</v>
       </c>
@@ -8382,8 +8466,12 @@
         <v>1</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="8"/>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
       <c r="J13" s="9">
         <v>1</v>
       </c>
@@ -8392,6 +8480,14 @@
       </c>
       <c r="L13" s="7" t="s">
         <v>359</v>
+      </c>
+      <c r="M13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Ubicaciones Pagarés, considenado la opcion exportar a excel, hacer clic en enlace pagare descripcion para modificar registro, hacer clic en enlace motivo traslado para seleccionar check ubicacion global, hacer clic en enlace motivo traslado para ingresar ID Motivo de Traslado. Finalizando con la consulta del registro, usando el filtro Pagaré Descripción con el dato Banco</v>
+      </c>
+      <c r="N13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Ubicaciones Pagarés, hacer clic en boton Modificar para editar informacion del registro, hacer clic en exportar a excel, hacer clic en enlace pagare descripcion para modificar registro, hacer clic en enlace motivo traslado para seleccionar check ubicacion, hacer clic en enlace motivo traslado para ingresar ID Motivo de Traslado, realizar consulta con el filtro Pagaré Descripción con el dato Banco</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>126</v>
@@ -8418,6 +8514,14 @@
       <c r="L14" s="7" t="s">
         <v>360</v>
       </c>
+      <c r="M14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Ubicaciones Pagarés, considenado la opcion exportar a excel, hacer clic en enlace pagare descripcion para eliminar registro</v>
+      </c>
+      <c r="N14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Ubicaciones Pagarés, hacer clic en boton Modificar para editar informacion del registro, hacer clic en exportar a excel, hacer clic en enlace pagare descripcion para eliminar registro</v>
+      </c>
       <c r="O14" s="7" t="s">
         <v>126</v>
       </c>
@@ -8433,7 +8537,9 @@
         <v>1</v>
       </c>
       <c r="G15" s="8"/>
-      <c r="H15" s="5"/>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
       <c r="I15" s="8"/>
       <c r="J15" s="9">
         <v>1</v>
@@ -8444,6 +8550,14 @@
       <c r="L15" s="7" t="s">
         <v>361</v>
       </c>
+      <c r="M15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Ubicaciones Pagarés, hacer clic en enlace pagare descripcion para modificar registro, hacer clic en enlace motivo traslado para seleccionar check ubicacion global. Finalizando con la consulta del registro, usando el filtro Pagaré Descripción con el dato Addwise</v>
+      </c>
+      <c r="N15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Ubicaciones Pagarés, hacer clic en boton Modificar para editar informacion del registro, hacer clic en enlace pagare descripcion para modificar registro, hacer clic en enlace motivo traslado para seleccionar check ubicacion, realizar consulta con el filtro Pagaré Descripción con el dato Addwise</v>
+      </c>
       <c r="O15" s="7" t="s">
         <v>126</v>
       </c>
@@ -8463,12 +8577,22 @@
         <v>1</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="8"/>
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
       <c r="J16" s="9"/>
       <c r="K16" s="10"/>
       <c r="L16" s="7" t="s">
         <v>362</v>
       </c>
+      <c r="M16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Ubicaciones Pagarés, considenado la opcion exportar a excel, hacer clic en enlace pagare descripcion para eliminar registro, hacer clic en enlace motivo traslado para ingresar ID Motivo de Traslado</v>
+      </c>
+      <c r="N16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Ubicaciones Pagarés, hacer clic en boton Modificar para editar informacion del registro, hacer clic en exportar a excel, hacer clic en enlace pagare descripcion para eliminar registro, hacer clic en enlace motivo traslado para ingresar ID Motivo de Traslado</v>
+      </c>
       <c r="O16" s="7" t="s">
         <v>126</v>
       </c>
@@ -8484,15 +8608,25 @@
       <c r="E17" s="28"/>
       <c r="F17" s="27"/>
       <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="26"/>
+      <c r="H17" s="27">
+        <v>1</v>
+      </c>
+      <c r="I17" s="26">
+        <v>1</v>
+      </c>
       <c r="J17" s="29"/>
       <c r="K17" s="30"/>
       <c r="L17" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="7"/>
+      <c r="M17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Ubicaciones Pagarés, hacer clic en enlace motivo traslado para seleccionar check ubicacion global, hacer clic en enlace motivo traslado para ingresar ID Motivo de Traslado</v>
+      </c>
+      <c r="N17" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Ubicaciones Pagarés, hacer clic en boton Modificar para editar informacion del registro, hacer clic en enlace motivo traslado para seleccionar check ubicacion, hacer clic en enlace motivo traslado para ingresar ID Motivo de Traslado</v>
+      </c>
       <c r="O17" s="31" t="s">
         <v>126</v>
       </c>
@@ -8980,6 +9114,56 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10157,19 +10341,43 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -13510,8 +13718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="17" topLeftCell="T1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="17" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
@@ -16872,7 +17080,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G22" sqref="G22"/>
+      <selection pane="topRight" activeCell="M3" sqref="M3:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16985,12 +17193,12 @@
         <v>218</v>
       </c>
       <c r="L3" s="12" t="str">
-        <f t="shared" ref="L3:L17" si="0">CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 12</v>
+        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace concepto para modificar registro",IF(G3=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 12</v>
       </c>
       <c r="M3" s="12" t="str">
-        <f t="shared" ref="M3:M17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 12</v>
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace concepto para modificar registro",IF(G3=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 12</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>78</v>
@@ -17023,12 +17231,12 @@
         <v>219</v>
       </c>
       <c r="L4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 10</v>
+        <f t="shared" ref="L4:L17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace concepto para modificar registro",IF(G4=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,J4,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 10</v>
       </c>
       <c r="M4" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 10</v>
+        <f t="shared" ref="M4:M17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace concepto para modificar registro",IF(G4=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,J4,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 10</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>78</v>
@@ -17056,11 +17264,11 @@
       </c>
       <c r="L5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, hacer clic en enlace concepto para modificar registro</v>
       </c>
       <c r="M5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en enlace concepto para modificar registro</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>78</v>
@@ -17090,11 +17298,11 @@
       </c>
       <c r="L6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
       </c>
       <c r="M6" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>78</v>
@@ -17157,11 +17365,11 @@
       </c>
       <c r="L8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 30</v>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 30</v>
       </c>
       <c r="M8" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 30</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 30</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>79</v>
@@ -17194,11 +17402,11 @@
       </c>
       <c r="L9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 5</v>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 5</v>
       </c>
       <c r="M9" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 5</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 5</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>79</v>
@@ -17224,11 +17432,11 @@
       </c>
       <c r="L10" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion, hacer clic en enlace concepto para modificar registro</v>
       </c>
       <c r="M10" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en enlace concepto para modificar registro</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>79</v>
@@ -17257,11 +17465,11 @@
       </c>
       <c r="L11" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
       </c>
       <c r="M11" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>79</v>
@@ -17321,11 +17529,11 @@
       </c>
       <c r="L13" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 2</v>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 2</v>
       </c>
       <c r="M13" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 2</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 2</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>126</v>
@@ -17357,11 +17565,11 @@
       </c>
       <c r="L14" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 3</v>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 3</v>
       </c>
       <c r="M14" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 3</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 3</v>
       </c>
       <c r="N14" s="7" t="s">
         <v>126</v>
@@ -17386,11 +17594,11 @@
       </c>
       <c r="L15" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion, hacer clic en enlace concepto para modificar registro</v>
       </c>
       <c r="M15" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en enlace concepto para modificar registro</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>126</v>
@@ -17418,11 +17626,11 @@
       </c>
       <c r="L16" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
       </c>
       <c r="M16" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
       </c>
       <c r="N16" s="7" t="s">
         <v>126</v>

--- a/Maestros.xlsx
+++ b/Maestros.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="9" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="14" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Banco" sheetId="15" r:id="rId1"/>
@@ -26,13 +26,14 @@
     <sheet name="Tipo Bien" sheetId="26" r:id="rId12"/>
     <sheet name="Tipos De Contacto" sheetId="27" r:id="rId13"/>
     <sheet name="Ubicaciones" sheetId="28" r:id="rId14"/>
-    <sheet name="Ubicaciones Pagarés" sheetId="29" r:id="rId15"/>
-    <sheet name="Ubicaciones Vehículos" sheetId="30" r:id="rId16"/>
-    <sheet name="Usuarios Empresas Externas" sheetId="31" r:id="rId17"/>
-    <sheet name="Tipos de Procesos" sheetId="32" r:id="rId18"/>
-    <sheet name="CIA de GPS" sheetId="33" r:id="rId19"/>
-    <sheet name="Documentos por Proveedor" sheetId="34" r:id="rId20"/>
-    <sheet name="Motivo Recompra" sheetId="35" r:id="rId21"/>
+    <sheet name="Tipo de Gestión" sheetId="37" r:id="rId15"/>
+    <sheet name="Ubicaciones Pagarés" sheetId="29" r:id="rId16"/>
+    <sheet name="Ubicaciones Vehículos" sheetId="30" r:id="rId17"/>
+    <sheet name="Usuarios Empresas Externas" sheetId="31" r:id="rId18"/>
+    <sheet name="Tipos de Procesos" sheetId="32" r:id="rId19"/>
+    <sheet name="CIA de GPS" sheetId="33" r:id="rId20"/>
+    <sheet name="Documentos por Proveedor" sheetId="34" r:id="rId21"/>
+    <sheet name="Motivo Recompra" sheetId="35" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Banco!$A$2:$R$50</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="467">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -1170,6 +1171,289 @@
   </si>
   <si>
     <t>Registro</t>
+  </si>
+  <si>
+    <t>Recompra
+Descripcion</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Carta guía</t>
+  </si>
+  <si>
+    <t>Nomina</t>
+  </si>
+  <si>
+    <t>Ubicación Fisica</t>
+  </si>
+  <si>
+    <t>Tipo Gestion</t>
+  </si>
+  <si>
+    <t>Carta</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Telf</t>
+  </si>
+  <si>
+    <t>Terreno</t>
+  </si>
+  <si>
+    <t>Administracion</t>
+  </si>
+  <si>
+    <t>Tipo de Gestion</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Tipo de Gestion, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Tipo de Gestion, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoGestion_AgregarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Tipo Gestion_AgregarDescripcion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoGestion_AgregarEnlaceModificar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoGestion_AgregarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoGestion_Agregar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoGestion_EliminarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoGestion_EliminarDescripcion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoGestion_EliminarSinExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoGestion_EliminarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoGestion_Eliminar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoGestion_ModificarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoGestion_ModificarEnlace</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoGestion_ModificarDescripcion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoGestion_ModificarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoGestion_ConsolidadoError</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoGestion_Modificar</t>
+  </si>
+  <si>
+    <t>Motivo Recompra</t>
+  </si>
+  <si>
+    <t>TC_Cartera_MotivoRecompra_AgregarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_MotivoRecompra_AgregarDescripcion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_MotivoRecompra_AgregarEnlaceModificar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_MotivoRecompra_AgregarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_MotivoRecompra_Agregar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_MotivoRecompra_EliminarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_MotivoRecompra_EliminarDescripcion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_MotivoRecompra_EliminarSinExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_MotivoRecompra_EliminarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_MotivoRecompra_Eliminar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_MotivoRecompra_ModificarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_MotivoRecompra_ModificarEnlace</t>
+  </si>
+  <si>
+    <t>TC_Cartera_MotivoRecompra_ModificarDescripcion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_MotivoRecompra_ModificarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_MotivoRecompra_Modificar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_MotivoRecompra_ConsolidadoError</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesVehiculos_AgregarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesVehiculos_AgregarDescripcion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesVehiculos_AgregarEnlaceModificar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesVehiculos_AgregarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesVehiculos_Agregar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesVehiculos_EliminarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesVehiculos_EliminarDescripcion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesVehiculos_EliminarSinExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesVehiculos_EliminarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesVehiculos_Eliminar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesVehiculos_ModificarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesVehiculos_ModificarEnlace</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesVehiculos_ModificarDescripcion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesVehiculos_ModificarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesVehiculos_Modificar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UbicacionesVehiculos_ConsolidadoError</t>
+  </si>
+  <si>
+    <t>Ubicaciones Vehiculos</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Ubicaciones Vehiculos, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Ubicaciones Vehiculos, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
+  </si>
+  <si>
+    <t>Corral</t>
+  </si>
+  <si>
+    <t>En Transito</t>
+  </si>
+  <si>
+    <t>Martillero</t>
+  </si>
+  <si>
+    <t>Taller</t>
+  </si>
+  <si>
+    <t>Alport</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UEExternas_AgregarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UEExternas_AgregarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UEExternas_Agregar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UEExternas_EliminarSinExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UEExternas_EliminarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UEExternas_Eliminar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UEExternas_ModificarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UEExternas_ModificarDescripcion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UEExternas_ModificarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UEExternas_Modificar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UEExternas_ConsolidadoError</t>
+  </si>
+  <si>
+    <t>Usuarios Empresas Externas</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Usuarios Empresas Externas, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Usuarios Empresas Externas, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>Proceso Participa</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UEExternas_CorreoEnlace</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UEExternas_Correo</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UEExternas_EliminarCorreo</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UEExternas_AgregarCorreo</t>
+  </si>
+  <si>
+    <t>TC_Cartera_UEExternas_AgregarSinConsulta</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1409,6 +1693,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1459,6 +1749,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1766,9 +2059,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="11" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N37" sqref="N37"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,41 +2083,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="49" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="40" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="40" t="s">
+      <c r="M1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
@@ -1834,7 +2127,7 @@
       <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="48"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="14" t="s">
         <v>8</v>
       </c>
@@ -1850,10 +2143,10 @@
       <c r="J2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -3000,7 +3293,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K3" sqref="K3"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3021,40 +3314,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="49" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="40" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="40" t="s">
+      <c r="L1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -3064,7 +3357,7 @@
       <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -3077,10 +3370,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -3988,7 +4281,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="11" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M23" sqref="M23"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4009,41 +4302,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="49" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="40" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="40" t="s">
+      <c r="M1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -4053,7 +4346,7 @@
       <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -4069,10 +4362,10 @@
       <c r="J2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -5028,7 +5321,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L3" sqref="L3:L17"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5049,40 +5342,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="56" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="49" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="40" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="40" t="s">
+      <c r="L1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -5092,7 +5385,7 @@
       <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -5105,10 +5398,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -6016,7 +6309,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L3" sqref="L3:L17"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6037,40 +6330,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="49" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="40" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="40" t="s">
+      <c r="L1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -6080,7 +6373,7 @@
       <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -6093,10 +6386,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -7002,8 +7295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K23" sqref="K22:K23"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7024,40 +7317,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="49" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="40" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="40" t="s">
+      <c r="L1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -7067,7 +7360,7 @@
       <c r="D2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -7080,10 +7373,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -7987,10 +8280,998 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M50"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="51.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="255.42578125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="255.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="79" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
+        <v>385</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>378</v>
+      </c>
+      <c r="G1" s="48"/>
+      <c r="H1" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="53"/>
+      <c r="J1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="18">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K3" s="12" t="str">
+        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Tipo de Gestion",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Tipo gestion para modificar registro",IF(G3=1,", hacer clic en enlace Tipo Gestion para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Tipo de Gestion, considerando la opcion exportar a excel, hacer clic en enlace Tipo gestion para modificar registro, finalizando con la consulta mediante el filtro Tipo Gestion con el dato Carta</v>
+      </c>
+      <c r="L3" s="12" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Gestion",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Tipo Gestion para modificar registro",IF(G3=1,", hacer clic en enlace Tipo Gestion para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Gestion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Tipo Gestion para modificar registro, finalizando con la consulta mediante el filtro Tipo Gestion con el dato Carta</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K4" s="12" t="str">
+        <f t="shared" ref="K4:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Tipo de Gestion",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Tipo gestion para modificar registro",IF(G4=1,", hacer clic en enlace Tipo Gestion para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Tipo de Gestion, considerando la opcion exportar a excel, hacer clic en enlace Tipo Gestion para eliminar registro, finalizando con la consulta mediante el filtro Tipo Gestion con el dato SMS</v>
+      </c>
+      <c r="L4" s="12" t="str">
+        <f t="shared" ref="L4:L17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Gestion",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace Tipo Gestion para modificar registro",IF(G4=1,", hacer clic en enlace Tipo Gestion para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Gestion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Tipo Gestion para eliminar registro, finalizando con la consulta mediante el filtro Tipo Gestion con el dato SMS</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Tipo de Gestion, hacer clic en enlace Tipo gestion para modificar registro</v>
+      </c>
+      <c r="L5" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Gestion, hacer clic en boton agregar, hacer clic en enlace Tipo Gestion para modificar registro</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Tipo de Gestion, considerando la opcion exportar a excel, hacer clic en enlace Tipo Gestion para eliminar registro</v>
+      </c>
+      <c r="L6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Gestion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Tipo Gestion para eliminar registro</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Tipo de Gestion</v>
+      </c>
+      <c r="L7" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Gestion, hacer clic en boton agregar</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Tipo de Gestion, considerando la opcion exportar a excel, hacer clic en enlace Tipo gestion para modificar registro, finalizando con la consulta mediante el filtro Tipo Gestion con el dato Email</v>
+      </c>
+      <c r="L8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Gestion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Tipo Gestion para modificar registro, finalizando con la consulta mediante el filtro Tipo Gestion con el dato Email</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Tipo de Gestion, considerando la opcion exportar a excel, hacer clic en enlace Tipo Gestion para eliminar registro, finalizando con la consulta mediante el filtro Tipo Gestion con el dato Telf</v>
+      </c>
+      <c r="L9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Gestion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Tipo Gestion para eliminar registro, finalizando con la consulta mediante el filtro Tipo Gestion con el dato Telf</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Tipo de Gestion, hacer clic en enlace Tipo gestion para modificar registro</v>
+      </c>
+      <c r="L10" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Gestion, hacer clic en boton eliminar, hacer clic en enlace Tipo Gestion para modificar registro</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Tipo de Gestion, considerando la opcion exportar a excel, hacer clic en enlace Tipo Gestion para eliminar registro</v>
+      </c>
+      <c r="L11" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Gestion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Tipo Gestion para eliminar registro</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Tipo de Gestion</v>
+      </c>
+      <c r="L12" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Gestion, hacer clic en boton eliminar</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Tipo de Gestion, considerando la opcion exportar a excel, hacer clic en enlace Tipo gestion para modificar registro, finalizando con la consulta mediante el filtro Tipo Gestion con el dato Terreno</v>
+      </c>
+      <c r="L13" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Gestion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Tipo Gestion para modificar registro, finalizando con la consulta mediante el filtro Tipo Gestion con el dato Terreno</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Tipo de Gestion, considerando la opcion exportar a excel, hacer clic en enlace Tipo Gestion para eliminar registro, finalizando con la consulta mediante el filtro Tipo Gestion con el dato Administracion</v>
+      </c>
+      <c r="L14" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Gestion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Tipo Gestion para eliminar registro, finalizando con la consulta mediante el filtro Tipo Gestion con el dato Administracion</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Tipo de Gestion, hacer clic en enlace Tipo gestion para modificar registro</v>
+      </c>
+      <c r="L15" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Gestion, hacer clic en boton modificar, hacer clic en enlace Tipo Gestion para modificar registro</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Tipo de Gestion, considerando la opcion exportar a excel, hacer clic en enlace Tipo Gestion para eliminar registro</v>
+      </c>
+      <c r="L16" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Gestion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Tipo Gestion para eliminar registro</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Tipo de Gestion</v>
+      </c>
+      <c r="L17" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo de Gestion, hacer clic en boton modificar</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="8"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="8"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="8"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="8"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="8"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="8"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="8"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="8"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="8"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="8"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="8"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="8"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="8"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="8"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="8"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="8"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="8"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8013,44 +9294,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="53" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="56" t="s">
         <v>365</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="54" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="56" t="s">
         <v>366</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="49" t="s">
+      <c r="I1" s="48"/>
+      <c r="J1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="40" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="40" t="s">
+      <c r="N1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -8060,7 +9341,7 @@
       <c r="D2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -8079,10 +9360,10 @@
       <c r="K2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -9117,52 +10398,2912 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="60.85546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="255.42578125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="255.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="79" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
+        <v>437</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="48"/>
+      <c r="H1" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="53"/>
+      <c r="J1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="18">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K3" s="12" t="str">
+        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones Vehiculos",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Ubicaciones Vehiculos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato Corral</v>
+      </c>
+      <c r="L3" s="12" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones Vehiculos",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones Vehiculos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato Corral</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K4" s="12" t="str">
+        <f t="shared" ref="K4:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones Vehiculos",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Ubicaciones Vehiculos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato En Transito</v>
+      </c>
+      <c r="L4" s="12" t="str">
+        <f t="shared" ref="L4:L17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones Vehiculos",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones Vehiculos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato En Transito</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Ubicaciones Vehiculos, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="L5" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones Vehiculos, hacer clic en boton agregar, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Ubicaciones Vehiculos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="L6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones Vehiculos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Ubicaciones Vehiculos</v>
+      </c>
+      <c r="L7" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones Vehiculos, hacer clic en boton agregar</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Ubicaciones Vehiculos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato Global</v>
+      </c>
+      <c r="L8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones Vehiculos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato Global</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Ubicaciones Vehiculos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato Martillero</v>
+      </c>
+      <c r="L9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones Vehiculos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato Martillero</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Ubicaciones Vehiculos, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="L10" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones Vehiculos, hacer clic en boton eliminar, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Ubicaciones Vehiculos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="L11" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones Vehiculos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Ubicaciones Vehiculos</v>
+      </c>
+      <c r="L12" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones Vehiculos, hacer clic en boton eliminar</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Ubicaciones Vehiculos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato Taller</v>
+      </c>
+      <c r="L13" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones Vehiculos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato Taller</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Ubicaciones Vehiculos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato Alport</v>
+      </c>
+      <c r="L14" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones Vehiculos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato Alport</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Ubicaciones Vehiculos, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="L15" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones Vehiculos, hacer clic en boton modificar, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Ubicaciones Vehiculos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="L16" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones Vehiculos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Ubicaciones Vehiculos</v>
+      </c>
+      <c r="L17" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Ubicaciones Vehiculos, hacer clic en boton modificar</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="8"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="8"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="8"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="8"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="8"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="8"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="8"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="8"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="8"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="8"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="8"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="8"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="8"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="8"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="8"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="8"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="8"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="6" customWidth="1"/>
+    <col min="7" max="10" width="4.85546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="51.7109375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="255.42578125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="255.42578125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="79" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>381</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="40" t="s">
+        <v>461</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="18">
+        <v>1</v>
+      </c>
+      <c r="F3" s="18">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L3" s="12" t="e">
+        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Usuarios Empresas Externas",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(#REF!=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(G3=1,", finalizando con la consulta mediante el filtro ",""),IF(G3=1,$G$2,""),IF(G3=1," con el dato ",""),IF(G3=1,#REF!,""))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M3" s="12" t="e">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(#REF!=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(G3=1,", finalizando con la consulta mediante el filtro ",""),IF(G3=1,$G$2,""),IF(G3=1," con el dato ",""),IF(G3=1,#REF!,""))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="F10" s="18">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="M11" s="12"/>
+      <c r="N11" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="M24" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="8"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="8"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="8"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="8"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="8"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="8"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="8"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+    </row>
+    <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+    </row>
+    <row r="36" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+    </row>
+    <row r="37" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+    </row>
+    <row r="38" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+    </row>
+    <row r="39" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="8"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="8"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="8"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="8"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="8"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="7"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="8"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="8"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="8"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="7"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="8"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="8"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="51.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="255.42578125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="255.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="79" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="48"/>
+      <c r="H1" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="53"/>
+      <c r="J1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="18">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="23">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K3" s="12" t="str">
+        <f t="shared" ref="K3:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Segmentos",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 12</v>
+      </c>
+      <c r="L3" s="12" t="str">
+        <f t="shared" ref="L3:L17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 12</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10">
+        <v>10</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 10</v>
+      </c>
+      <c r="L4" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 10</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="L5" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="L6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos</v>
+      </c>
+      <c r="L7" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="23">
+        <v>30</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 30</v>
+      </c>
+      <c r="L8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 30</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
+        <v>5</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 5</v>
+      </c>
+      <c r="L9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 5</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="L10" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="L11" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos</v>
+      </c>
+      <c r="L12" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23">
+        <v>2</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 2</v>
+      </c>
+      <c r="L13" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 2</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10">
+        <v>3</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 3</v>
+      </c>
+      <c r="L14" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 3</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="L15" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="L16" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos</v>
+      </c>
+      <c r="L17" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="8"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="8"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="8"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="8"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="8"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="8"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="8"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="8"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="8"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="8"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="8"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="8"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="8"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="8"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="8"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="8"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="8"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9173,7 +13314,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="13" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J11" sqref="J11"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9197,45 +13338,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="53" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="54" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="49" t="s">
+      <c r="I1" s="48"/>
+      <c r="J1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="40" t="s">
+      <c r="K1" s="52"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="40" t="s">
+      <c r="O1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -9245,7 +13386,7 @@
       <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -9267,10 +13408,10 @@
       <c r="L2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -10341,16 +14482,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10359,24 +14500,2708 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="51.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="255.42578125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="255.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="79" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="48"/>
+      <c r="H1" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="53"/>
+      <c r="J1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="18">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="23">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K3" s="12" t="str">
+        <f t="shared" ref="K3:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Segmentos",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 12</v>
+      </c>
+      <c r="L3" s="12" t="str">
+        <f t="shared" ref="L3:L17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 12</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10">
+        <v>10</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 10</v>
+      </c>
+      <c r="L4" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 10</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="L5" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="L6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos</v>
+      </c>
+      <c r="L7" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="23">
+        <v>30</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 30</v>
+      </c>
+      <c r="L8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 30</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
+        <v>5</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 5</v>
+      </c>
+      <c r="L9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 5</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="L10" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="L11" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos</v>
+      </c>
+      <c r="L12" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23">
+        <v>2</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 2</v>
+      </c>
+      <c r="L13" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 2</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10">
+        <v>3</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 3</v>
+      </c>
+      <c r="L14" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 3</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="L15" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="L16" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos</v>
+      </c>
+      <c r="L17" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="8"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="8"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="8"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="8"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="8"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="8"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="8"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="8"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="8"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="8"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="8"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="8"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="8"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="8"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="8"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="8"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="8"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="51.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="255.42578125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="255.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="79" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="48"/>
+      <c r="H1" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="53"/>
+      <c r="J1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="18">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="23">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K3" s="12" t="str">
+        <f t="shared" ref="K3:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Segmentos",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 12</v>
+      </c>
+      <c r="L3" s="12" t="str">
+        <f t="shared" ref="L3:L17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 12</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10">
+        <v>10</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 10</v>
+      </c>
+      <c r="L4" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 10</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="L5" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="L6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos</v>
+      </c>
+      <c r="L7" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="23">
+        <v>30</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 30</v>
+      </c>
+      <c r="L8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 30</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
+        <v>5</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 5</v>
+      </c>
+      <c r="L9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 5</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="L10" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="L11" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos</v>
+      </c>
+      <c r="L12" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23">
+        <v>2</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 2</v>
+      </c>
+      <c r="L13" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 2</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10">
+        <v>3</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 3</v>
+      </c>
+      <c r="L14" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 3</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="L15" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="L16" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos</v>
+      </c>
+      <c r="L17" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="8"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="8"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="8"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="8"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="8"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="8"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="8"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="8"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="8"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="8"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="8"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="8"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="8"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="8"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="8"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="8"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="8"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="3" customWidth="1"/>
+    <col min="4" max="6" width="4.85546875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="51.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="255.42578125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="255.42578125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="79" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="31"/>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="31"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="31"/>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10387,7 +17212,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="11" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M22" sqref="M22"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10409,41 +17234,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="49" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="40" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="40" t="s">
+      <c r="M1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -10453,7 +17278,7 @@
       <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -10469,10 +17294,10 @@
       <c r="J2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -11440,7 +18265,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="14" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O20" sqref="O20"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11465,44 +18290,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="55" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="53" t="s">
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="40" t="s">
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="40" t="s">
+      <c r="P1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -11524,7 +18349,7 @@
       <c r="H2" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="41"/>
+      <c r="I2" s="43"/>
       <c r="J2" s="20" t="s">
         <v>39</v>
       </c>
@@ -11537,10 +18362,10 @@
       <c r="M2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -12612,9 +19437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="12" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O24" sqref="O24"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12637,42 +19462,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="49" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="40" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="40" t="s">
+      <c r="N1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -12682,7 +19507,7 @@
       <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -12701,10 +19526,10 @@
       <c r="K2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -13720,7 +20545,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="17" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T22" sqref="T22"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13743,47 +20568,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="49" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="40" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="40" t="s">
+      <c r="S1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="14" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -13793,7 +20618,7 @@
       <c r="D2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -13827,10 +20652,10 @@
       <c r="P2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -15104,7 +21929,7 @@
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K23" sqref="K23"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15125,40 +21950,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="49" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="40" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="40" t="s">
+      <c r="L1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -15168,7 +21993,7 @@
       <c r="D2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -15181,10 +22006,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -16113,40 +22938,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="49" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="40" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="40" t="s">
+      <c r="L1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -16156,7 +22981,7 @@
       <c r="D2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -16169,10 +22994,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -17080,7 +23905,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M3" sqref="M3:M17"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17101,41 +23926,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="49" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="40" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="40" t="s">
+      <c r="M1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -17145,7 +23970,7 @@
       <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -17161,10 +23986,10 @@
       <c r="J2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">

--- a/Maestros.xlsx
+++ b/Maestros.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="16" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Banco" sheetId="15" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="510">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -1454,6 +1454,136 @@
   </si>
   <si>
     <t>TC_Cartera_UEExternas_AgregarSinConsulta</t>
+  </si>
+  <si>
+    <t>Acronimo</t>
+  </si>
+  <si>
+    <t>Nombre Tipo
+Procesos</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoProcesos_AgregarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoProcesos_AgregarDescripcion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoProcesos_AgregarEnlaceModificar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoProcesos_AgregarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoProcesos_Agregar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoProcesos_EliminarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoProcesos_EliminarDescripcion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoProcesos_EliminarSinExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoProcesos_EliminarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoProcesos_Eliminar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoProcesos_ModificarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoProcesos_ModificarEnlace</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoProcesos_ModificarDescripcion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoProcesos_ModificarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoProcesos_Modificar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_TipoProcesos_ConsolidadoError</t>
+  </si>
+  <si>
+    <t>Tipo Procesos</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Tipo Procesos, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Tipo Procesos, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
+  </si>
+  <si>
+    <t>CIA GPS</t>
+  </si>
+  <si>
+    <t>Safecar</t>
+  </si>
+  <si>
+    <t>I-GPS</t>
+  </si>
+  <si>
+    <t>LoJack</t>
+  </si>
+  <si>
+    <t>TC_Cartera_CIAGPS_AgregarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_CIAGPS_AgregarDescripcion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_CIAGPS_AgregarEnlaceModificar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_CIAGPS_AgregarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_CIAGPS_Agregar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_CIAGPS_EliminarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_CIAGPS_EliminarDescripcion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_CIAGPS_EliminarSinExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_CIAGPS_EliminarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_CIAGPS_Eliminar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_CIAGPS_ModificarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_CIAGPS_ModificarEnlace</t>
+  </si>
+  <si>
+    <t>TC_Cartera_CIAGPS_ModificarDescripcion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_CIAGPS_ModificarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_CIAGPS_Modificar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_CIAGPS_ConsolidadoError</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo CIA GPS, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo CIA GPS, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
   </si>
 </sst>
 </file>
@@ -1700,6 +1830,9 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1749,9 +1882,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2083,41 +2213,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="51" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="42" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="42" t="s">
+      <c r="M1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
@@ -2127,7 +2257,7 @@
       <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="50"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="14" t="s">
         <v>8</v>
       </c>
@@ -2143,10 +2273,10 @@
       <c r="J2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -3314,40 +3444,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="51" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="42" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -3357,7 +3487,7 @@
       <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -3370,10 +3500,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -4302,41 +4432,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="51" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="42" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="42" t="s">
+      <c r="M1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -4346,7 +4476,7 @@
       <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -4362,10 +4492,10 @@
       <c r="J2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -5342,40 +5472,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="51" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="42" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -5385,7 +5515,7 @@
       <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -5398,10 +5528,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -6330,40 +6460,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="51" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="42" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -6373,7 +6503,7 @@
       <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -6386,10 +6516,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -7317,40 +7447,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="51" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="42" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -7360,7 +7490,7 @@
       <c r="D2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -7373,10 +7503,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -8304,40 +8434,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>378</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="51" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="42" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -8347,7 +8477,7 @@
       <c r="D2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -8360,10 +8490,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -9294,44 +9424,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>346</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="55" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>365</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="56" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="57" t="s">
         <v>366</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="51" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="42" t="s">
+      <c r="K1" s="54"/>
+      <c r="L1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="42" t="s">
+      <c r="N1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -9341,7 +9471,7 @@
       <c r="D2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -9360,10 +9490,10 @@
       <c r="K2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -10424,40 +10554,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="51" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="42" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -10467,7 +10597,7 @@
       <c r="D2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -10480,10 +10610,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -11389,8 +11519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11409,41 +11539,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>456</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="42" t="s">
         <v>381</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="42" t="s">
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="42" t="s">
+      <c r="M1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -11453,7 +11583,7 @@
       <c r="D2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="40" t="s">
         <v>461</v>
       </c>
@@ -11469,10 +11599,10 @@
       <c r="J2" s="20" t="s">
         <v>460</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -11500,13 +11630,13 @@
       <c r="K3" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="L3" s="12" t="e">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Usuarios Empresas Externas",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(#REF!=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(G3=1,", finalizando con la consulta mediante el filtro ",""),IF(G3=1,$G$2,""),IF(G3=1," con el dato ",""),IF(G3=1,#REF!,""))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M3" s="12" t="e">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(#REF!=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(G3=1,", finalizando con la consulta mediante el filtro ",""),IF(G3=1,$G$2,""),IF(G3=1," con el dato ",""),IF(G3=1,#REF!,""))</f>
-        <v>#REF!</v>
+      <c r="L3" s="12" t="str">
+        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Usuarios Empresas Externas",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Email para abrir ventada de envio de correo",""),IF(G3=1,", finalizando con la consulta mediante el filtro(s) ",""),IF(G3=1,$G$2,"")," ",IF(H3=1,$H$2,"")," ",IF(I3=1,$I$2,"")," ",IF(J3=1,$J$2,""))</f>
+        <v xml:space="preserve">Validar funcionalidad Agregar del modulo Maestro, sub-modulo Usuarios Empresas Externas, considerando la opcion exportar a excel, hacer clic en enlace Email para abrir ventada de envio de correo, finalizando con la consulta mediante el filtro(s) Nombre Cargo  </v>
+      </c>
+      <c r="M3" s="12" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Email para abrir ventana de envio de correo",""),IF(G3=1,", finalizando con la consulta mediante el filtro ",""),IF(G3=1,$G$2,"")," ",IF(H3=1,$H$2,"")," ",IF(I3=1,$I$2,"")," ",IF(J3=1,$J$2,""))</f>
+        <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Email para abrir ventana de envio de correo, finalizando con la consulta mediante el filtro Nombre Cargo  </v>
       </c>
       <c r="N3" s="7" t="s">
         <v>78</v>
@@ -11532,8 +11662,14 @@
       <c r="K4" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="L4" s="12" t="str">
+        <f t="shared" ref="L4:L17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Usuarios Empresas Externas",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Email para abrir ventada de envio de correo",""),IF(G4=1,", finalizando con la consulta mediante el filtro(s) ",""),IF(G4=1,$G$2,"")," ",IF(H4=1,$H$2,"")," ",IF(I4=1,$I$2,"")," ",IF(J4=1,$J$2,""))</f>
+        <v xml:space="preserve">Validar funcionalidad Agregar del modulo Maestro, sub-modulo Usuarios Empresas Externas, considerando la opcion exportar a excel   </v>
+      </c>
+      <c r="M4" s="12" t="str">
+        <f t="shared" ref="M4:M17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace Email para abrir ventana de envio de correo",""),IF(G4=1,", finalizando con la consulta mediante el filtro ",""),IF(G4=1,$G$2,"")," ",IF(H4=1,$H$2,"")," ",IF(I4=1,$I$2,"")," ",IF(J4=1,$J$2,""))</f>
+        <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton agregar, hacer clic en boton exportar a excel   </v>
+      </c>
       <c r="N4" s="7" t="s">
         <v>78</v>
       </c>
@@ -11562,8 +11698,14 @@
       <c r="K5" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="L5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en enlace Email para abrir ventada de envio de correo  Email Proceso Participa</v>
+      </c>
+      <c r="M5" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton agregar, hacer clic en enlace Email para abrir ventana de envio de correo  Email Proceso Participa</v>
+      </c>
       <c r="N5" s="7" t="s">
         <v>78</v>
       </c>
@@ -11588,8 +11730,14 @@
       <c r="K6" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="L6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Validar funcionalidad Agregar del modulo Maestro, sub-modulo Usuarios Empresas Externas, considerando la opcion exportar a excel   </v>
+      </c>
+      <c r="M6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton agregar, hacer clic en boton exportar a excel   </v>
+      </c>
       <c r="N6" s="7" t="s">
         <v>78</v>
       </c>
@@ -11616,8 +11764,14 @@
       <c r="K7" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="L7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Usuarios Empresas Externas Cargo  Proceso Participa</v>
+      </c>
+      <c r="M7" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton agregar Cargo  Proceso Participa</v>
+      </c>
       <c r="N7" s="31" t="s">
         <v>78</v>
       </c>
@@ -11643,8 +11797,14 @@
       <c r="K8" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="L8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Usuarios Empresas Externas, considerando la opcion exportar a excel, hacer clic en enlace Email para abrir ventada de envio de correo   </v>
+      </c>
+      <c r="M8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Email para abrir ventana de envio de correo   </v>
+      </c>
       <c r="N8" s="7" t="s">
         <v>79</v>
       </c>
@@ -11672,8 +11832,14 @@
       <c r="K9" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+      <c r="L9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Usuarios Empresas Externas, considerando la opcion exportar a excel, finalizando con la consulta mediante el filtro(s) Nombre  Email </v>
+      </c>
+      <c r="M9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton eliminar, hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre  Email </v>
+      </c>
       <c r="N9" s="7" t="s">
         <v>79</v>
       </c>
@@ -11700,7 +11866,14 @@
       <c r="K10" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="M10" s="12"/>
+      <c r="L10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en enlace Email para abrir ventada de envio de correo Cargo Email </v>
+      </c>
+      <c r="M10" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton eliminar, hacer clic en enlace Email para abrir ventana de envio de correo Cargo Email </v>
+      </c>
       <c r="N10" s="7" t="s">
         <v>79</v>
       </c>
@@ -11728,7 +11901,14 @@
       <c r="K11" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="M11" s="12"/>
+      <c r="L11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Usuarios Empresas Externas, considerando la opcion exportar a excel, finalizando con la consulta mediante el filtro(s) Nombre  Email </v>
+      </c>
+      <c r="M11" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton eliminar, hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre  Email </v>
+      </c>
       <c r="N11" s="7" t="s">
         <v>79</v>
       </c>
@@ -11753,7 +11933,14 @@
       <c r="K12" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="M12" s="12"/>
+      <c r="L12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Usuarios Empresas Externas, finalizando con la consulta mediante el filtro(s) Nombre   Proceso Participa</v>
+      </c>
+      <c r="M12" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton eliminar, finalizando con la consulta mediante el filtro Nombre   Proceso Participa</v>
+      </c>
       <c r="N12" s="31" t="s">
         <v>79</v>
       </c>
@@ -11778,7 +11965,14 @@
       <c r="K13" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="M13" s="12"/>
+      <c r="L13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Validar funcionalidad Modificar del modulo Maestro, sub-modulo Usuarios Empresas Externas, considerando la opcion exportar a excel, hacer clic en enlace Email para abrir ventada de envio de correo   </v>
+      </c>
+      <c r="M13" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Email para abrir ventana de envio de correo   </v>
+      </c>
       <c r="N13" s="7" t="s">
         <v>126</v>
       </c>
@@ -11801,7 +11995,14 @@
       <c r="K14" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="M14" s="12"/>
+      <c r="L14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Validar funcionalidad Modificar del modulo Maestro, sub-modulo Usuarios Empresas Externas, considerando la opcion exportar a excel   </v>
+      </c>
+      <c r="M14" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton modificar, hacer clic en boton exportar a excel   </v>
+      </c>
       <c r="N14" s="7" t="s">
         <v>126</v>
       </c>
@@ -11823,7 +12024,14 @@
       <c r="K15" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="M15" s="12"/>
+      <c r="L15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Validar funcionalidad Modificar del modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en enlace Email para abrir ventada de envio de correo   </v>
+      </c>
+      <c r="M15" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton modificar, hacer clic en enlace Email para abrir ventana de envio de correo   </v>
+      </c>
       <c r="N15" s="7" t="s">
         <v>126</v>
       </c>
@@ -11846,7 +12054,14 @@
       <c r="K16" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="M16" s="12"/>
+      <c r="L16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Validar funcionalidad Modificar del modulo Maestro, sub-modulo Usuarios Empresas Externas, considerando la opcion exportar a excel   </v>
+      </c>
+      <c r="M16" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton modificar, hacer clic en boton exportar a excel   </v>
+      </c>
       <c r="N16" s="7" t="s">
         <v>126</v>
       </c>
@@ -11866,7 +12081,14 @@
       <c r="K17" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="M17" s="12"/>
+      <c r="L17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Validar funcionalidad Modificar del modulo Maestro, sub-modulo Usuarios Empresas Externas   </v>
+      </c>
+      <c r="M17" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton modificar   </v>
+      </c>
       <c r="N17" s="31" t="s">
         <v>126</v>
       </c>
@@ -12325,8 +12547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12338,8 +12560,7 @@
     <col min="5" max="5" width="5.7109375" style="18" customWidth="1"/>
     <col min="6" max="6" width="4.42578125" customWidth="1"/>
     <col min="7" max="7" width="6.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="4.85546875" style="11" customWidth="1"/>
     <col min="10" max="10" width="51.7109375" style="6" customWidth="1"/>
     <col min="11" max="11" width="255.42578125" style="12" customWidth="1"/>
     <col min="12" max="12" width="255.42578125" style="7" customWidth="1"/>
@@ -12347,40 +12568,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="46" t="s">
+      <c r="A1" s="59" t="s">
+        <v>485</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="51" t="s">
+      <c r="F1" s="57" t="s">
+        <v>467</v>
+      </c>
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="53"/>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -12390,7 +12611,7 @@
       <c r="D2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -12398,15 +12619,15 @@
         <v>7</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+        <v>467</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -12427,19 +12648,17 @@
       <c r="H3" s="9">
         <v>1</v>
       </c>
-      <c r="I3" s="23">
-        <v>12</v>
-      </c>
+      <c r="I3" s="9"/>
       <c r="J3" s="7" t="s">
-        <v>317</v>
+        <v>469</v>
       </c>
       <c r="K3" s="12" t="str">
-        <f t="shared" ref="K3:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Segmentos",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 12</v>
+        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Tipo Procesos",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Acronimo para modificar registro",IF(G3=1,", hacer clic en enlace Acronimo para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(I3=1,$I$2,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Tipo Procesos, considerando la opcion exportar a excel, hacer clic en enlace Acronimo para modificar registro, finalizando con la consulta mediante el filtro Acronimo</v>
       </c>
       <c r="L3" s="12" t="str">
-        <f t="shared" ref="L3:L17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 12</v>
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo Procesos",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Acronimo para modificar registro",IF(G3=1,", hacer clic en enlace Acronimo para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(I3=1,$I$2,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo Procesos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Acronimo para modificar registro, finalizando con la consulta mediante el filtro Acronimo</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>78</v>
@@ -12461,22 +12680,22 @@
       <c r="G4" s="8">
         <v>1</v>
       </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="10">
-        <v>10</v>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9">
+        <v>1</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>470</v>
       </c>
       <c r="K4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 10</v>
+        <f t="shared" ref="K4:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Tipo Procesos",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Acronimo para modificar registro",IF(G4=1,", hacer clic en enlace Acronimo para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(I4=1,$I$2,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Tipo Procesos, considerando la opcion exportar a excel, hacer clic en enlace Acronimo para eliminar registroNombre Tipo
+Procesos</v>
       </c>
       <c r="L4" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 10</v>
+        <f t="shared" ref="L4:L17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo Procesos",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace Acronimo para modificar registro",IF(G4=1,", hacer clic en enlace Acronimo para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(I4=1,$I$2,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo Procesos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Acronimo para eliminar registroNombre Tipo
+Procesos</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>78</v>
@@ -12497,17 +12716,17 @@
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="7" t="s">
-        <v>234</v>
+        <v>471</v>
       </c>
       <c r="K5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Tipo Procesos, hacer clic en enlace Acronimo para modificar registro</v>
       </c>
       <c r="L5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo Procesos, hacer clic en boton agregar, hacer clic en enlace Acronimo para modificar registro</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>78</v>
@@ -12529,18 +12748,24 @@
       <c r="G6" s="8">
         <v>1</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>235</v>
+        <v>472</v>
       </c>
       <c r="K6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Tipo Procesos, considerando la opcion exportar a excel, hacer clic en enlace Acronimo para eliminar registro, finalizando con la consulta mediante el filtro AcronimoNombre Tipo
+Procesos</v>
       </c>
       <c r="L6" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo Procesos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Acronimo para eliminar registro, finalizando con la consulta mediante el filtro AcronimoNombre Tipo
+Procesos</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>78</v>
@@ -12559,17 +12784,17 @@
       <c r="F7" s="5"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="7" t="s">
-        <v>236</v>
+        <v>473</v>
       </c>
       <c r="K7" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos</v>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Tipo Procesos</v>
       </c>
       <c r="L7" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo Procesos, hacer clic en boton agregar</v>
       </c>
       <c r="M7" s="31" t="s">
         <v>78</v>
@@ -12590,22 +12815,22 @@
         <v>1</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="23">
-        <v>30</v>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9">
+        <v>1</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>474</v>
       </c>
       <c r="K8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 30</v>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Tipo Procesos, considerando la opcion exportar a excel, hacer clic en enlace Acronimo para modificar registroNombre Tipo
+Procesos</v>
       </c>
       <c r="L8" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 30</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo Procesos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Acronimo para modificar registroNombre Tipo
+Procesos</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>79</v>
@@ -12629,19 +12854,17 @@
       <c r="H9" s="9">
         <v>1</v>
       </c>
-      <c r="I9" s="10">
-        <v>5</v>
-      </c>
+      <c r="I9" s="9"/>
       <c r="J9" s="7" t="s">
-        <v>238</v>
+        <v>475</v>
       </c>
       <c r="K9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 5</v>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Tipo Procesos, considerando la opcion exportar a excel, hacer clic en enlace Acronimo para eliminar registro, finalizando con la consulta mediante el filtro Acronimo</v>
       </c>
       <c r="L9" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 5</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo Procesos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Acronimo para eliminar registro, finalizando con la consulta mediante el filtro Acronimo</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>79</v>
@@ -12659,18 +12882,24 @@
         <v>1</v>
       </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>239</v>
+        <v>476</v>
       </c>
       <c r="K10" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Tipo Procesos, hacer clic en enlace Acronimo para modificar registro, finalizando con la consulta mediante el filtro AcronimoNombre Tipo
+Procesos</v>
       </c>
       <c r="L10" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo Procesos, hacer clic en boton eliminar, hacer clic en enlace Acronimo para modificar registro, finalizando con la consulta mediante el filtro AcronimoNombre Tipo
+Procesos</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>79</v>
@@ -12692,17 +12921,17 @@
         <v>1</v>
       </c>
       <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="7" t="s">
-        <v>240</v>
+        <v>477</v>
       </c>
       <c r="K11" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Tipo Procesos, considerando la opcion exportar a excel, hacer clic en enlace Acronimo para eliminar registro</v>
       </c>
       <c r="L11" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo Procesos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Acronimo para eliminar registro</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>79</v>
@@ -12718,18 +12947,20 @@
       <c r="D12" s="8"/>
       <c r="F12" s="5"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9"/>
       <c r="J12" s="7" t="s">
-        <v>241</v>
+        <v>478</v>
       </c>
       <c r="K12" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos</v>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Tipo Procesos, finalizando con la consulta mediante el filtro Acronimo</v>
       </c>
       <c r="L12" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo Procesos, hacer clic en boton eliminar, finalizando con la consulta mediante el filtro Acronimo</v>
       </c>
       <c r="M12" s="31" t="s">
         <v>79</v>
@@ -12749,22 +12980,22 @@
         <v>1</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="23">
-        <v>2</v>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9">
+        <v>1</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>242</v>
+        <v>479</v>
       </c>
       <c r="K13" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 2</v>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Tipo Procesos, considerando la opcion exportar a excel, hacer clic en enlace Acronimo para modificar registroNombre Tipo
+Procesos</v>
       </c>
       <c r="L13" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 2</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo Procesos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Acronimo para modificar registroNombre Tipo
+Procesos</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>126</v>
@@ -12787,19 +13018,21 @@
       <c r="H14" s="9">
         <v>1</v>
       </c>
-      <c r="I14" s="10">
-        <v>3</v>
+      <c r="I14" s="9">
+        <v>1</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>243</v>
+        <v>480</v>
       </c>
       <c r="K14" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 3</v>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Tipo Procesos, considerando la opcion exportar a excel, hacer clic en enlace Acronimo para eliminar registro, finalizando con la consulta mediante el filtro AcronimoNombre Tipo
+Procesos</v>
       </c>
       <c r="L14" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 3</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo Procesos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Acronimo para eliminar registro, finalizando con la consulta mediante el filtro AcronimoNombre Tipo
+Procesos</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>126</v>
@@ -12817,17 +13050,17 @@
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="22"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="7" t="s">
-        <v>244</v>
+        <v>481</v>
       </c>
       <c r="K15" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Tipo Procesos, hacer clic en enlace Acronimo para modificar registro</v>
       </c>
       <c r="L15" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo Procesos, hacer clic en boton modificar, hacer clic en enlace Acronimo para modificar registro</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>126</v>
@@ -12847,18 +13080,20 @@
       <c r="G16" s="8">
         <v>1</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
+      <c r="H16" s="9">
+        <v>1</v>
+      </c>
+      <c r="I16" s="9"/>
       <c r="J16" s="7" t="s">
-        <v>245</v>
+        <v>482</v>
       </c>
       <c r="K16" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Tipo Procesos, considerando la opcion exportar a excel, hacer clic en enlace Acronimo para eliminar registro, finalizando con la consulta mediante el filtro Acronimo</v>
       </c>
       <c r="L16" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo Procesos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Acronimo para eliminar registro, finalizando con la consulta mediante el filtro Acronimo</v>
       </c>
       <c r="M16" s="7" t="s">
         <v>126</v>
@@ -12874,17 +13109,21 @@
       <c r="F17" s="5"/>
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
+      <c r="I17" s="9">
+        <v>1</v>
+      </c>
       <c r="J17" s="7" t="s">
-        <v>246</v>
+        <v>483</v>
       </c>
       <c r="K17" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos</v>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Tipo ProcesosNombre Tipo
+Procesos</v>
       </c>
       <c r="L17" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Tipo Procesos, hacer clic en boton modificarNombre Tipo
+Procesos</v>
       </c>
       <c r="M17" s="31" t="s">
         <v>126</v>
@@ -12898,7 +13137,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="7"/>
       <c r="K18" s="12"/>
       <c r="L18" s="7"/>
@@ -12912,7 +13151,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="7"/>
       <c r="K19" s="12"/>
       <c r="L19" s="7"/>
@@ -12926,7 +13165,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="7"/>
       <c r="K20" s="12"/>
       <c r="L20" s="7"/>
@@ -12940,7 +13179,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="7"/>
       <c r="K21" s="12"/>
       <c r="L21" s="7"/>
@@ -12954,7 +13193,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="10"/>
+      <c r="I22" s="9"/>
       <c r="J22" s="7"/>
       <c r="K22" s="12"/>
       <c r="L22" s="7"/>
@@ -12968,7 +13207,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
+      <c r="I23" s="9"/>
       <c r="J23" s="7"/>
       <c r="K23" s="12"/>
       <c r="L23" s="7"/>
@@ -12982,15 +13221,15 @@
       <c r="F24" s="5"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="10"/>
+      <c r="I24" s="9"/>
       <c r="J24" s="7" t="s">
-        <v>247</v>
+        <v>484</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>318</v>
+        <v>486</v>
       </c>
       <c r="L24" s="39" t="s">
-        <v>319</v>
+        <v>487</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>299</v>
@@ -13004,7 +13243,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="10"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="7"/>
       <c r="K25" s="12"/>
       <c r="L25" s="7"/>
@@ -13018,7 +13257,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
+      <c r="I26" s="9"/>
       <c r="J26" s="7"/>
       <c r="K26" s="12"/>
       <c r="L26" s="7"/>
@@ -13031,7 +13270,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
+      <c r="I27" s="9"/>
       <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -13041,7 +13280,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -13051,7 +13290,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="10"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -13061,7 +13300,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
-      <c r="I30" s="10"/>
+      <c r="I30" s="9"/>
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -13071,7 +13310,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="10"/>
+      <c r="I31" s="9"/>
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -13081,7 +13320,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
+      <c r="I32" s="9"/>
       <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -13091,7 +13330,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="10"/>
+      <c r="I33" s="9"/>
       <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13102,7 +13341,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
-      <c r="I34" s="10"/>
+      <c r="I34" s="9"/>
       <c r="J34" s="7"/>
       <c r="K34" s="12"/>
       <c r="L34" s="7"/>
@@ -13116,7 +13355,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="10"/>
+      <c r="I35" s="9"/>
       <c r="J35" s="7"/>
       <c r="K35" s="12"/>
       <c r="L35" s="7"/>
@@ -13130,7 +13369,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
-      <c r="I36" s="10"/>
+      <c r="I36" s="9"/>
       <c r="J36" s="7"/>
       <c r="K36" s="12"/>
       <c r="L36" s="7"/>
@@ -13144,7 +13383,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
-      <c r="I37" s="10"/>
+      <c r="I37" s="9"/>
       <c r="J37" s="7"/>
       <c r="K37" s="12"/>
       <c r="L37" s="7"/>
@@ -13158,7 +13397,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
-      <c r="I38" s="10"/>
+      <c r="I38" s="9"/>
       <c r="J38" s="7"/>
       <c r="K38" s="12"/>
       <c r="L38" s="7"/>
@@ -13172,7 +13411,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
-      <c r="I39" s="10"/>
+      <c r="I39" s="9"/>
       <c r="J39" s="7"/>
       <c r="K39" s="12"/>
       <c r="L39" s="7"/>
@@ -13185,7 +13424,7 @@
       <c r="F40" s="5"/>
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
-      <c r="I40" s="10"/>
+      <c r="I40" s="9"/>
       <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -13195,7 +13434,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
-      <c r="I41" s="10"/>
+      <c r="I41" s="9"/>
       <c r="J41" s="7"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -13205,7 +13444,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="8"/>
       <c r="H42" s="9"/>
-      <c r="I42" s="10"/>
+      <c r="I42" s="9"/>
       <c r="J42" s="7"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -13215,7 +13454,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="8"/>
       <c r="H43" s="9"/>
-      <c r="I43" s="10"/>
+      <c r="I43" s="9"/>
       <c r="J43" s="7"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -13225,7 +13464,7 @@
       <c r="F44" s="5"/>
       <c r="G44" s="8"/>
       <c r="H44" s="9"/>
-      <c r="I44" s="10"/>
+      <c r="I44" s="9"/>
       <c r="J44" s="7"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -13235,7 +13474,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="8"/>
       <c r="H45" s="9"/>
-      <c r="I45" s="10"/>
+      <c r="I45" s="9"/>
       <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -13245,7 +13484,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="8"/>
       <c r="H46" s="9"/>
-      <c r="I46" s="10"/>
+      <c r="I46" s="9"/>
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -13255,7 +13494,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="8"/>
       <c r="H47" s="9"/>
-      <c r="I47" s="10"/>
+      <c r="I47" s="9"/>
       <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -13265,7 +13504,7 @@
       <c r="F48" s="5"/>
       <c r="G48" s="8"/>
       <c r="H48" s="9"/>
-      <c r="I48" s="10"/>
+      <c r="I48" s="9"/>
       <c r="J48" s="7"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -13275,7 +13514,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="8"/>
       <c r="H49" s="9"/>
-      <c r="I49" s="10"/>
+      <c r="I49" s="9"/>
       <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13286,7 +13525,7 @@
       <c r="F50" s="5"/>
       <c r="G50" s="8"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="10"/>
+      <c r="I50" s="9"/>
       <c r="J50" s="7"/>
       <c r="K50" s="12"/>
       <c r="L50" s="7"/>
@@ -13338,45 +13577,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="55" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="56" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="51" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="42" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="42" t="s">
+      <c r="O1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -13386,7 +13625,7 @@
       <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -13408,10 +13647,10 @@
       <c r="L2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -14482,16 +14721,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14502,8 +14741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14524,40 +14763,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="46" t="s">
+      <c r="A1" s="59" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="51" t="s">
+      <c r="F1" s="57" t="s">
+        <v>488</v>
+      </c>
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="42" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -14567,7 +14806,7 @@
       <c r="D2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -14575,15 +14814,15 @@
         <v>7</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>45</v>
+        <v>488</v>
       </c>
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -14604,19 +14843,19 @@
       <c r="H3" s="9">
         <v>1</v>
       </c>
-      <c r="I3" s="23">
-        <v>12</v>
+      <c r="I3" s="23" t="s">
+        <v>489</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>317</v>
+        <v>492</v>
       </c>
       <c r="K3" s="12" t="str">
-        <f t="shared" ref="K3:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Segmentos",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 12</v>
+        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo CIA GPS",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace CIA GPS para modificar registro",IF(G3=1,", hacer clic en enlace CIA GPS para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo CIA GPS, considerando la opcion exportar a excel, hacer clic en enlace CIA GPS para modificar registro, finalizando con la consulta mediante el filtro CIA GPS con el dato Safecar</v>
       </c>
       <c r="L3" s="12" t="str">
-        <f t="shared" ref="L3:L17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 12</v>
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo CIA GPS",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace CIA GPS para modificar registro",IF(G3=1,", hacer clic en enlace CIA GPS para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo CIA GPS, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace CIA GPS para modificar registro, finalizando con la consulta mediante el filtro CIA GPS con el dato Safecar</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>78</v>
@@ -14641,19 +14880,19 @@
       <c r="H4" s="9">
         <v>1</v>
       </c>
-      <c r="I4" s="10">
-        <v>10</v>
+      <c r="I4" s="23" t="s">
+        <v>371</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>493</v>
       </c>
       <c r="K4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 10</v>
+        <f t="shared" ref="K4:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo CIA GPS",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace CIA GPS para modificar registro",IF(G4=1,", hacer clic en enlace CIA GPS para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo CIA GPS, considerando la opcion exportar a excel, hacer clic en enlace CIA GPS para eliminar registro, finalizando con la consulta mediante el filtro CIA GPS con el dato Global</v>
       </c>
       <c r="L4" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 10</v>
+        <f t="shared" ref="L4:L17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo CIA GPS",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace CIA GPS para modificar registro",IF(G4=1,", hacer clic en enlace CIA GPS para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo CIA GPS, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace CIA GPS para eliminar registro, finalizando con la consulta mediante el filtro CIA GPS con el dato Global</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>78</v>
@@ -14676,15 +14915,15 @@
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
       <c r="J5" s="7" t="s">
-        <v>234</v>
+        <v>494</v>
       </c>
       <c r="K5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo CIA GPS, hacer clic en enlace CIA GPS para modificar registro</v>
       </c>
       <c r="L5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo CIA GPS, hacer clic en boton agregar, hacer clic en enlace CIA GPS para modificar registro</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>78</v>
@@ -14709,15 +14948,15 @@
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
       <c r="J6" s="7" t="s">
-        <v>235</v>
+        <v>495</v>
       </c>
       <c r="K6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo CIA GPS, considerando la opcion exportar a excel, hacer clic en enlace CIA GPS para eliminar registro</v>
       </c>
       <c r="L6" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo CIA GPS, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace CIA GPS para eliminar registro</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>78</v>
@@ -14738,15 +14977,15 @@
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="7" t="s">
-        <v>236</v>
+        <v>496</v>
       </c>
       <c r="K7" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos</v>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo CIA GPS</v>
       </c>
       <c r="L7" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo CIA GPS, hacer clic en boton agregar</v>
       </c>
       <c r="M7" s="31" t="s">
         <v>78</v>
@@ -14770,19 +15009,19 @@
       <c r="H8" s="9">
         <v>1</v>
       </c>
-      <c r="I8" s="23">
-        <v>30</v>
+      <c r="I8" s="23" t="s">
+        <v>490</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>497</v>
       </c>
       <c r="K8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 30</v>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo CIA GPS, considerando la opcion exportar a excel, hacer clic en enlace CIA GPS para modificar registro, finalizando con la consulta mediante el filtro CIA GPS con el dato I-GPS</v>
       </c>
       <c r="L8" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 30</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo CIA GPS, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace CIA GPS para modificar registro, finalizando con la consulta mediante el filtro CIA GPS con el dato I-GPS</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>79</v>
@@ -14810,15 +15049,15 @@
         <v>5</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>238</v>
+        <v>498</v>
       </c>
       <c r="K9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 5</v>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo CIA GPS, considerando la opcion exportar a excel, hacer clic en enlace CIA GPS para eliminar registro, finalizando con la consulta mediante el filtro CIA GPS con el dato 5</v>
       </c>
       <c r="L9" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 5</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo CIA GPS, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace CIA GPS para eliminar registro, finalizando con la consulta mediante el filtro CIA GPS con el dato 5</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>79</v>
@@ -14839,15 +15078,15 @@
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
       <c r="J10" s="7" t="s">
-        <v>239</v>
+        <v>499</v>
       </c>
       <c r="K10" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo CIA GPS, hacer clic en enlace CIA GPS para modificar registro</v>
       </c>
       <c r="L10" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo CIA GPS, hacer clic en boton eliminar, hacer clic en enlace CIA GPS para modificar registro</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>79</v>
@@ -14871,15 +15110,15 @@
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
       <c r="J11" s="7" t="s">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K11" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo CIA GPS, considerando la opcion exportar a excel, hacer clic en enlace CIA GPS para eliminar registro</v>
       </c>
       <c r="L11" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo CIA GPS, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace CIA GPS para eliminar registro</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>79</v>
@@ -14898,15 +15137,15 @@
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
       <c r="J12" s="7" t="s">
-        <v>241</v>
+        <v>501</v>
       </c>
       <c r="K12" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos</v>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo CIA GPS</v>
       </c>
       <c r="L12" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo CIA GPS, hacer clic en boton eliminar</v>
       </c>
       <c r="M12" s="31" t="s">
         <v>79</v>
@@ -14929,19 +15168,19 @@
       <c r="H13" s="9">
         <v>1</v>
       </c>
-      <c r="I13" s="23">
-        <v>2</v>
+      <c r="I13" s="23" t="s">
+        <v>491</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>242</v>
+        <v>502</v>
       </c>
       <c r="K13" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 2</v>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo CIA GPS, considerando la opcion exportar a excel, hacer clic en enlace CIA GPS para modificar registro, finalizando con la consulta mediante el filtro CIA GPS con el dato LoJack</v>
       </c>
       <c r="L13" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 2</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo CIA GPS, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace CIA GPS para modificar registro, finalizando con la consulta mediante el filtro CIA GPS con el dato LoJack</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>126</v>
@@ -14964,19 +15203,19 @@
       <c r="H14" s="9">
         <v>1</v>
       </c>
-      <c r="I14" s="10">
-        <v>3</v>
+      <c r="I14" s="23" t="s">
+        <v>372</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>243</v>
+        <v>503</v>
       </c>
       <c r="K14" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 3</v>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo CIA GPS, considerando la opcion exportar a excel, hacer clic en enlace CIA GPS para eliminar registro, finalizando con la consulta mediante el filtro CIA GPS con el dato Registro</v>
       </c>
       <c r="L14" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 3</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo CIA GPS, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace CIA GPS para eliminar registro, finalizando con la consulta mediante el filtro CIA GPS con el dato Registro</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>126</v>
@@ -14996,15 +15235,15 @@
       <c r="H15" s="9"/>
       <c r="I15" s="22"/>
       <c r="J15" s="7" t="s">
-        <v>244</v>
+        <v>504</v>
       </c>
       <c r="K15" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo CIA GPS, hacer clic en enlace CIA GPS para modificar registro</v>
       </c>
       <c r="L15" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en enlace Descripción para modificar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo CIA GPS, hacer clic en boton modificar, hacer clic en enlace CIA GPS para modificar registro</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>126</v>
@@ -15027,15 +15266,15 @@
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
       <c r="J16" s="7" t="s">
-        <v>245</v>
+        <v>505</v>
       </c>
       <c r="K16" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo CIA GPS, considerando la opcion exportar a excel, hacer clic en enlace CIA GPS para eliminar registro</v>
       </c>
       <c r="L16" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo CIA GPS, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace CIA GPS para eliminar registro</v>
       </c>
       <c r="M16" s="7" t="s">
         <v>126</v>
@@ -15053,15 +15292,15 @@
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
       <c r="J17" s="7" t="s">
-        <v>246</v>
+        <v>506</v>
       </c>
       <c r="K17" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos</v>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo CIA GPS</v>
       </c>
       <c r="L17" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar</v>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo CIA GPS, hacer clic en boton modificar</v>
       </c>
       <c r="M17" s="31" t="s">
         <v>126</v>
@@ -15161,13 +15400,13 @@
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
       <c r="J24" s="7" t="s">
-        <v>247</v>
+        <v>507</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>318</v>
+        <v>508</v>
       </c>
       <c r="L24" s="39" t="s">
-        <v>319</v>
+        <v>509</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>299</v>
@@ -15482,6 +15721,7 @@
     <mergeCell ref="J1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15511,40 +15751,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="51" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="42" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -15554,7 +15794,7 @@
       <c r="D2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -15567,10 +15807,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -16494,34 +16734,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>373</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="51" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="42" t="s">
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>374</v>
       </c>
@@ -16540,10 +16780,10 @@
       <c r="G2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -17234,41 +17474,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="51" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="42" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="42" t="s">
+      <c r="M1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -17278,7 +17518,7 @@
       <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -17294,10 +17534,10 @@
       <c r="J2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -18290,44 +18530,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="57" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="55" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="42" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="42" t="s">
+      <c r="P1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -18349,7 +18589,7 @@
       <c r="H2" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="43"/>
+      <c r="I2" s="44"/>
       <c r="J2" s="20" t="s">
         <v>39</v>
       </c>
@@ -18362,10 +18602,10 @@
       <c r="M2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -19462,42 +19702,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="51" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="42" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="42" t="s">
+      <c r="N1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -19507,7 +19747,7 @@
       <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -19526,10 +19766,10 @@
       <c r="K2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -20568,47 +20808,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="51" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="42" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="42" t="s">
+      <c r="S1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="14" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -20618,7 +20858,7 @@
       <c r="D2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -20652,10 +20892,10 @@
       <c r="P2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -21950,40 +22190,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="51" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="42" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -21993,7 +22233,7 @@
       <c r="D2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -22006,10 +22246,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -22938,40 +23178,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="51" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="42" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -22981,7 +23221,7 @@
       <c r="D2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -22994,10 +23234,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -23926,41 +24166,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="51" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="42" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="42" t="s">
+      <c r="M1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -23970,7 +24210,7 @@
       <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -23986,10 +24226,10 @@
       <c r="J2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">

--- a/Maestros.xlsx
+++ b/Maestros.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="16" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="5" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Banco" sheetId="15" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="531">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -1584,6 +1584,69 @@
   </si>
   <si>
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo CIA GPS, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
+  </si>
+  <si>
+    <t>TC_Cartera_DocumentosProveedor_AgregarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_DocumentosProveedor_AgregarDescripcion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_DocumentosProveedor_AgregarEnlaceModificar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_DocumentosProveedor_AgregarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_DocumentosProveedor_Agregar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_DocumentosProveedor_EliminarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_DocumentosProveedor_EliminarDescripcion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_DocumentosProveedor_EliminarSinExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_DocumentosProveedor_EliminarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_DocumentosProveedor_Eliminar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_DocumentosProveedor_ModificarConsulta</t>
+  </si>
+  <si>
+    <t>TC_Cartera_DocumentosProveedor_ModificarEnlace</t>
+  </si>
+  <si>
+    <t>TC_Cartera_DocumentosProveedor_ModificarDescripcion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_DocumentosProveedor_ModificarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_DocumentosProveedor_Modificar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_DocumentosProveedor_ConsolidadoError</t>
+  </si>
+  <si>
+    <t>Documentos por Proveedor</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Documentos por Proveedor, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Documentos por Proveedor, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
+  </si>
+  <si>
+    <t>Proveedor</t>
+  </si>
+  <si>
+    <t>Ubicacion Fisica</t>
   </si>
 </sst>
 </file>
@@ -1722,7 +1785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1831,6 +1894,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2213,41 +2279,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="43" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="43" t="s">
+      <c r="M1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
@@ -2257,7 +2323,7 @@
       <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="51"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="14" t="s">
         <v>8</v>
       </c>
@@ -2273,10 +2339,10 @@
       <c r="J2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -3444,40 +3510,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="43" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="43" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="43" t="s">
+      <c r="L1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -3487,7 +3553,7 @@
       <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -3500,10 +3566,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -4432,41 +4498,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="43" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="43" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="43" t="s">
+      <c r="M1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -4476,7 +4542,7 @@
       <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -4492,10 +4558,10 @@
       <c r="J2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -5472,40 +5538,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="43" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="43" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="43" t="s">
+      <c r="L1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -5515,7 +5581,7 @@
       <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -5528,10 +5594,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -6460,40 +6526,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="43" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="43" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="43" t="s">
+      <c r="L1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -6503,7 +6569,7 @@
       <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -6516,10 +6582,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -7447,40 +7513,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="43" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="43" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="43" t="s">
+      <c r="L1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -7490,7 +7556,7 @@
       <c r="D2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -7503,10 +7569,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -8434,40 +8500,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="43" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>378</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="43" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="43" t="s">
+      <c r="L1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -8477,7 +8543,7 @@
       <c r="D2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -8490,10 +8556,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -9424,44 +9490,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>346</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="56" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>365</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="57" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="58" t="s">
         <v>366</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="52" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="54"/>
-      <c r="L1" s="43" t="s">
+      <c r="K1" s="55"/>
+      <c r="L1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="43" t="s">
+      <c r="N1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -9471,7 +9537,7 @@
       <c r="D2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -9490,10 +9556,10 @@
       <c r="K2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -10554,40 +10620,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="43" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="43" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="43" t="s">
+      <c r="L1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -10597,7 +10663,7 @@
       <c r="D2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -10610,10 +10676,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -11539,41 +11605,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>456</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="43" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="44" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="42" t="s">
         <v>381</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="43" t="s">
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="43" t="s">
+      <c r="M1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -11583,7 +11649,7 @@
       <c r="D2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="40" t="s">
         <v>461</v>
       </c>
@@ -11599,10 +11665,10 @@
       <c r="J2" s="20" t="s">
         <v>460</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -12568,40 +12634,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="43" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>467</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="43" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="43" t="s">
+      <c r="L1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -12611,7 +12677,7 @@
       <c r="D2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -12624,10 +12690,10 @@
       <c r="I2" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -13577,45 +13643,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="56" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="57" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="52" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="43" t="s">
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="43" t="s">
+      <c r="O1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -13625,7 +13691,7 @@
       <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -13647,10 +13713,10 @@
       <c r="L2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -14721,16 +14787,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14741,7 +14807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="L3" sqref="L3:L17"/>
     </sheetView>
   </sheetViews>
@@ -14763,40 +14829,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>488</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="43" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>488</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="43" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="43" t="s">
+      <c r="L1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -14806,7 +14872,7 @@
       <c r="D2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -14819,10 +14885,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -15727,10 +15793,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15742,49 +15808,50 @@
     <col min="5" max="5" width="5.7109375" style="18" customWidth="1"/>
     <col min="6" max="6" width="4.42578125" customWidth="1"/>
     <col min="7" max="7" width="6.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="51.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="255.42578125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="255.42578125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="79" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.85546875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="58.7109375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="255.42578125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="255.42578125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="79" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="47" t="s">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="60" t="s">
+        <v>526</v>
+      </c>
+      <c r="B1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="43" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="53" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="54"/>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="55"/>
+      <c r="K1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="L1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -15794,7 +15861,7 @@
       <c r="D2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -15804,15 +15871,18 @@
       <c r="H2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -15831,25 +15901,24 @@
       <c r="H3" s="9">
         <v>1</v>
       </c>
-      <c r="I3" s="23">
-        <v>12</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K3" s="12" t="str">
-        <f t="shared" ref="K3:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Segmentos",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 12</v>
+      <c r="I3" s="9"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="7" t="s">
+        <v>510</v>
       </c>
       <c r="L3" s="12" t="str">
-        <f t="shared" ref="L3:L17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 12</v>
-      </c>
-      <c r="M3" s="7" t="s">
+        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Documentos por Proveedor",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
+        <v xml:space="preserve">Validar funcionalidad Agregar del modulo Maestro, sub-modulo Documentos por Proveedor, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato </v>
+      </c>
+      <c r="M3" s="12" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Documentos por Proveedor",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
+        <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Documentos por Proveedor, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato </v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -15865,28 +15934,21 @@
       <c r="G4" s="8">
         <v>1</v>
       </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="10">
-        <v>10</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="K4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 10</v>
-      </c>
-      <c r="L4" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 10</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -15901,23 +15963,20 @@
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="K5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="L5" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="M5" s="7" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="10">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -15934,23 +15993,18 @@
         <v>1</v>
       </c>
       <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="K6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="L6" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="M6" s="7" t="s">
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -15962,24 +16016,25 @@
       <c r="E7" s="18"/>
       <c r="F7" s="5"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos</v>
-      </c>
-      <c r="L7" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar</v>
-      </c>
-      <c r="M7" s="31" t="s">
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="31" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>1</v>
       </c>
@@ -15994,28 +16049,19 @@
         <v>1</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="23">
-        <v>30</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="K8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 30</v>
-      </c>
-      <c r="L8" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 30</v>
-      </c>
-      <c r="M8" s="7" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1</v>
       </c>
@@ -16030,28 +16076,21 @@
       <c r="G9" s="8">
         <v>1</v>
       </c>
-      <c r="H9" s="9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10">
-        <v>5</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="K9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 5</v>
-      </c>
-      <c r="L9" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 5</v>
-      </c>
-      <c r="M9" s="7" t="s">
+      <c r="H9" s="9"/>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1</v>
       </c>
@@ -16064,23 +16103,19 @@
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="L10" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="M10" s="7" t="s">
+      <c r="I10" s="9"/>
+      <c r="J10" s="10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>1</v>
       </c>
@@ -16095,24 +16130,20 @@
       <c r="G11" s="8">
         <v>1</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="K11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="L11" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="M11" s="7" t="s">
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="M11" s="12"/>
+      <c r="N11" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>1</v>
       </c>
@@ -16123,23 +16154,17 @@
       <c r="F12" s="5"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos</v>
-      </c>
-      <c r="L12" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar</v>
-      </c>
-      <c r="M12" s="31" t="s">
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>1</v>
       </c>
@@ -16153,28 +16178,20 @@
         <v>1</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="23">
-        <v>2</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="K13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 2</v>
-      </c>
-      <c r="L13" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 2</v>
-      </c>
-      <c r="M13" s="7" t="s">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="23">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -16188,28 +16205,20 @@
       <c r="G14" s="8">
         <v>1</v>
       </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10">
-        <v>3</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 3</v>
-      </c>
-      <c r="L14" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 3</v>
-      </c>
-      <c r="M14" s="7" t="s">
+      <c r="H14" s="9"/>
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>1</v>
       </c>
@@ -16220,24 +16229,20 @@
         <v>1</v>
       </c>
       <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="K15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="L15" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="M15" s="7" t="s">
+      <c r="H15" s="9">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>1</v>
       </c>
@@ -16252,23 +16257,17 @@
         <v>1</v>
       </c>
       <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="K16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="L16" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="M16" s="7" t="s">
+      <c r="I16" s="9"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>1</v>
       </c>
@@ -16277,24 +16276,24 @@
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="K17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos</v>
-      </c>
-      <c r="L17" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar</v>
-      </c>
-      <c r="M17" s="31" t="s">
+      <c r="H17" s="9">
+        <v>1</v>
+      </c>
+      <c r="I17" s="9">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="31" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="C18" s="5"/>
       <c r="D18" s="8"/>
@@ -16302,13 +16301,14 @@
       <c r="F18" s="5"/>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="7"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="12"/>
       <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="5"/>
       <c r="D19" s="5"/>
@@ -16316,13 +16316,14 @@
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="7"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="12"/>
       <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
       <c r="D20" s="5"/>
@@ -16330,13 +16331,14 @@
       <c r="F20" s="5"/>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="7"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="12"/>
       <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="5"/>
       <c r="D21" s="5"/>
@@ -16344,13 +16346,14 @@
       <c r="F21" s="5"/>
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="7"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="12"/>
       <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="5"/>
       <c r="D22" s="5"/>
@@ -16358,13 +16361,14 @@
       <c r="F22" s="5"/>
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="7"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="12"/>
       <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
       <c r="D23" s="5"/>
@@ -16372,13 +16376,14 @@
       <c r="F23" s="5"/>
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="7"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="12"/>
       <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
       <c r="D24" s="5"/>
@@ -16386,21 +16391,22 @@
       <c r="F24" s="5"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="L24" s="39" t="s">
-        <v>319</v>
-      </c>
-      <c r="M24" s="7" t="s">
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="M24" s="39" t="s">
+        <v>528</v>
+      </c>
+      <c r="N24" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
       <c r="D25" s="5"/>
@@ -16408,13 +16414,14 @@
       <c r="F25" s="5"/>
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="7"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="12"/>
       <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="5"/>
       <c r="D26" s="5"/>
@@ -16422,83 +16429,91 @@
       <c r="F26" s="5"/>
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="7"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="12"/>
       <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="C27" s="5"/>
       <c r="D27" s="8"/>
       <c r="F27" s="5"/>
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I27" s="9"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="C28" s="5"/>
       <c r="D28" s="8"/>
       <c r="F28" s="5"/>
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I28" s="9"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="C29" s="5"/>
       <c r="D29" s="8"/>
       <c r="F29" s="5"/>
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I29" s="9"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="C30" s="5"/>
       <c r="D30" s="8"/>
       <c r="F30" s="5"/>
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I30" s="9"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="C31" s="5"/>
       <c r="D31" s="8"/>
       <c r="F31" s="5"/>
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I31" s="9"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="C32" s="5"/>
       <c r="D32" s="8"/>
       <c r="F32" s="5"/>
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I32" s="9"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="C33" s="5"/>
       <c r="D33" s="8"/>
       <c r="F33" s="5"/>
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="9"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="C34" s="5"/>
       <c r="D34" s="8"/>
@@ -16506,13 +16521,14 @@
       <c r="F34" s="5"/>
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="7"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="12"/>
       <c r="M34" s="7"/>
-    </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N34" s="7"/>
+    </row>
+    <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="C35" s="5"/>
       <c r="D35" s="8"/>
@@ -16520,13 +16536,14 @@
       <c r="F35" s="5"/>
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="7"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="12"/>
       <c r="M35" s="7"/>
-    </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N35" s="7"/>
+    </row>
+    <row r="36" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="C36" s="5"/>
       <c r="D36" s="8"/>
@@ -16534,13 +16551,14 @@
       <c r="F36" s="5"/>
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="7"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="12"/>
       <c r="M36" s="7"/>
-    </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N36" s="7"/>
+    </row>
+    <row r="37" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="C37" s="5"/>
       <c r="D37" s="8"/>
@@ -16548,13 +16566,14 @@
       <c r="F37" s="5"/>
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="7"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="12"/>
       <c r="M37" s="7"/>
-    </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N37" s="7"/>
+    </row>
+    <row r="38" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="C38" s="5"/>
       <c r="D38" s="8"/>
@@ -16562,13 +16581,14 @@
       <c r="F38" s="5"/>
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="7"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="12"/>
       <c r="M38" s="7"/>
-    </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N38" s="7"/>
+    </row>
+    <row r="39" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="C39" s="5"/>
       <c r="D39" s="8"/>
@@ -16576,113 +16596,124 @@
       <c r="F39" s="5"/>
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="7"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="12"/>
       <c r="M39" s="7"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="C40" s="5"/>
       <c r="D40" s="8"/>
       <c r="F40" s="5"/>
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="7"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I40" s="9"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="C41" s="5"/>
       <c r="D41" s="8"/>
       <c r="F41" s="5"/>
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="7"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I41" s="9"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="C42" s="5"/>
       <c r="D42" s="8"/>
       <c r="F42" s="5"/>
       <c r="G42" s="8"/>
       <c r="H42" s="9"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="7"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I42" s="9"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="C43" s="5"/>
       <c r="D43" s="8"/>
       <c r="F43" s="5"/>
       <c r="G43" s="8"/>
       <c r="H43" s="9"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="7"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I43" s="9"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="C44" s="5"/>
       <c r="D44" s="8"/>
       <c r="F44" s="5"/>
       <c r="G44" s="8"/>
       <c r="H44" s="9"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="7"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I44" s="9"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="7"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="C45" s="5"/>
       <c r="D45" s="8"/>
       <c r="F45" s="5"/>
       <c r="G45" s="8"/>
       <c r="H45" s="9"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="7"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I45" s="9"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="C46" s="5"/>
       <c r="D46" s="8"/>
       <c r="F46" s="5"/>
       <c r="G46" s="8"/>
       <c r="H46" s="9"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="7"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I46" s="9"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="C47" s="5"/>
       <c r="D47" s="8"/>
       <c r="F47" s="5"/>
       <c r="G47" s="8"/>
       <c r="H47" s="9"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="7"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I47" s="9"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="7"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="C48" s="5"/>
       <c r="D48" s="8"/>
       <c r="F48" s="5"/>
       <c r="G48" s="8"/>
       <c r="H48" s="9"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="7"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I48" s="9"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="C49" s="5"/>
       <c r="D49" s="8"/>
       <c r="F49" s="5"/>
       <c r="G49" s="8"/>
       <c r="H49" s="9"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="7"/>
-    </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="9"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="C50" s="5"/>
       <c r="D50" s="8"/>
@@ -16690,23 +16721,24 @@
       <c r="F50" s="5"/>
       <c r="G50" s="8"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="7"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="12"/>
       <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16714,10 +16746,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16725,67 +16757,70 @@
     <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" style="3" customWidth="1"/>
-    <col min="4" max="6" width="4.85546875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="51.7109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="255.42578125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="255.42578125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="79" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="3" customWidth="1"/>
+    <col min="6" max="8" width="4.85546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="51.7109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="255.42578125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="255.42578125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="79" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="60" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>373</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="52" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="59" t="s">
+        <v>530</v>
+      </c>
+      <c r="E1" s="50"/>
+      <c r="F1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
       <c r="G1" s="54"/>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="54"/>
+      <c r="I1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="J1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:12" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47"/>
       <c r="B2" s="21" t="s">
         <v>374</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>375</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -16793,18 +16828,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="I3" s="12"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="12"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -16812,18 +16848,19 @@
       <c r="C4" s="8">
         <v>1</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="12"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -16831,18 +16868,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="I5" s="12"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="12"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -16850,35 +16888,37 @@
       <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="12"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="I7" s="12"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="12"/>
+      <c r="L7" s="31"/>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>1</v>
       </c>
@@ -16886,18 +16926,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="I8" s="12"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="12"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1</v>
       </c>
@@ -16905,18 +16946,19 @@
       <c r="C9" s="8">
         <v>1</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="I9" s="12"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="12"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1</v>
       </c>
@@ -16924,16 +16966,17 @@
         <v>1</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="7" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>1</v>
       </c>
@@ -16941,32 +16984,34 @@
       <c r="C11" s="8">
         <v>1</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="7" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>1</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="12"/>
+      <c r="L12" s="31"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>1</v>
       </c>
@@ -16974,16 +17019,17 @@
         <v>1</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="7" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -16991,16 +17037,17 @@
       <c r="C14" s="8">
         <v>1</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="7" t="s">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>1</v>
       </c>
@@ -17008,16 +17055,17 @@
         <v>1</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="7" t="s">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>1</v>
       </c>
@@ -17025,422 +17073,458 @@
       <c r="C16" s="8">
         <v>1</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="7" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>1</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="7" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="31"/>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="12"/>
+      <c r="L17" s="31"/>
+    </row>
+    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="5"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="7"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="12"/>
       <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="5"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="7"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="12"/>
       <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="7"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="5"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="7"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="5"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="7"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="12"/>
       <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="7"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="12"/>
       <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="7" t="s">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="7" t="s">
+      <c r="J24" s="12"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="7"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="12"/>
       <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="5"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="7"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="12"/>
       <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="5"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="5"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="8"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="5"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="8"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="5"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="5"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="5"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="8"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="5"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="5"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="7"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="12"/>
       <c r="K34" s="7"/>
-    </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="5"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="7"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="12"/>
       <c r="K35" s="7"/>
-    </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="5"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="7"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="12"/>
       <c r="K36" s="7"/>
-    </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="5"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="7"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="12"/>
       <c r="K37" s="7"/>
-    </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="5"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="7"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="12"/>
       <c r="K38" s="7"/>
-    </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="5"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="8"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="7"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="12"/>
       <c r="K39" s="7"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="5"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="8"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="5"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="8"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="5"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="8"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="5"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="8"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="5"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="8"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="5"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="8"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="5"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="8"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="5"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="8"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="5"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="8"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="5"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="8"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="5"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="8"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="7"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="12"/>
       <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="I1:I2"/>
+  <mergeCells count="8">
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17474,41 +17558,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="43" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="43" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="43" t="s">
+      <c r="M1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -17518,7 +17602,7 @@
       <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -17534,10 +17618,10 @@
       <c r="J2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -18530,44 +18614,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="58" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="56" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="43" t="s">
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="43" t="s">
+      <c r="P1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -18589,7 +18673,7 @@
       <c r="H2" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="44"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="20" t="s">
         <v>39</v>
       </c>
@@ -18602,10 +18686,10 @@
       <c r="M2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -19702,42 +19786,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="43" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="43" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="43" t="s">
+      <c r="N1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -19747,7 +19831,7 @@
       <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -19766,10 +19850,10 @@
       <c r="K2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -20808,47 +20892,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="43" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="43" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="43" t="s">
+      <c r="S1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="14" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -20858,7 +20942,7 @@
       <c r="D2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -20892,10 +20976,10 @@
       <c r="P2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -22190,40 +22274,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="43" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="43" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="43" t="s">
+      <c r="L1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -22233,7 +22317,7 @@
       <c r="D2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -22246,10 +22330,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -23178,40 +23262,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="43" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="43" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="43" t="s">
+      <c r="L1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -23221,7 +23305,7 @@
       <c r="D2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -23234,10 +23318,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -24166,41 +24250,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="43" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="43" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="43" t="s">
+      <c r="M1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -24210,7 +24294,7 @@
       <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -24226,10 +24310,10 @@
       <c r="J2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">

--- a/Maestros.xlsx
+++ b/Maestros.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="5" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="17" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Banco" sheetId="15" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="518">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -1173,22 +1173,6 @@
     <t>Registro</t>
   </si>
   <si>
-    <t>Recompra
-Descripcion</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Carta guía</t>
-  </si>
-  <si>
-    <t>Nomina</t>
-  </si>
-  <si>
-    <t>Ubicación Fisica</t>
-  </si>
-  <si>
     <t>Tipo Gestion</t>
   </si>
   <si>
@@ -1265,54 +1249,6 @@
   </si>
   <si>
     <t>TC_Cartera_TipoGestion_Modificar</t>
-  </si>
-  <si>
-    <t>Motivo Recompra</t>
-  </si>
-  <si>
-    <t>TC_Cartera_MotivoRecompra_AgregarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_MotivoRecompra_AgregarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_MotivoRecompra_AgregarEnlaceModificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_MotivoRecompra_AgregarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_MotivoRecompra_Agregar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_MotivoRecompra_EliminarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_MotivoRecompra_EliminarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_MotivoRecompra_EliminarSinExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_MotivoRecompra_EliminarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_MotivoRecompra_Eliminar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_MotivoRecompra_ModificarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_MotivoRecompra_ModificarEnlace</t>
-  </si>
-  <si>
-    <t>TC_Cartera_MotivoRecompra_ModificarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_MotivoRecompra_ModificarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_MotivoRecompra_Modificar</t>
   </si>
   <si>
     <t>TC_Cartera_MotivoRecompra_ConsolidadoError</t>
@@ -1646,7 +1582,31 @@
     <t>Proveedor</t>
   </si>
   <si>
-    <t>Ubicacion Fisica</t>
+    <t>TC_Cartera_MotivoRecompra_ConsultaGeneral</t>
+  </si>
+  <si>
+    <t>TC_Cartera_MotivoRecompra_CartaGuiaAgregar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_MotivoRecompra_CartaGuiaModificar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_MotivoRecompra_CartaGuiaEliminar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_MotivoRecompra_ConsultaCartaGuiaNomina</t>
+  </si>
+  <si>
+    <t>TC_Cartera_MotivoRecompra_RegistroUbicacionPagare</t>
+  </si>
+  <si>
+    <t>TC_Cartera_MotivoRecompra_RegistroUbicacionFisica</t>
+  </si>
+  <si>
+    <t>TC_Cartera_MotivoRecompra_MotivoTraslado</t>
+  </si>
+  <si>
+    <t>Validar</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1894,9 +1854,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2279,41 +2236,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="53" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="44" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="44" t="s">
+      <c r="M1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
@@ -2323,7 +2280,7 @@
       <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="52"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="14" t="s">
         <v>8</v>
       </c>
@@ -2339,10 +2296,10 @@
       <c r="J2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -3510,40 +3467,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="53" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="44" t="s">
+      <c r="L1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -3553,7 +3510,7 @@
       <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -3566,10 +3523,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -4498,41 +4455,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="53" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="44" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="44" t="s">
+      <c r="M1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -4542,7 +4499,7 @@
       <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -4558,10 +4515,10 @@
       <c r="J2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -5538,40 +5495,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="53" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="44" t="s">
+      <c r="L1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -5581,7 +5538,7 @@
       <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -5594,10 +5551,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -6526,40 +6483,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="53" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="44" t="s">
+      <c r="L1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -6569,7 +6526,7 @@
       <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -6582,10 +6539,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -7513,40 +7470,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="53" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="44" t="s">
+      <c r="L1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -7556,7 +7513,7 @@
       <c r="D2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -7569,10 +7526,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -8500,40 +8457,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="B1" s="48" t="s">
+      <c r="A1" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="58" t="s">
-        <v>378</v>
-      </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="53" t="s">
+      <c r="F1" s="57" t="s">
+        <v>373</v>
+      </c>
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="44" t="s">
+      <c r="L1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -8543,7 +8500,7 @@
       <c r="D2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -8551,15 +8508,15 @@
         <v>7</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -8581,10 +8538,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="K3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Tipo de Gestion",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Tipo gestion para modificar registro",IF(G3=1,", hacer clic en enlace Tipo Gestion para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
@@ -8618,10 +8575,10 @@
         <v>1</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="K4" s="12" t="str">
         <f t="shared" ref="K4:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Tipo de Gestion",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Tipo gestion para modificar registro",IF(G4=1,", hacer clic en enlace Tipo Gestion para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
@@ -8652,7 +8609,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="23"/>
       <c r="J5" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="K5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8685,7 +8642,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="23"/>
       <c r="J6" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="K6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8714,7 +8671,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="23"/>
       <c r="J7" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8747,10 +8704,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="K8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8783,10 +8740,10 @@
         <v>1</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="K9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8815,7 +8772,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="23"/>
       <c r="J10" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="K10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8847,7 +8804,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="23"/>
       <c r="J11" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="K11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8874,7 +8831,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="23"/>
       <c r="J12" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="K12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8906,10 +8863,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8941,10 +8898,10 @@
         <v>1</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="K14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8972,7 +8929,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="22"/>
       <c r="J15" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="K15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -9003,7 +8960,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
       <c r="J16" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="K16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -9029,7 +8986,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="K17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -9137,13 +9094,13 @@
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
       <c r="J24" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="L24" s="39" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>299</v>
@@ -9490,44 +9447,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>346</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="57" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>365</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="58" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="57" t="s">
         <v>366</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="53" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="44" t="s">
+      <c r="K1" s="54"/>
+      <c r="L1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="44" t="s">
+      <c r="N1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -9537,7 +9494,7 @@
       <c r="D2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -9556,10 +9513,10 @@
       <c r="K2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -10620,40 +10577,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
-        <v>437</v>
-      </c>
-      <c r="B1" s="48" t="s">
+      <c r="A1" s="59" t="s">
+        <v>416</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="53" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="44" t="s">
+      <c r="L1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -10663,7 +10620,7 @@
       <c r="D2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -10676,10 +10633,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -10701,10 +10658,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="K3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones Vehiculos",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
@@ -10738,10 +10695,10 @@
         <v>1</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="K4" s="12" t="str">
         <f t="shared" ref="K4:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones Vehiculos",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
@@ -10772,7 +10729,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
       <c r="J5" s="7" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="K5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -10805,7 +10762,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
       <c r="J6" s="7" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="K6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -10834,7 +10791,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="7" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="K7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -10870,7 +10827,7 @@
         <v>371</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="K8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -10903,10 +10860,10 @@
         <v>1</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="K9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -10935,7 +10892,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
       <c r="J10" s="7" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="K10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -10967,7 +10924,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
       <c r="J11" s="7" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="K11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -10994,7 +10951,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
       <c r="J12" s="7" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="K12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11026,10 +10983,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11061,10 +11018,10 @@
         <v>1</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="K14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11092,7 +11049,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="22"/>
       <c r="J15" s="7" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="K15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11123,7 +11080,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
       <c r="J16" s="7" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="K16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11149,7 +11106,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
       <c r="J17" s="7" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="K17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11257,13 +11214,13 @@
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
       <c r="J24" s="7" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="L24" s="39" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>299</v>
@@ -11605,41 +11562,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
-        <v>456</v>
-      </c>
-      <c r="B1" s="48" t="s">
+      <c r="A1" s="59" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>381</v>
-      </c>
-      <c r="G1" s="53" t="s">
+        <v>376</v>
+      </c>
+      <c r="G1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="44" t="s">
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="44" t="s">
+      <c r="M1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -11649,26 +11606,26 @@
       <c r="D2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="40" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
+        <v>439</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -11694,7 +11651,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="7" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="L3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Usuarios Empresas Externas",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Email para abrir ventada de envio de correo",""),IF(G3=1,", finalizando con la consulta mediante el filtro(s) ",""),IF(G3=1,$G$2,"")," ",IF(H3=1,$H$2,"")," ",IF(I3=1,$I$2,"")," ",IF(J3=1,$J$2,""))</f>
@@ -11726,7 +11683,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="7" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="L4" s="12" t="str">
         <f t="shared" ref="L4:L17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Usuarios Empresas Externas",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Email para abrir ventada de envio de correo",""),IF(G4=1,", finalizando con la consulta mediante el filtro(s) ",""),IF(G4=1,$G$2,"")," ",IF(H4=1,$H$2,"")," ",IF(I4=1,$I$2,"")," ",IF(J4=1,$J$2,""))</f>
@@ -11762,7 +11719,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="L5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11794,7 +11751,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="7" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="L6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11828,7 +11785,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="L7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11861,7 +11818,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="7" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="L8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11896,7 +11853,7 @@
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="7" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="L9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11930,7 +11887,7 @@
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="7" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="L10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11965,7 +11922,7 @@
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="7" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="L11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11997,7 +11954,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="L12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12029,7 +11986,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="7" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="L13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12059,7 +12016,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="7" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="L14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12088,7 +12045,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="7" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="L15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12118,7 +12075,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="7" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="L16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12145,7 +12102,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="7" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="L17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12260,13 +12217,13 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="7" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="M24" s="39" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="N24" s="7" t="s">
         <v>299</v>
@@ -12634,40 +12591,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
-        <v>485</v>
-      </c>
-      <c r="B1" s="48" t="s">
+      <c r="A1" s="59" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="58" t="s">
-        <v>467</v>
-      </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="53" t="s">
+      <c r="F1" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="44" t="s">
+      <c r="L1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -12677,7 +12634,7 @@
       <c r="D2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -12685,15 +12642,15 @@
         <v>7</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>468</v>
-      </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+        <v>447</v>
+      </c>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -12716,7 +12673,7 @@
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="7" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="K3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Tipo Procesos",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Acronimo para modificar registro",IF(G3=1,", hacer clic en enlace Acronimo para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(I3=1,$I$2,""))</f>
@@ -12751,7 +12708,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="K4" s="12" t="str">
         <f t="shared" ref="K4:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Tipo Procesos",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Acronimo para modificar registro",IF(G4=1,", hacer clic en enlace Acronimo para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(I4=1,$I$2,""))</f>
@@ -12784,7 +12741,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="7" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="K5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12821,7 +12778,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="K6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12852,7 +12809,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="7" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="K7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12886,7 +12843,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="K8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12922,7 +12879,7 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="7" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="K9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12955,7 +12912,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="K10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12989,7 +12946,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="7" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="K11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -13018,7 +12975,7 @@
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="7" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="K12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -13051,7 +13008,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="K13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -13088,7 +13045,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="K14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -13118,7 +13075,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="7" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="K15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -13151,7 +13108,7 @@
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="7" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="K16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -13179,7 +13136,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="K17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -13289,13 +13246,13 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="7" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="L24" s="39" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>299</v>
@@ -13643,45 +13600,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="57" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="58" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="53" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="44" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="44" t="s">
+      <c r="O1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -13691,7 +13648,7 @@
       <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -13713,10 +13670,10 @@
       <c r="L2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -14787,16 +14744,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14829,40 +14786,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
-        <v>488</v>
-      </c>
-      <c r="B1" s="48" t="s">
+      <c r="A1" s="59" t="s">
+        <v>467</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="58" t="s">
-        <v>488</v>
-      </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="53" t="s">
+      <c r="F1" s="57" t="s">
+        <v>467</v>
+      </c>
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="44" t="s">
+      <c r="L1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -14872,7 +14829,7 @@
       <c r="D2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -14880,15 +14837,15 @@
         <v>7</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -14910,10 +14867,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="K3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo CIA GPS",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace CIA GPS para modificar registro",IF(G3=1,", hacer clic en enlace CIA GPS para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
@@ -14950,7 +14907,7 @@
         <v>371</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="K4" s="12" t="str">
         <f t="shared" ref="K4:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo CIA GPS",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace CIA GPS para modificar registro",IF(G4=1,", hacer clic en enlace CIA GPS para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
@@ -14981,7 +14938,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
       <c r="J5" s="7" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="K5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15014,7 +14971,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
       <c r="J6" s="7" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="K6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15043,7 +15000,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="7" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="K7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15076,10 +15033,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="K8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15115,7 +15072,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="K9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15144,7 +15101,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
       <c r="J10" s="7" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="K10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15176,7 +15133,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
       <c r="J11" s="7" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="K11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15203,7 +15160,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
       <c r="J12" s="7" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="K12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15235,10 +15192,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="K13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15273,7 +15230,7 @@
         <v>372</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="K14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15301,7 +15258,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="22"/>
       <c r="J15" s="7" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="K15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15332,7 +15289,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
       <c r="J16" s="7" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="K16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15358,7 +15315,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
       <c r="J17" s="7" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="K17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15466,13 +15423,13 @@
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
       <c r="J24" s="7" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="L24" s="39" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>299</v>
@@ -15795,8 +15752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A17"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15817,41 +15774,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
-        <v>526</v>
-      </c>
-      <c r="B1" s="48" t="s">
+      <c r="A1" s="59" t="s">
+        <v>505</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="53" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="44" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="44" t="s">
+      <c r="M1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -15861,7 +15818,7 @@
       <c r="D2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -15872,15 +15829,15 @@
         <v>45</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>529</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
+        <v>508</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -15904,15 +15861,15 @@
       <c r="I3" s="9"/>
       <c r="J3" s="23"/>
       <c r="K3" s="7" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="L3" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Documentos por Proveedor",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
-        <v xml:space="preserve">Validar funcionalidad Agregar del modulo Maestro, sub-modulo Documentos por Proveedor, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato </v>
+        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Documentos por Proveedor",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(I3=1,$I$2,""),IF(J3=1,$J$2,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Documentos por Proveedor, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción</v>
       </c>
       <c r="M3" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Documentos por Proveedor",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
-        <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Documentos por Proveedor, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato </v>
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Documentos por Proveedor",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(I3=1,$I$2,""),IF(J3=1,$J$2,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Documentos por Proveedor, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>78</v>
@@ -15940,10 +15897,16 @@
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+        <v>490</v>
+      </c>
+      <c r="L4" s="12" t="str">
+        <f t="shared" ref="L4:L17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Documentos por Proveedor",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(I4=1,$I$2,""),IF(J4=1,$J$2,""))</f>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Documentos por Proveedor, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registroAcronimo</v>
+      </c>
+      <c r="M4" s="12" t="str">
+        <f t="shared" ref="M4:M17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Documentos por Proveedor",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(I4=1,$I$2,""),IF(J4=1,$J$2,""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Documentos por Proveedor, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registroAcronimo</v>
+      </c>
       <c r="N4" s="7" t="s">
         <v>78</v>
       </c>
@@ -15968,10 +15931,16 @@
         <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+        <v>491</v>
+      </c>
+      <c r="L5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Documentos por Proveedor, hacer clic en enlace Descripción para modificar registroProveedor</v>
+      </c>
+      <c r="M5" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Documentos por Proveedor, hacer clic en boton agregar, hacer clic en enlace Descripción para modificar registroProveedor</v>
+      </c>
       <c r="N5" s="7" t="s">
         <v>78</v>
       </c>
@@ -15996,10 +15965,16 @@
       <c r="I6" s="9"/>
       <c r="J6" s="10"/>
       <c r="K6" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+        <v>492</v>
+      </c>
+      <c r="L6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Documentos por Proveedor, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="M6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Documentos por Proveedor, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
       <c r="N6" s="7" t="s">
         <v>78</v>
       </c>
@@ -16026,10 +16001,16 @@
         <v>1</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+        <v>493</v>
+      </c>
+      <c r="L7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Documentos por Proveedor, finalizando con la consulta mediante el filtro DescripciónAcronimoProveedor</v>
+      </c>
+      <c r="M7" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Documentos por Proveedor, hacer clic en boton agregar, finalizando con la consulta mediante el filtro DescripciónAcronimoProveedor</v>
+      </c>
       <c r="N7" s="31" t="s">
         <v>78</v>
       </c>
@@ -16053,10 +16034,16 @@
       <c r="I8" s="9"/>
       <c r="J8" s="23"/>
       <c r="K8" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+        <v>494</v>
+      </c>
+      <c r="L8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Documentos por Proveedor, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
+      <c r="M8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Documentos por Proveedor, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro</v>
+      </c>
       <c r="N8" s="7" t="s">
         <v>79</v>
       </c>
@@ -16082,10 +16069,16 @@
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+        <v>495</v>
+      </c>
+      <c r="L9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Documentos por Proveedor, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registroAcronimo</v>
+      </c>
+      <c r="M9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Documentos por Proveedor, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registroAcronimo</v>
+      </c>
       <c r="N9" s="7" t="s">
         <v>79</v>
       </c>
@@ -16108,9 +16101,16 @@
         <v>1</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="M10" s="12"/>
+        <v>496</v>
+      </c>
+      <c r="L10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Documentos por Proveedor, hacer clic en enlace Descripción para modificar registroProveedor</v>
+      </c>
+      <c r="M10" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Documentos por Proveedor, hacer clic en boton eliminar, hacer clic en enlace Descripción para modificar registroProveedor</v>
+      </c>
       <c r="N10" s="7" t="s">
         <v>79</v>
       </c>
@@ -16136,9 +16136,16 @@
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
       <c r="K11" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="M11" s="12"/>
+        <v>497</v>
+      </c>
+      <c r="L11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Documentos por Proveedor, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción</v>
+      </c>
+      <c r="M11" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Documentos por Proveedor, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción</v>
+      </c>
       <c r="N11" s="7" t="s">
         <v>79</v>
       </c>
@@ -16157,9 +16164,16 @@
       <c r="I12" s="9"/>
       <c r="J12" s="10"/>
       <c r="K12" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="M12" s="12"/>
+        <v>498</v>
+      </c>
+      <c r="L12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Documentos por Proveedor</v>
+      </c>
+      <c r="M12" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Documentos por Proveedor, hacer clic en boton eliminar</v>
+      </c>
       <c r="N12" s="31" t="s">
         <v>79</v>
       </c>
@@ -16184,9 +16198,16 @@
         <v>1</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="M13" s="12"/>
+        <v>499</v>
+      </c>
+      <c r="L13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Documentos por Proveedor, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registroProveedor</v>
+      </c>
+      <c r="M13" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Documentos por Proveedor, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registroProveedor</v>
+      </c>
       <c r="N13" s="7" t="s">
         <v>126</v>
       </c>
@@ -16211,9 +16232,16 @@
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="M14" s="12"/>
+        <v>500</v>
+      </c>
+      <c r="L14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Documentos por Proveedor, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registroAcronimo</v>
+      </c>
+      <c r="M14" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Documentos por Proveedor, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registroAcronimo</v>
+      </c>
       <c r="N14" s="7" t="s">
         <v>126</v>
       </c>
@@ -16235,9 +16263,16 @@
       <c r="I15" s="9"/>
       <c r="J15" s="22"/>
       <c r="K15" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="M15" s="12"/>
+        <v>501</v>
+      </c>
+      <c r="L15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Documentos por Proveedor, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción</v>
+      </c>
+      <c r="M15" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Documentos por Proveedor, hacer clic en boton modificar, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción</v>
+      </c>
       <c r="N15" s="7" t="s">
         <v>126</v>
       </c>
@@ -16260,9 +16295,16 @@
       <c r="I16" s="9"/>
       <c r="J16" s="10"/>
       <c r="K16" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="M16" s="12"/>
+        <v>502</v>
+      </c>
+      <c r="L16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Documentos por Proveedor, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
+      <c r="M16" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Documentos por Proveedor, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
+      </c>
       <c r="N16" s="7" t="s">
         <v>126</v>
       </c>
@@ -16286,9 +16328,16 @@
         <v>1</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="M17" s="12"/>
+        <v>503</v>
+      </c>
+      <c r="L17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Documentos por Proveedor, finalizando con la consulta mediante el filtro DescripciónAcronimoProveedor</v>
+      </c>
+      <c r="M17" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Documentos por Proveedor, hacer clic en boton modificar, finalizando con la consulta mediante el filtro DescripciónAcronimoProveedor</v>
+      </c>
       <c r="N17" s="31" t="s">
         <v>126</v>
       </c>
@@ -16394,13 +16443,13 @@
       <c r="I24" s="9"/>
       <c r="J24" s="10"/>
       <c r="K24" s="7" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="M24" s="39" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="N24" s="7" t="s">
         <v>299</v>
@@ -16746,785 +16795,286 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="4.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="51.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="255.42578125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="255.42578125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="79" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="255.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="255.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="79" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
-        <v>404</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>373</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="59" t="s">
-        <v>530</v>
-      </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="44" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="44" t="s">
+      <c r="C1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>375</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="31"/>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="8">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="8">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="31"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>1</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="31"/>
-    </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="7" t="s">
+    <row r="2" spans="1:4" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="31"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-    </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-    </row>
-    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="7"/>
-    </row>
-    <row r="50" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17558,41 +17108,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="53" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="44" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="44" t="s">
+      <c r="M1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -17602,7 +17152,7 @@
       <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -17618,10 +17168,10 @@
       <c r="J2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -18614,44 +18164,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="59" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="57" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="44" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="44" t="s">
+      <c r="P1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -18673,7 +18223,7 @@
       <c r="H2" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="45"/>
+      <c r="I2" s="44"/>
       <c r="J2" s="20" t="s">
         <v>39</v>
       </c>
@@ -18686,10 +18236,10 @@
       <c r="M2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -19786,42 +19336,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="53" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="44" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="44" t="s">
+      <c r="N1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -19831,7 +19381,7 @@
       <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -19850,10 +19400,10 @@
       <c r="K2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -20892,47 +20442,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="53" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="44" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="R1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="44" t="s">
+      <c r="S1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="14" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -20942,7 +20492,7 @@
       <c r="D2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -20976,10 +20526,10 @@
       <c r="P2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -22274,40 +21824,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="53" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="44" t="s">
+      <c r="L1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -22317,7 +21867,7 @@
       <c r="D2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -22330,10 +21880,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -23262,40 +22812,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="53" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="44" t="s">
+      <c r="L1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -23305,7 +22855,7 @@
       <c r="D2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -23318,10 +22868,10 @@
       <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -24250,41 +23800,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="53" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="44" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="44" t="s">
+      <c r="M1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -24294,7 +23844,7 @@
       <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
@@ -24310,10 +23860,10 @@
       <c r="J2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">

--- a/Maestros.xlsx
+++ b/Maestros.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="527">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -1606,7 +1606,34 @@
     <t>TC_Cartera_MotivoRecompra_MotivoTraslado</t>
   </si>
   <si>
-    <t>Validar</t>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo motivo recompra, hacer en enlace recompra descripcion, visualizar datos del registro seleccionado en pestaña general.</t>
+  </si>
+  <si>
+    <t>Validar ingreso de nuevo registro en formulario motivo recompra pestaña carta guia, indicando datos requerido para realizar registro.</t>
+  </si>
+  <si>
+    <t>Validar consulta del formulario motivo recompra pestaña general, luego de acceder al mismo a través de enlace recompra descripción.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo motivo recompra, hacer en enlace recompra descripcion, hacer clic en pestaña carta guia, hacer clic enn icono agregar, ingresar datos requeridos para ingresar nuevo registro.</t>
+  </si>
+  <si>
+    <t>Ingreso de nuevo registro de carta guia de manera exitosa.</t>
+  </si>
+  <si>
+    <t>Validar modificación de registro exitente en formulario motivo recompra pestaña carta guia, seleccionando registro que puede ser editable.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo motivo recompra, hacer en enlace recompra descripcion, hacer clic en pestaña carta guia, hacer clic en icono modificar, modificar datos del registro (fecha, ubicacion fisica, guia tipo, entre otros).</t>
+  </si>
+  <si>
+    <t>Modificación exitosa de registro.</t>
+  </si>
+  <si>
+    <t>Visualización de datos correctamente.</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad eliminar de registro exitente en formulario motivo recompra pestaña carta guia, seleccionando registro que puede ser eliminado.</t>
   </si>
 </sst>
 </file>
@@ -14744,16 +14771,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15752,8 +15779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="E1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16797,14 +16824,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="55.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="255.42578125" style="12" customWidth="1"/>
     <col min="3" max="3" width="255.42578125" style="7" customWidth="1"/>
     <col min="4" max="4" width="79" style="7" bestFit="1" customWidth="1"/>
@@ -16835,33 +16862,53 @@
         <v>509</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="7"/>
+      <c r="B4" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/Maestros.xlsx
+++ b/Maestros.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="540">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -1251,9 +1251,6 @@
     <t>TC_Cartera_TipoGestion_Modificar</t>
   </si>
   <si>
-    <t>TC_Cartera_MotivoRecompra_ConsolidadoError</t>
-  </si>
-  <si>
     <t>TC_Cartera_UbicacionesVehiculos_AgregarConsulta</t>
   </si>
   <si>
@@ -1634,6 +1631,48 @@
   </si>
   <si>
     <t>Validar funcionalidad eliminar de registro exitente en formulario motivo recompra pestaña carta guia, seleccionando registro que puede ser eliminado.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo motivo recompra, hacer en enlace recompra descripcion, hacer clic en pestaña carta guia, hacer clic en icono eliminar.</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje indicando que no es posible eliminar registro.</t>
+  </si>
+  <si>
+    <t>Validar consulta del formulario motivo recompra pestaña carta guia, luego de acceder al mismo a través de enlace recompra descripción - enlace nomina pestaña pagares para finalizar con la descarga de archivo PDF.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo motivo recompra, hacer en enlace recompra descripcion, hacer clic en pestaña carta guia, hacer clic en enlace nomina, ingresar a pestaña pagares, hacer clic en boton generar PDF.</t>
+  </si>
+  <si>
+    <t>Descar de archivo de manera exitosa.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo motivo recompra, hacer en enlace recompra descripcion, hacer clic en pestaña carta guia, hacer clic en enlace ubicación pagare pestaña general, hacer clic en botón modificar.</t>
+  </si>
+  <si>
+    <t>Sistema permite la modificación de ubicación de pagare asociado a registro motivo recompra</t>
+  </si>
+  <si>
+    <t>Validar consulta de ubicación pagare, accediendo a traves de enlace ubicación pagare (fomulario motivo recompra, enlace recompra descripción pestaña carta guia), finalizando con la modificación y/o eliminación de registro.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo motivo recompra, hacer en enlace recompra descripcion, hacer clic en pestaña carta guia, hacer clic en enlace ubicación fisica pestaña general, hacer clic en botón eliminar.</t>
+  </si>
+  <si>
+    <t>Sistema permite la eliminación de ubicación de fisica asociado a registro motivo recompra</t>
+  </si>
+  <si>
+    <t>Validar consulta de ubicación fisica, accediendo a traves de enlace ubicación fisica (fomulario motivo recompra, enlace recompra descripción pestaña carta guia), finalizando con la eliminación de registro.</t>
+  </si>
+  <si>
+    <t>Validar consulta de motivo traslado, accediendo a traves de enlace motivo traslado (fomulario motivo recompra, enlace recompra descripción pestaña carta guia), finalizando con la modificación y eliminación de registro.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo motivo recompra, hacer en enlace recompra descripcion, hacer clic en pestaña carta guia, hacer clic en enlace motivo traslado pestaña general, hacer clic en botón modificar, luego de ello, proceder a eliminar registro haciendo clic en boton eliminar.</t>
+  </si>
+  <si>
+    <t>Sistema permite la modificación y eliminación de motivo traslados asociado a registro motivo recompra.</t>
   </si>
 </sst>
 </file>
@@ -10605,7 +10644,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>5</v>
@@ -10685,10 +10724,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones Vehiculos",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
@@ -10722,10 +10761,10 @@
         <v>1</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K4" s="12" t="str">
         <f t="shared" ref="K4:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Ubicaciones Vehiculos",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
@@ -10756,7 +10795,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
       <c r="J5" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -10789,7 +10828,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
       <c r="J6" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -10818,7 +10857,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -10854,7 +10893,7 @@
         <v>371</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -10887,10 +10926,10 @@
         <v>1</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -10919,7 +10958,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
       <c r="J10" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -10951,7 +10990,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
       <c r="J11" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -10978,7 +11017,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
       <c r="J12" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11010,10 +11049,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11045,10 +11084,10 @@
         <v>1</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11076,7 +11115,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="22"/>
       <c r="J15" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11107,7 +11146,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
       <c r="J16" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11133,7 +11172,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
       <c r="J17" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11241,13 +11280,13 @@
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
       <c r="J24" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K24" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="L24" s="39" t="s">
         <v>417</v>
-      </c>
-      <c r="L24" s="39" t="s">
-        <v>418</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>299</v>
@@ -11590,7 +11629,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>5</v>
@@ -11635,19 +11674,19 @@
       </c>
       <c r="E2" s="44"/>
       <c r="F2" s="40" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I2" s="20" t="s">
         <v>376</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K2" s="44"/>
       <c r="L2" s="44"/>
@@ -11678,7 +11717,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Usuarios Empresas Externas",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Email para abrir ventada de envio de correo",""),IF(G3=1,", finalizando con la consulta mediante el filtro(s) ",""),IF(G3=1,$G$2,"")," ",IF(H3=1,$H$2,"")," ",IF(I3=1,$I$2,"")," ",IF(J3=1,$J$2,""))</f>
@@ -11710,7 +11749,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L4" s="12" t="str">
         <f t="shared" ref="L4:L17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Usuarios Empresas Externas",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Email para abrir ventada de envio de correo",""),IF(G4=1,", finalizando con la consulta mediante el filtro(s) ",""),IF(G4=1,$G$2,"")," ",IF(H4=1,$H$2,"")," ",IF(I4=1,$I$2,"")," ",IF(J4=1,$J$2,""))</f>
@@ -11746,7 +11785,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11778,7 +11817,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11812,7 +11851,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11845,7 +11884,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11880,7 +11919,7 @@
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11914,7 +11953,7 @@
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11949,7 +11988,7 @@
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11981,7 +12020,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12013,7 +12052,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12043,7 +12082,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12072,7 +12111,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12102,7 +12141,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12129,7 +12168,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12244,13 +12283,13 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L24" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="M24" s="39" t="s">
         <v>436</v>
-      </c>
-      <c r="M24" s="39" t="s">
-        <v>437</v>
       </c>
       <c r="N24" s="7" t="s">
         <v>299</v>
@@ -12619,7 +12658,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>5</v>
@@ -12630,7 +12669,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="57" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G1" s="49"/>
       <c r="H1" s="52" t="s">
@@ -12669,10 +12708,10 @@
         <v>7</v>
       </c>
       <c r="H2" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>446</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>447</v>
       </c>
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
@@ -12700,7 +12739,7 @@
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Tipo Procesos",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Acronimo para modificar registro",IF(G3=1,", hacer clic en enlace Acronimo para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(I3=1,$I$2,""))</f>
@@ -12735,7 +12774,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K4" s="12" t="str">
         <f t="shared" ref="K4:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Tipo Procesos",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Acronimo para modificar registro",IF(G4=1,", hacer clic en enlace Acronimo para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(I4=1,$I$2,""))</f>
@@ -12768,7 +12807,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12805,7 +12844,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12836,7 +12875,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12870,7 +12909,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12906,7 +12945,7 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12939,7 +12978,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12973,7 +13012,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -13002,7 +13041,7 @@
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -13035,7 +13074,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -13072,7 +13111,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -13102,7 +13141,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -13135,7 +13174,7 @@
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -13163,7 +13202,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -13273,13 +13312,13 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K24" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="L24" s="39" t="s">
         <v>465</v>
-      </c>
-      <c r="L24" s="39" t="s">
-        <v>466</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>299</v>
@@ -14771,16 +14810,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14814,7 +14853,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>5</v>
@@ -14825,7 +14864,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="57" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G1" s="49"/>
       <c r="H1" s="52" t="s">
@@ -14864,7 +14903,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I2" s="19" t="s">
         <v>14</v>
@@ -14894,10 +14933,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo CIA GPS",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace CIA GPS para modificar registro",IF(G3=1,", hacer clic en enlace CIA GPS para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
@@ -14934,7 +14973,7 @@
         <v>371</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K4" s="12" t="str">
         <f t="shared" ref="K4:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo CIA GPS",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace CIA GPS para modificar registro",IF(G4=1,", hacer clic en enlace CIA GPS para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
@@ -14965,7 +15004,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
       <c r="J5" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -14998,7 +15037,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
       <c r="J6" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15027,7 +15066,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15060,10 +15099,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15099,7 +15138,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15128,7 +15167,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
       <c r="J10" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15160,7 +15199,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
       <c r="J11" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15187,7 +15226,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
       <c r="J12" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15219,10 +15258,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15257,7 +15296,7 @@
         <v>372</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15285,7 +15324,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="22"/>
       <c r="J15" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15316,7 +15355,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
       <c r="J16" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15342,7 +15381,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
       <c r="J17" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15450,13 +15489,13 @@
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
       <c r="J24" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="L24" s="39" t="s">
         <v>487</v>
-      </c>
-      <c r="L24" s="39" t="s">
-        <v>488</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>299</v>
@@ -15802,7 +15841,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>5</v>
@@ -15856,10 +15895,10 @@
         <v>45</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K2" s="44"/>
       <c r="L2" s="44"/>
@@ -15888,7 +15927,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="23"/>
       <c r="K3" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Documentos por Proveedor",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(I3=1,$I$2,""),IF(J3=1,$J$2,""))</f>
@@ -15924,7 +15963,7 @@
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L4" s="12" t="str">
         <f t="shared" ref="L4:L17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Documentos por Proveedor",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(I4=1,$I$2,""),IF(J4=1,$J$2,""))</f>
@@ -15958,7 +15997,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15992,7 +16031,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="10"/>
       <c r="K6" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -16028,7 +16067,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -16061,7 +16100,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="23"/>
       <c r="K8" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -16096,7 +16135,7 @@
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -16128,7 +16167,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -16163,7 +16202,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
       <c r="K11" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -16191,7 +16230,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="10"/>
       <c r="K12" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -16225,7 +16264,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -16259,7 +16298,7 @@
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -16290,7 +16329,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="22"/>
       <c r="K15" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -16322,7 +16361,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="10"/>
       <c r="K16" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -16355,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -16470,13 +16509,13 @@
       <c r="I24" s="9"/>
       <c r="J24" s="10"/>
       <c r="K24" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L24" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="M24" s="39" t="s">
         <v>506</v>
-      </c>
-      <c r="M24" s="39" t="s">
-        <v>507</v>
       </c>
       <c r="N24" s="7" t="s">
         <v>299</v>
@@ -16824,9 +16863,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5:C6"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16859,85 +16898,115 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="C10" s="12"/>
+      <c r="B10" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -17002,9 +17071,7 @@
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>399</v>
-      </c>
+      <c r="A23" s="7"/>
       <c r="B23" s="12"/>
       <c r="C23" s="39"/>
       <c r="D23" s="7" t="s">
